--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B21072C-4E56-4615-9F5E-39D4E52E060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FAE75E-30B4-4344-9737-4023272C8CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>システム名</t>
   </si>
@@ -54,9 +54,6 @@
     <t>項番</t>
   </si>
   <si>
-    <t>備考</t>
-  </si>
-  <si>
     <t>説明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -110,19 +107,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>新規のユーザを登録する画面</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>模擬試験Webアプリ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -140,30 +124,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>utucheck</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>うつ病チェック</t>
-    <rPh sb="2" eb="3">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結果表示画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>登録完了画面</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -206,19 +166,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>登録が上手くいかなかったときの画面</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン成功画面</t>
     <rPh sb="4" eb="6">
       <t>セイコウ</t>
@@ -227,16 +174,6 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン成功時の画面</t>
-    <rPh sb="4" eb="7">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ログイン失敗画面</t>
@@ -259,56 +196,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データを更新</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>update</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>utucheck(フロント周りで解決）</t>
-    <rPh sb="13" eb="14">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結果表示画面。下にsubmitボタンがあり、提出するとデータに登録される</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>履歴画面</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -345,10 +233,6 @@
   </si>
   <si>
     <t>そのまま</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>history</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -370,10 +254,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>login/loginfail</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -382,12 +262,242 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>回答履歴の表示</t>
+    <t>ログイン成功時の画面,うつ病チェックへのリンクあり</t>
+    <rPh sb="4" eb="7">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>新規のユーザを登録する画面　ログイン画面から飛べる</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録が上手くいかなかったときの画面　bootstrap等使用して遷移せずにエラー</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bootstrap使用して一致しない場合はエラー</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userdata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回答履歴の表示、ユーザー情報修正</t>
     <rPh sb="0" eb="4">
       <t>カイトウリレキ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データを更新→修正したらそのままユーザー情報画面へ</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点数表示と提出するか</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提出完了</t>
+    <rPh sb="0" eb="2">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submitOK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提出完了画面</t>
+    <rPh sb="0" eb="4">
+      <t>テイシュツカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">備考
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>quiz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クイズ内容表示 下に点数表示</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト完了画面、ログイン画面遷移あり</t>
+    <rPh sb="5" eb="9">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updateuser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー詳細</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報を押した後の詳細画面　更新可能</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -482,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -702,17 +812,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -722,8 +821,118 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -736,7 +945,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -745,68 +954,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -815,15 +974,39 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -836,9 +1019,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -848,42 +1029,32 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -892,7 +1063,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -907,55 +1078,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,40 +1132,67 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,6 +1200,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,24 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1428,7 +1605,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS15" sqref="AS15:CI15"/>
+      <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1443,102 +1620,102 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
-      <c r="BJ1" s="53"/>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="54" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="54"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="55"/>
-      <c r="BT1" s="55"/>
-      <c r="BU1" s="55"/>
-      <c r="BV1" s="55"/>
-      <c r="BW1" s="55"/>
-      <c r="BX1" s="42" t="s">
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="63"/>
+      <c r="BX1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="43"/>
-      <c r="CC1" s="43"/>
-      <c r="CD1" s="43"/>
-      <c r="CE1" s="43"/>
-      <c r="CF1" s="43"/>
-      <c r="CG1" s="43"/>
-      <c r="CH1" s="43"/>
-      <c r="CI1" s="43"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2479,102 +2656,102 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="47" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="54"/>
+      <c r="BL2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="47"/>
-      <c r="BO2" s="47"/>
-      <c r="BP2" s="48"/>
-      <c r="BQ2" s="48"/>
-      <c r="BR2" s="48"/>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="48"/>
-      <c r="BU2" s="48"/>
-      <c r="BV2" s="48"/>
-      <c r="BW2" s="48"/>
-      <c r="BX2" s="49" t="s">
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50"/>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
+      <c r="BY2" s="57"/>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="57"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="58"/>
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="58"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3602,1959 +3779,1979 @@
       <c r="CI3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="CK4" s="61" t="s">
-        <v>37</v>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49"/>
+      <c r="CI4" s="49"/>
+      <c r="CJ4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK4" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="39"/>
-      <c r="BV5" s="39"/>
-      <c r="BW5" s="39"/>
-      <c r="BX5" s="39"/>
-      <c r="BY5" s="39"/>
-      <c r="BZ5" s="39"/>
-      <c r="CA5" s="39"/>
-      <c r="CB5" s="39"/>
-      <c r="CC5" s="39"/>
-      <c r="CD5" s="39"/>
-      <c r="CE5" s="39"/>
-      <c r="CF5" s="39"/>
-      <c r="CG5" s="39"/>
-      <c r="CH5" s="39"/>
-      <c r="CI5" s="39"/>
-      <c r="CJ5" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK5" s="59" t="s">
-        <v>38</v>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="46"/>
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="46"/>
+      <c r="CF5" s="46"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="46"/>
+      <c r="CI5" s="46"/>
+      <c r="CJ5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="CK5" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="39"/>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="39"/>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="39"/>
-      <c r="BF6" s="39"/>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
-      <c r="BI6" s="39"/>
-      <c r="BJ6" s="39"/>
-      <c r="BK6" s="39"/>
-      <c r="BL6" s="39"/>
-      <c r="BM6" s="39"/>
-      <c r="BN6" s="39"/>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="39"/>
-      <c r="BQ6" s="39"/>
-      <c r="BR6" s="39"/>
-      <c r="BS6" s="39"/>
-      <c r="BT6" s="39"/>
-      <c r="BU6" s="39"/>
-      <c r="BV6" s="39"/>
-      <c r="BW6" s="39"/>
-      <c r="BX6" s="39"/>
-      <c r="BY6" s="39"/>
-      <c r="BZ6" s="39"/>
-      <c r="CA6" s="39"/>
-      <c r="CB6" s="39"/>
-      <c r="CC6" s="39"/>
-      <c r="CD6" s="39"/>
-      <c r="CE6" s="39"/>
-      <c r="CF6" s="39"/>
-      <c r="CG6" s="39"/>
-      <c r="CH6" s="39"/>
-      <c r="CI6" s="39"/>
-      <c r="CJ6" s="57" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="CK6" s="59"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="46"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="46"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
+      <c r="BQ6" s="46"/>
+      <c r="BR6" s="46"/>
+      <c r="BS6" s="46"/>
+      <c r="BT6" s="46"/>
+      <c r="BU6" s="46"/>
+      <c r="BV6" s="46"/>
+      <c r="BW6" s="46"/>
+      <c r="BX6" s="46"/>
+      <c r="BY6" s="46"/>
+      <c r="BZ6" s="46"/>
+      <c r="CA6" s="46"/>
+      <c r="CB6" s="46"/>
+      <c r="CC6" s="46"/>
+      <c r="CD6" s="46"/>
+      <c r="CE6" s="46"/>
+      <c r="CF6" s="46"/>
+      <c r="CG6" s="46"/>
+      <c r="CH6" s="46"/>
+      <c r="CI6" s="46"/>
+      <c r="CJ6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK6" s="12"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="25"/>
-      <c r="BN7" s="25"/>
-      <c r="BO7" s="25"/>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="25"/>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="25"/>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="25"/>
-      <c r="BV7" s="25"/>
-      <c r="BW7" s="25"/>
-      <c r="BX7" s="25"/>
-      <c r="BY7" s="25"/>
-      <c r="BZ7" s="25"/>
-      <c r="CA7" s="25"/>
-      <c r="CB7" s="25"/>
-      <c r="CC7" s="25"/>
-      <c r="CD7" s="25"/>
-      <c r="CE7" s="25"/>
-      <c r="CF7" s="25"/>
-      <c r="CG7" s="25"/>
-      <c r="CH7" s="25"/>
-      <c r="CI7" s="25"/>
-      <c r="CJ7" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK7" s="59" t="s">
-        <v>38</v>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="23"/>
+      <c r="BK7" s="23"/>
+      <c r="BL7" s="23"/>
+      <c r="BM7" s="23"/>
+      <c r="BN7" s="23"/>
+      <c r="BO7" s="23"/>
+      <c r="BP7" s="23"/>
+      <c r="BQ7" s="23"/>
+      <c r="BR7" s="23"/>
+      <c r="BS7" s="23"/>
+      <c r="BT7" s="23"/>
+      <c r="BU7" s="23"/>
+      <c r="BV7" s="23"/>
+      <c r="BW7" s="23"/>
+      <c r="BX7" s="23"/>
+      <c r="BY7" s="23"/>
+      <c r="BZ7" s="23"/>
+      <c r="CA7" s="23"/>
+      <c r="CB7" s="23"/>
+      <c r="CC7" s="23"/>
+      <c r="CD7" s="23"/>
+      <c r="CE7" s="23"/>
+      <c r="CF7" s="23"/>
+      <c r="CG7" s="23"/>
+      <c r="CH7" s="23"/>
+      <c r="CI7" s="23"/>
+      <c r="CJ7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK7" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="25" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="23"/>
+      <c r="BK8" s="23"/>
+      <c r="BL8" s="23"/>
+      <c r="BM8" s="23"/>
+      <c r="BN8" s="23"/>
+      <c r="BO8" s="23"/>
+      <c r="BP8" s="23"/>
+      <c r="BQ8" s="23"/>
+      <c r="BR8" s="23"/>
+      <c r="BS8" s="23"/>
+      <c r="BT8" s="23"/>
+      <c r="BU8" s="23"/>
+      <c r="BV8" s="23"/>
+      <c r="BW8" s="23"/>
+      <c r="BX8" s="23"/>
+      <c r="BY8" s="23"/>
+      <c r="BZ8" s="23"/>
+      <c r="CA8" s="23"/>
+      <c r="CB8" s="23"/>
+      <c r="CC8" s="23"/>
+      <c r="CD8" s="23"/>
+      <c r="CE8" s="23"/>
+      <c r="CF8" s="23"/>
+      <c r="CG8" s="23"/>
+      <c r="CH8" s="23"/>
+      <c r="CI8" s="23"/>
+      <c r="CJ8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="25"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="25"/>
-      <c r="BN8" s="25"/>
-      <c r="BO8" s="25"/>
-      <c r="BP8" s="25"/>
-      <c r="BQ8" s="25"/>
-      <c r="BR8" s="25"/>
-      <c r="BS8" s="25"/>
-      <c r="BT8" s="25"/>
-      <c r="BU8" s="25"/>
-      <c r="BV8" s="25"/>
-      <c r="BW8" s="25"/>
-      <c r="BX8" s="25"/>
-      <c r="BY8" s="25"/>
-      <c r="BZ8" s="25"/>
-      <c r="CA8" s="25"/>
-      <c r="CB8" s="25"/>
-      <c r="CC8" s="25"/>
-      <c r="CD8" s="25"/>
-      <c r="CE8" s="25"/>
-      <c r="CF8" s="25"/>
-      <c r="CG8" s="25"/>
-      <c r="CH8" s="25"/>
-      <c r="CI8" s="25"/>
-      <c r="CJ8" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK8" s="59" t="s">
-        <v>38</v>
+      <c r="CK8" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27"/>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27"/>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27"/>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27"/>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27"/>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27"/>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27"/>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK9" s="59" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="22" t="s">
         <v>38</v>
+      </c>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25"/>
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25"/>
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25"/>
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25"/>
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25"/>
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK9" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>6</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="26" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="25"/>
+      <c r="BF10" s="25"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
+      <c r="BM10" s="25"/>
+      <c r="BN10" s="25"/>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
+      <c r="BU10" s="25"/>
+      <c r="BV10" s="25"/>
+      <c r="BW10" s="25"/>
+      <c r="BX10" s="25"/>
+      <c r="BY10" s="25"/>
+      <c r="BZ10" s="25"/>
+      <c r="CA10" s="25"/>
+      <c r="CB10" s="25"/>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="25"/>
+      <c r="CE10" s="25"/>
+      <c r="CF10" s="25"/>
+      <c r="CG10" s="25"/>
+      <c r="CH10" s="25"/>
+      <c r="CI10" s="27"/>
+      <c r="CJ10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK10" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="27"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="27"/>
-      <c r="BE10" s="27"/>
-      <c r="BF10" s="27"/>
-      <c r="BG10" s="27"/>
-      <c r="BH10" s="27"/>
-      <c r="BI10" s="27"/>
-      <c r="BJ10" s="27"/>
-      <c r="BK10" s="27"/>
-      <c r="BL10" s="27"/>
-      <c r="BM10" s="27"/>
-      <c r="BN10" s="27"/>
-      <c r="BO10" s="27"/>
-      <c r="BP10" s="27"/>
-      <c r="BQ10" s="27"/>
-      <c r="BR10" s="27"/>
-      <c r="BS10" s="27"/>
-      <c r="BT10" s="27"/>
-      <c r="BU10" s="27"/>
-      <c r="BV10" s="27"/>
-      <c r="BW10" s="27"/>
-      <c r="BX10" s="27"/>
-      <c r="BY10" s="27"/>
-      <c r="BZ10" s="27"/>
-      <c r="CA10" s="27"/>
-      <c r="CB10" s="27"/>
-      <c r="CC10" s="27"/>
-      <c r="CD10" s="27"/>
-      <c r="CE10" s="27"/>
-      <c r="CF10" s="27"/>
-      <c r="CG10" s="27"/>
-      <c r="CH10" s="27"/>
-      <c r="CI10" s="29"/>
-      <c r="CJ10" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK10" s="59" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="33"/>
-      <c r="CA11" s="33"/>
-      <c r="CB11" s="33"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="33"/>
-      <c r="CE11" s="33"/>
-      <c r="CF11" s="33"/>
-      <c r="CG11" s="33"/>
-      <c r="CH11" s="33"/>
-      <c r="CI11" s="34"/>
-      <c r="CJ11" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK11" s="59" t="s">
-        <v>38</v>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="40"/>
+      <c r="BB11" s="40"/>
+      <c r="BC11" s="40"/>
+      <c r="BD11" s="40"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="40"/>
+      <c r="BI11" s="40"/>
+      <c r="BJ11" s="40"/>
+      <c r="BK11" s="40"/>
+      <c r="BL11" s="40"/>
+      <c r="BM11" s="40"/>
+      <c r="BN11" s="40"/>
+      <c r="BO11" s="40"/>
+      <c r="BP11" s="40"/>
+      <c r="BQ11" s="40"/>
+      <c r="BR11" s="40"/>
+      <c r="BS11" s="40"/>
+      <c r="BT11" s="40"/>
+      <c r="BU11" s="40"/>
+      <c r="BV11" s="40"/>
+      <c r="BW11" s="40"/>
+      <c r="BX11" s="40"/>
+      <c r="BY11" s="40"/>
+      <c r="BZ11" s="40"/>
+      <c r="CA11" s="40"/>
+      <c r="CB11" s="40"/>
+      <c r="CC11" s="40"/>
+      <c r="CD11" s="40"/>
+      <c r="CE11" s="40"/>
+      <c r="CF11" s="40"/>
+      <c r="CG11" s="40"/>
+      <c r="CH11" s="40"/>
+      <c r="CI11" s="41"/>
+      <c r="CJ11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK11" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>8</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="27"/>
-      <c r="BE12" s="27"/>
-      <c r="BF12" s="27"/>
-      <c r="BG12" s="27"/>
-      <c r="BH12" s="27"/>
-      <c r="BI12" s="27"/>
-      <c r="BJ12" s="27"/>
-      <c r="BK12" s="27"/>
-      <c r="BL12" s="27"/>
-      <c r="BM12" s="27"/>
-      <c r="BN12" s="27"/>
-      <c r="BO12" s="27"/>
-      <c r="BP12" s="27"/>
-      <c r="BQ12" s="27"/>
-      <c r="BR12" s="27"/>
-      <c r="BS12" s="27"/>
-      <c r="BT12" s="27"/>
-      <c r="BU12" s="27"/>
-      <c r="BV12" s="27"/>
-      <c r="BW12" s="27"/>
-      <c r="BX12" s="27"/>
-      <c r="BY12" s="27"/>
-      <c r="BZ12" s="27"/>
-      <c r="CA12" s="27"/>
-      <c r="CB12" s="27"/>
-      <c r="CC12" s="27"/>
-      <c r="CD12" s="27"/>
-      <c r="CE12" s="27"/>
-      <c r="CF12" s="27"/>
-      <c r="CG12" s="27"/>
-      <c r="CH12" s="27"/>
-      <c r="CI12" s="29"/>
-      <c r="CJ12" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK12" s="59" t="s">
-        <v>39</v>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="25"/>
+      <c r="BF12" s="25"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
+      <c r="BT12" s="25"/>
+      <c r="BU12" s="25"/>
+      <c r="BV12" s="25"/>
+      <c r="BW12" s="25"/>
+      <c r="BX12" s="25"/>
+      <c r="BY12" s="25"/>
+      <c r="BZ12" s="25"/>
+      <c r="CA12" s="25"/>
+      <c r="CB12" s="25"/>
+      <c r="CC12" s="25"/>
+      <c r="CD12" s="25"/>
+      <c r="CE12" s="25"/>
+      <c r="CF12" s="25"/>
+      <c r="CG12" s="25"/>
+      <c r="CH12" s="25"/>
+      <c r="CI12" s="27"/>
+      <c r="CJ12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK12" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>9</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27"/>
-      <c r="BL13" s="27"/>
-      <c r="BM13" s="27"/>
-      <c r="BN13" s="27"/>
-      <c r="BO13" s="27"/>
-      <c r="BP13" s="27"/>
-      <c r="BQ13" s="27"/>
-      <c r="BR13" s="27"/>
-      <c r="BS13" s="27"/>
-      <c r="BT13" s="27"/>
-      <c r="BU13" s="27"/>
-      <c r="BV13" s="27"/>
-      <c r="BW13" s="27"/>
-      <c r="BX13" s="27"/>
-      <c r="BY13" s="27"/>
-      <c r="BZ13" s="27"/>
-      <c r="CA13" s="27"/>
-      <c r="CB13" s="27"/>
-      <c r="CC13" s="27"/>
-      <c r="CD13" s="27"/>
-      <c r="CE13" s="27"/>
-      <c r="CF13" s="27"/>
-      <c r="CG13" s="27"/>
-      <c r="CH13" s="27"/>
-      <c r="CI13" s="29"/>
-      <c r="CJ13" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK13" s="59" t="s">
-        <v>39</v>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="15"/>
+      <c r="BV13" s="15"/>
+      <c r="BW13" s="15"/>
+      <c r="BX13" s="15"/>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="15"/>
+      <c r="CC13" s="15"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="15"/>
+      <c r="CF13" s="15"/>
+      <c r="CG13" s="15"/>
+      <c r="CH13" s="15"/>
+      <c r="CI13" s="17"/>
+      <c r="CJ13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK13" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>10</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="26" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="27"/>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="27"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="27"/>
-      <c r="BC14" s="27"/>
-      <c r="BD14" s="27"/>
-      <c r="BE14" s="27"/>
-      <c r="BF14" s="27"/>
-      <c r="BG14" s="27"/>
-      <c r="BH14" s="27"/>
-      <c r="BI14" s="27"/>
-      <c r="BJ14" s="27"/>
-      <c r="BK14" s="27"/>
-      <c r="BL14" s="27"/>
-      <c r="BM14" s="27"/>
-      <c r="BN14" s="27"/>
-      <c r="BO14" s="27"/>
-      <c r="BP14" s="27"/>
-      <c r="BQ14" s="27"/>
-      <c r="BR14" s="27"/>
-      <c r="BS14" s="27"/>
-      <c r="BT14" s="27"/>
-      <c r="BU14" s="27"/>
-      <c r="BV14" s="27"/>
-      <c r="BW14" s="27"/>
-      <c r="BX14" s="27"/>
-      <c r="BY14" s="27"/>
-      <c r="BZ14" s="27"/>
-      <c r="CA14" s="27"/>
-      <c r="CB14" s="27"/>
-      <c r="CC14" s="27"/>
-      <c r="CD14" s="27"/>
-      <c r="CE14" s="27"/>
-      <c r="CF14" s="27"/>
-      <c r="CG14" s="27"/>
-      <c r="CH14" s="27"/>
-      <c r="CI14" s="29"/>
-      <c r="CJ14" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK14" s="59" t="s">
-        <v>40</v>
-      </c>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="15"/>
+      <c r="BS14" s="15"/>
+      <c r="BT14" s="15"/>
+      <c r="BU14" s="15"/>
+      <c r="BV14" s="15"/>
+      <c r="BW14" s="15"/>
+      <c r="BX14" s="15"/>
+      <c r="BY14" s="15"/>
+      <c r="BZ14" s="15"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="15"/>
+      <c r="CC14" s="15"/>
+      <c r="CD14" s="15"/>
+      <c r="CE14" s="15"/>
+      <c r="CF14" s="15"/>
+      <c r="CG14" s="15"/>
+      <c r="CH14" s="15"/>
+      <c r="CI14" s="17"/>
+      <c r="CJ14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK14" s="12"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>11</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="27"/>
-      <c r="BE15" s="27"/>
-      <c r="BF15" s="27"/>
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="27"/>
-      <c r="BL15" s="27"/>
-      <c r="BM15" s="27"/>
-      <c r="BN15" s="27"/>
-      <c r="BO15" s="27"/>
-      <c r="BP15" s="27"/>
-      <c r="BQ15" s="27"/>
-      <c r="BR15" s="27"/>
-      <c r="BS15" s="27"/>
-      <c r="BT15" s="27"/>
-      <c r="BU15" s="27"/>
-      <c r="BV15" s="27"/>
-      <c r="BW15" s="27"/>
-      <c r="BX15" s="27"/>
-      <c r="BY15" s="27"/>
-      <c r="BZ15" s="27"/>
-      <c r="CA15" s="27"/>
-      <c r="CB15" s="27"/>
-      <c r="CC15" s="27"/>
-      <c r="CD15" s="27"/>
-      <c r="CE15" s="27"/>
-      <c r="CF15" s="27"/>
-      <c r="CG15" s="27"/>
-      <c r="CH15" s="27"/>
-      <c r="CI15" s="29"/>
-      <c r="CJ15" s="57"/>
-      <c r="CK15" s="59"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BQ15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BS15" s="25"/>
+      <c r="BT15" s="25"/>
+      <c r="BU15" s="25"/>
+      <c r="BV15" s="25"/>
+      <c r="BW15" s="25"/>
+      <c r="BX15" s="25"/>
+      <c r="BY15" s="25"/>
+      <c r="BZ15" s="25"/>
+      <c r="CA15" s="25"/>
+      <c r="CB15" s="25"/>
+      <c r="CC15" s="25"/>
+      <c r="CD15" s="25"/>
+      <c r="CE15" s="25"/>
+      <c r="CF15" s="25"/>
+      <c r="CG15" s="25"/>
+      <c r="CH15" s="25"/>
+      <c r="CI15" s="27"/>
+      <c r="CJ15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK15" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="23">
-        <v>12</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
-      <c r="BD16" s="25"/>
-      <c r="BE16" s="25"/>
-      <c r="BF16" s="25"/>
-      <c r="BG16" s="25"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="25"/>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="25"/>
-      <c r="BL16" s="25"/>
-      <c r="BM16" s="25"/>
-      <c r="BN16" s="25"/>
-      <c r="BO16" s="25"/>
-      <c r="BP16" s="25"/>
-      <c r="BQ16" s="25"/>
-      <c r="BR16" s="25"/>
-      <c r="BS16" s="25"/>
-      <c r="BT16" s="25"/>
-      <c r="BU16" s="25"/>
-      <c r="BV16" s="25"/>
-      <c r="BW16" s="25"/>
-      <c r="BX16" s="25"/>
-      <c r="BY16" s="25"/>
-      <c r="BZ16" s="25"/>
-      <c r="CA16" s="25"/>
-      <c r="CB16" s="25"/>
-      <c r="CC16" s="25"/>
-      <c r="CD16" s="25"/>
-      <c r="CE16" s="25"/>
-      <c r="CF16" s="25"/>
-      <c r="CG16" s="25"/>
-      <c r="CH16" s="25"/>
-      <c r="CI16" s="25"/>
-      <c r="CJ16" s="57"/>
-      <c r="CK16" s="59"/>
+      <c r="B16" s="21">
+        <v>13</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
+      <c r="BK16" s="23"/>
+      <c r="BL16" s="23"/>
+      <c r="BM16" s="23"/>
+      <c r="BN16" s="23"/>
+      <c r="BO16" s="23"/>
+      <c r="BP16" s="23"/>
+      <c r="BQ16" s="23"/>
+      <c r="BR16" s="23"/>
+      <c r="BS16" s="23"/>
+      <c r="BT16" s="23"/>
+      <c r="BU16" s="23"/>
+      <c r="BV16" s="23"/>
+      <c r="BW16" s="23"/>
+      <c r="BX16" s="23"/>
+      <c r="BY16" s="23"/>
+      <c r="BZ16" s="23"/>
+      <c r="CA16" s="23"/>
+      <c r="CB16" s="23"/>
+      <c r="CC16" s="23"/>
+      <c r="CD16" s="23"/>
+      <c r="CE16" s="23"/>
+      <c r="CF16" s="23"/>
+      <c r="CG16" s="23"/>
+      <c r="CH16" s="23"/>
+      <c r="CI16" s="23"/>
+      <c r="CJ16" s="10"/>
+      <c r="CK16" s="12"/>
     </row>
     <row r="17" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="23">
-        <v>13</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="25"/>
-      <c r="AZ17" s="25"/>
-      <c r="BA17" s="25"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="25"/>
-      <c r="BD17" s="25"/>
-      <c r="BE17" s="25"/>
-      <c r="BF17" s="25"/>
-      <c r="BG17" s="25"/>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="25"/>
-      <c r="BK17" s="25"/>
-      <c r="BL17" s="25"/>
-      <c r="BM17" s="25"/>
-      <c r="BN17" s="25"/>
-      <c r="BO17" s="25"/>
-      <c r="BP17" s="25"/>
-      <c r="BQ17" s="25"/>
-      <c r="BR17" s="25"/>
-      <c r="BS17" s="25"/>
-      <c r="BT17" s="25"/>
-      <c r="BU17" s="25"/>
-      <c r="BV17" s="25"/>
-      <c r="BW17" s="25"/>
-      <c r="BX17" s="25"/>
-      <c r="BY17" s="25"/>
-      <c r="BZ17" s="25"/>
-      <c r="CA17" s="25"/>
-      <c r="CB17" s="25"/>
-      <c r="CC17" s="25"/>
-      <c r="CD17" s="25"/>
-      <c r="CE17" s="25"/>
-      <c r="CF17" s="25"/>
-      <c r="CG17" s="25"/>
-      <c r="CH17" s="25"/>
-      <c r="CI17" s="25"/>
-      <c r="CJ17" s="57"/>
-      <c r="CK17" s="59"/>
+      <c r="B17" s="21">
+        <v>14</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="23"/>
+      <c r="BK17" s="23"/>
+      <c r="BL17" s="23"/>
+      <c r="BM17" s="23"/>
+      <c r="BN17" s="23"/>
+      <c r="BO17" s="23"/>
+      <c r="BP17" s="23"/>
+      <c r="BQ17" s="23"/>
+      <c r="BR17" s="23"/>
+      <c r="BS17" s="23"/>
+      <c r="BT17" s="23"/>
+      <c r="BU17" s="23"/>
+      <c r="BV17" s="23"/>
+      <c r="BW17" s="23"/>
+      <c r="BX17" s="23"/>
+      <c r="BY17" s="23"/>
+      <c r="BZ17" s="23"/>
+      <c r="CA17" s="23"/>
+      <c r="CB17" s="23"/>
+      <c r="CC17" s="23"/>
+      <c r="CD17" s="23"/>
+      <c r="CE17" s="23"/>
+      <c r="CF17" s="23"/>
+      <c r="CG17" s="23"/>
+      <c r="CH17" s="23"/>
+      <c r="CI17" s="23"/>
+      <c r="CJ17" s="10"/>
+      <c r="CK17" s="12"/>
     </row>
     <row r="18" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="23">
-        <v>14</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="25"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="25"/>
-      <c r="AY18" s="25"/>
-      <c r="AZ18" s="25"/>
-      <c r="BA18" s="25"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="25"/>
-      <c r="BD18" s="25"/>
-      <c r="BE18" s="25"/>
-      <c r="BF18" s="25"/>
-      <c r="BG18" s="25"/>
-      <c r="BH18" s="25"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="25"/>
-      <c r="BK18" s="25"/>
-      <c r="BL18" s="25"/>
-      <c r="BM18" s="25"/>
-      <c r="BN18" s="25"/>
-      <c r="BO18" s="25"/>
-      <c r="BP18" s="25"/>
-      <c r="BQ18" s="25"/>
-      <c r="BR18" s="25"/>
-      <c r="BS18" s="25"/>
-      <c r="BT18" s="25"/>
-      <c r="BU18" s="25"/>
-      <c r="BV18" s="25"/>
-      <c r="BW18" s="25"/>
-      <c r="BX18" s="25"/>
-      <c r="BY18" s="25"/>
-      <c r="BZ18" s="25"/>
-      <c r="CA18" s="25"/>
-      <c r="CB18" s="25"/>
-      <c r="CC18" s="25"/>
-      <c r="CD18" s="25"/>
-      <c r="CE18" s="25"/>
-      <c r="CF18" s="25"/>
-      <c r="CG18" s="25"/>
-      <c r="CH18" s="25"/>
-      <c r="CI18" s="25"/>
-      <c r="CJ18" s="57"/>
-      <c r="CK18" s="59"/>
+      <c r="B18" s="21">
+        <v>15</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="23"/>
+      <c r="BK18" s="23"/>
+      <c r="BL18" s="23"/>
+      <c r="BM18" s="23"/>
+      <c r="BN18" s="23"/>
+      <c r="BO18" s="23"/>
+      <c r="BP18" s="23"/>
+      <c r="BQ18" s="23"/>
+      <c r="BR18" s="23"/>
+      <c r="BS18" s="23"/>
+      <c r="BT18" s="23"/>
+      <c r="BU18" s="23"/>
+      <c r="BV18" s="23"/>
+      <c r="BW18" s="23"/>
+      <c r="BX18" s="23"/>
+      <c r="BY18" s="23"/>
+      <c r="BZ18" s="23"/>
+      <c r="CA18" s="23"/>
+      <c r="CB18" s="23"/>
+      <c r="CC18" s="23"/>
+      <c r="CD18" s="23"/>
+      <c r="CE18" s="23"/>
+      <c r="CF18" s="23"/>
+      <c r="CG18" s="23"/>
+      <c r="CH18" s="23"/>
+      <c r="CI18" s="23"/>
+      <c r="CJ18" s="10"/>
+      <c r="CK18" s="12"/>
     </row>
     <row r="19" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="23">
-        <v>15</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="25"/>
-      <c r="BD19" s="25"/>
-      <c r="BE19" s="25"/>
-      <c r="BF19" s="25"/>
-      <c r="BG19" s="25"/>
-      <c r="BH19" s="25"/>
-      <c r="BI19" s="25"/>
-      <c r="BJ19" s="25"/>
-      <c r="BK19" s="25"/>
-      <c r="BL19" s="25"/>
-      <c r="BM19" s="25"/>
-      <c r="BN19" s="25"/>
-      <c r="BO19" s="25"/>
-      <c r="BP19" s="25"/>
-      <c r="BQ19" s="25"/>
-      <c r="BR19" s="25"/>
-      <c r="BS19" s="25"/>
-      <c r="BT19" s="25"/>
-      <c r="BU19" s="25"/>
-      <c r="BV19" s="25"/>
-      <c r="BW19" s="25"/>
-      <c r="BX19" s="25"/>
-      <c r="BY19" s="25"/>
-      <c r="BZ19" s="25"/>
-      <c r="CA19" s="25"/>
-      <c r="CB19" s="25"/>
-      <c r="CC19" s="25"/>
-      <c r="CD19" s="25"/>
-      <c r="CE19" s="25"/>
-      <c r="CF19" s="25"/>
-      <c r="CG19" s="25"/>
-      <c r="CH19" s="25"/>
-      <c r="CI19" s="25"/>
-      <c r="CJ19" s="57"/>
-      <c r="CK19" s="59"/>
+      <c r="B19" s="21">
+        <v>16</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="23"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="23"/>
+      <c r="BM19" s="23"/>
+      <c r="BN19" s="23"/>
+      <c r="BO19" s="23"/>
+      <c r="BP19" s="23"/>
+      <c r="BQ19" s="23"/>
+      <c r="BR19" s="23"/>
+      <c r="BS19" s="23"/>
+      <c r="BT19" s="23"/>
+      <c r="BU19" s="23"/>
+      <c r="BV19" s="23"/>
+      <c r="BW19" s="23"/>
+      <c r="BX19" s="23"/>
+      <c r="BY19" s="23"/>
+      <c r="BZ19" s="23"/>
+      <c r="CA19" s="23"/>
+      <c r="CB19" s="23"/>
+      <c r="CC19" s="23"/>
+      <c r="CD19" s="23"/>
+      <c r="CE19" s="23"/>
+      <c r="CF19" s="23"/>
+      <c r="CG19" s="23"/>
+      <c r="CH19" s="23"/>
+      <c r="CI19" s="23"/>
+      <c r="CJ19" s="10"/>
+      <c r="CK19" s="12"/>
     </row>
     <row r="20" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="23">
-        <v>16</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
-      <c r="AY20" s="25"/>
-      <c r="AZ20" s="25"/>
-      <c r="BA20" s="25"/>
-      <c r="BB20" s="25"/>
-      <c r="BC20" s="25"/>
-      <c r="BD20" s="25"/>
-      <c r="BE20" s="25"/>
-      <c r="BF20" s="25"/>
-      <c r="BG20" s="25"/>
-      <c r="BH20" s="25"/>
-      <c r="BI20" s="25"/>
-      <c r="BJ20" s="25"/>
-      <c r="BK20" s="25"/>
-      <c r="BL20" s="25"/>
-      <c r="BM20" s="25"/>
-      <c r="BN20" s="25"/>
-      <c r="BO20" s="25"/>
-      <c r="BP20" s="25"/>
-      <c r="BQ20" s="25"/>
-      <c r="BR20" s="25"/>
-      <c r="BS20" s="25"/>
-      <c r="BT20" s="25"/>
-      <c r="BU20" s="25"/>
-      <c r="BV20" s="25"/>
-      <c r="BW20" s="25"/>
-      <c r="BX20" s="25"/>
-      <c r="BY20" s="25"/>
-      <c r="BZ20" s="25"/>
-      <c r="CA20" s="25"/>
-      <c r="CB20" s="25"/>
-      <c r="CC20" s="25"/>
-      <c r="CD20" s="25"/>
-      <c r="CE20" s="25"/>
-      <c r="CF20" s="25"/>
-      <c r="CG20" s="25"/>
-      <c r="CH20" s="25"/>
-      <c r="CI20" s="25"/>
-      <c r="CJ20" s="57"/>
-      <c r="CK20" s="59"/>
+      <c r="B20" s="21">
+        <v>17</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="23"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BI20" s="23"/>
+      <c r="BJ20" s="23"/>
+      <c r="BK20" s="23"/>
+      <c r="BL20" s="23"/>
+      <c r="BM20" s="23"/>
+      <c r="BN20" s="23"/>
+      <c r="BO20" s="23"/>
+      <c r="BP20" s="23"/>
+      <c r="BQ20" s="23"/>
+      <c r="BR20" s="23"/>
+      <c r="BS20" s="23"/>
+      <c r="BT20" s="23"/>
+      <c r="BU20" s="23"/>
+      <c r="BV20" s="23"/>
+      <c r="BW20" s="23"/>
+      <c r="BX20" s="23"/>
+      <c r="BY20" s="23"/>
+      <c r="BZ20" s="23"/>
+      <c r="CA20" s="23"/>
+      <c r="CB20" s="23"/>
+      <c r="CC20" s="23"/>
+      <c r="CD20" s="23"/>
+      <c r="CE20" s="23"/>
+      <c r="CF20" s="23"/>
+      <c r="CG20" s="23"/>
+      <c r="CH20" s="23"/>
+      <c r="CI20" s="23"/>
+      <c r="CJ20" s="10"/>
+      <c r="CK20" s="12"/>
     </row>
     <row r="21" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="23">
-        <v>17</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
-      <c r="AY21" s="25"/>
-      <c r="AZ21" s="25"/>
-      <c r="BA21" s="25"/>
-      <c r="BB21" s="25"/>
-      <c r="BC21" s="25"/>
-      <c r="BD21" s="25"/>
-      <c r="BE21" s="25"/>
-      <c r="BF21" s="25"/>
-      <c r="BG21" s="25"/>
-      <c r="BH21" s="25"/>
-      <c r="BI21" s="25"/>
-      <c r="BJ21" s="25"/>
-      <c r="BK21" s="25"/>
-      <c r="BL21" s="25"/>
-      <c r="BM21" s="25"/>
-      <c r="BN21" s="25"/>
-      <c r="BO21" s="25"/>
-      <c r="BP21" s="25"/>
-      <c r="BQ21" s="25"/>
-      <c r="BR21" s="25"/>
-      <c r="BS21" s="25"/>
-      <c r="BT21" s="25"/>
-      <c r="BU21" s="25"/>
-      <c r="BV21" s="25"/>
-      <c r="BW21" s="25"/>
-      <c r="BX21" s="25"/>
-      <c r="BY21" s="25"/>
-      <c r="BZ21" s="25"/>
-      <c r="CA21" s="25"/>
-      <c r="CB21" s="25"/>
-      <c r="CC21" s="25"/>
-      <c r="CD21" s="25"/>
-      <c r="CE21" s="25"/>
-      <c r="CF21" s="25"/>
-      <c r="CG21" s="25"/>
-      <c r="CH21" s="25"/>
-      <c r="CI21" s="25"/>
-      <c r="CJ21" s="57"/>
-      <c r="CK21" s="59"/>
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="23"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="23"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="23"/>
+      <c r="BI21" s="23"/>
+      <c r="BJ21" s="23"/>
+      <c r="BK21" s="23"/>
+      <c r="BL21" s="23"/>
+      <c r="BM21" s="23"/>
+      <c r="BN21" s="23"/>
+      <c r="BO21" s="23"/>
+      <c r="BP21" s="23"/>
+      <c r="BQ21" s="23"/>
+      <c r="BR21" s="23"/>
+      <c r="BS21" s="23"/>
+      <c r="BT21" s="23"/>
+      <c r="BU21" s="23"/>
+      <c r="BV21" s="23"/>
+      <c r="BW21" s="23"/>
+      <c r="BX21" s="23"/>
+      <c r="BY21" s="23"/>
+      <c r="BZ21" s="23"/>
+      <c r="CA21" s="23"/>
+      <c r="CB21" s="23"/>
+      <c r="CC21" s="23"/>
+      <c r="CD21" s="23"/>
+      <c r="CE21" s="23"/>
+      <c r="CF21" s="23"/>
+      <c r="CG21" s="23"/>
+      <c r="CH21" s="23"/>
+      <c r="CI21" s="23"/>
+      <c r="CJ21" s="10"/>
+      <c r="CK21" s="12"/>
     </row>
     <row r="22" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="23">
-        <v>18</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="25"/>
-      <c r="BD22" s="25"/>
-      <c r="BE22" s="25"/>
-      <c r="BF22" s="25"/>
-      <c r="BG22" s="25"/>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="25"/>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="25"/>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="25"/>
-      <c r="BN22" s="25"/>
-      <c r="BO22" s="25"/>
-      <c r="BP22" s="25"/>
-      <c r="BQ22" s="25"/>
-      <c r="BR22" s="25"/>
-      <c r="BS22" s="25"/>
-      <c r="BT22" s="25"/>
-      <c r="BU22" s="25"/>
-      <c r="BV22" s="25"/>
-      <c r="BW22" s="25"/>
-      <c r="BX22" s="25"/>
-      <c r="BY22" s="25"/>
-      <c r="BZ22" s="25"/>
-      <c r="CA22" s="25"/>
-      <c r="CB22" s="25"/>
-      <c r="CC22" s="25"/>
-      <c r="CD22" s="25"/>
-      <c r="CE22" s="25"/>
-      <c r="CF22" s="25"/>
-      <c r="CG22" s="25"/>
-      <c r="CH22" s="25"/>
-      <c r="CI22" s="25"/>
-      <c r="CJ22" s="57"/>
-      <c r="CK22" s="59"/>
+      <c r="B22" s="21">
+        <v>19</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
+      <c r="AU22" s="23"/>
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="23"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="23"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="23"/>
+      <c r="BK22" s="23"/>
+      <c r="BL22" s="23"/>
+      <c r="BM22" s="23"/>
+      <c r="BN22" s="23"/>
+      <c r="BO22" s="23"/>
+      <c r="BP22" s="23"/>
+      <c r="BQ22" s="23"/>
+      <c r="BR22" s="23"/>
+      <c r="BS22" s="23"/>
+      <c r="BT22" s="23"/>
+      <c r="BU22" s="23"/>
+      <c r="BV22" s="23"/>
+      <c r="BW22" s="23"/>
+      <c r="BX22" s="23"/>
+      <c r="BY22" s="23"/>
+      <c r="BZ22" s="23"/>
+      <c r="CA22" s="23"/>
+      <c r="CB22" s="23"/>
+      <c r="CC22" s="23"/>
+      <c r="CD22" s="23"/>
+      <c r="CE22" s="23"/>
+      <c r="CF22" s="23"/>
+      <c r="CG22" s="23"/>
+      <c r="CH22" s="23"/>
+      <c r="CI22" s="23"/>
+      <c r="CJ22" s="10"/>
+      <c r="CK22" s="12"/>
     </row>
-    <row r="23" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="23">
-        <v>19</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="25"/>
-      <c r="AY23" s="25"/>
-      <c r="AZ23" s="25"/>
-      <c r="BA23" s="25"/>
-      <c r="BB23" s="25"/>
-      <c r="BC23" s="25"/>
-      <c r="BD23" s="25"/>
-      <c r="BE23" s="25"/>
-      <c r="BF23" s="25"/>
-      <c r="BG23" s="25"/>
-      <c r="BH23" s="25"/>
-      <c r="BI23" s="25"/>
-      <c r="BJ23" s="25"/>
-      <c r="BK23" s="25"/>
-      <c r="BL23" s="25"/>
-      <c r="BM23" s="25"/>
-      <c r="BN23" s="25"/>
-      <c r="BO23" s="25"/>
-      <c r="BP23" s="25"/>
-      <c r="BQ23" s="25"/>
-      <c r="BR23" s="25"/>
-      <c r="BS23" s="25"/>
-      <c r="BT23" s="25"/>
-      <c r="BU23" s="25"/>
-      <c r="BV23" s="25"/>
-      <c r="BW23" s="25"/>
-      <c r="BX23" s="25"/>
-      <c r="BY23" s="25"/>
-      <c r="BZ23" s="25"/>
-      <c r="CA23" s="25"/>
-      <c r="CB23" s="25"/>
-      <c r="CC23" s="25"/>
-      <c r="CD23" s="25"/>
-      <c r="CE23" s="25"/>
-      <c r="CF23" s="25"/>
-      <c r="CG23" s="25"/>
-      <c r="CH23" s="25"/>
-      <c r="CI23" s="25"/>
-      <c r="CJ23" s="57"/>
-      <c r="CK23" s="59"/>
+    <row r="23" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="28">
+        <v>20</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="20"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CF23" s="20"/>
+      <c r="CG23" s="20"/>
+      <c r="CH23" s="20"/>
+      <c r="CI23" s="20"/>
+      <c r="CJ23" s="18"/>
+      <c r="CK23" s="19"/>
     </row>
-    <row r="24" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="23">
-        <v>20</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+    <row r="24" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -5595,590 +5792,505 @@
       <c r="AP24" s="31"/>
       <c r="AQ24" s="31"/>
       <c r="AR24" s="31"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="22"/>
-      <c r="AV24" s="22"/>
-      <c r="AW24" s="22"/>
-      <c r="AX24" s="22"/>
-      <c r="AY24" s="22"/>
-      <c r="AZ24" s="22"/>
-      <c r="BA24" s="22"/>
-      <c r="BB24" s="22"/>
-      <c r="BC24" s="22"/>
-      <c r="BD24" s="22"/>
-      <c r="BE24" s="22"/>
-      <c r="BF24" s="22"/>
-      <c r="BG24" s="22"/>
-      <c r="BH24" s="22"/>
-      <c r="BI24" s="22"/>
-      <c r="BJ24" s="22"/>
-      <c r="BK24" s="22"/>
-      <c r="BL24" s="22"/>
-      <c r="BM24" s="22"/>
-      <c r="BN24" s="22"/>
-      <c r="BO24" s="22"/>
-      <c r="BP24" s="22"/>
-      <c r="BQ24" s="22"/>
-      <c r="BR24" s="22"/>
-      <c r="BS24" s="22"/>
-      <c r="BT24" s="22"/>
-      <c r="BU24" s="22"/>
-      <c r="BV24" s="22"/>
-      <c r="BW24" s="22"/>
-      <c r="BX24" s="22"/>
-      <c r="BY24" s="22"/>
-      <c r="BZ24" s="22"/>
-      <c r="CA24" s="22"/>
-      <c r="CB24" s="22"/>
-      <c r="CC24" s="22"/>
-      <c r="CD24" s="22"/>
-      <c r="CE24" s="22"/>
-      <c r="CF24" s="22"/>
-      <c r="CG24" s="22"/>
-      <c r="CH24" s="22"/>
-      <c r="CI24" s="22"/>
-      <c r="CJ24" s="17"/>
-      <c r="CK24" s="60"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="31"/>
+      <c r="BA24" s="31"/>
+      <c r="BB24" s="31"/>
+      <c r="BC24" s="31"/>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BI24" s="31"/>
+      <c r="BJ24" s="31"/>
+      <c r="BK24" s="31"/>
+      <c r="BL24" s="31"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="31"/>
+      <c r="BQ24" s="31"/>
+      <c r="BR24" s="31"/>
+      <c r="BS24" s="31"/>
+      <c r="BT24" s="31"/>
+      <c r="BU24" s="31"/>
+      <c r="BV24" s="31"/>
+      <c r="BW24" s="31"/>
+      <c r="BX24" s="31"/>
+      <c r="BY24" s="31"/>
+      <c r="BZ24" s="31"/>
+      <c r="CA24" s="31"/>
+      <c r="CB24" s="31"/>
+      <c r="CC24" s="31"/>
+      <c r="CD24" s="31"/>
+      <c r="CE24" s="31"/>
+      <c r="CF24" s="31"/>
+      <c r="CG24" s="31"/>
+      <c r="CH24" s="31"/>
+      <c r="CI24" s="31"/>
+      <c r="CJ24" s="31"/>
+      <c r="CK24" s="32"/>
     </row>
-    <row r="25" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-      <c r="BF25" s="6"/>
-      <c r="BG25" s="6"/>
-      <c r="BH25" s="6"/>
-      <c r="BI25" s="6"/>
-      <c r="BJ25" s="6"/>
-      <c r="BK25" s="6"/>
-      <c r="BL25" s="6"/>
-      <c r="BM25" s="6"/>
-      <c r="BN25" s="6"/>
-      <c r="BO25" s="6"/>
-      <c r="BP25" s="6"/>
-      <c r="BQ25" s="6"/>
-      <c r="BR25" s="6"/>
-      <c r="BS25" s="6"/>
-      <c r="BT25" s="6"/>
-      <c r="BU25" s="6"/>
-      <c r="BV25" s="6"/>
-      <c r="BW25" s="6"/>
-      <c r="BX25" s="6"/>
-      <c r="BY25" s="6"/>
-      <c r="BZ25" s="6"/>
-      <c r="CA25" s="6"/>
-      <c r="CB25" s="6"/>
-      <c r="CC25" s="6"/>
-      <c r="CD25" s="6"/>
-      <c r="CE25" s="6"/>
-      <c r="CF25" s="7"/>
-      <c r="CG25" s="7"/>
-      <c r="CH25" s="7"/>
-      <c r="CI25" s="8"/>
-      <c r="CJ25" s="21"/>
+    <row r="25" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="34"/>
+      <c r="AT25" s="34"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="34"/>
+      <c r="AW25" s="34"/>
+      <c r="AX25" s="34"/>
+      <c r="AY25" s="34"/>
+      <c r="AZ25" s="34"/>
+      <c r="BA25" s="34"/>
+      <c r="BB25" s="34"/>
+      <c r="BC25" s="34"/>
+      <c r="BD25" s="34"/>
+      <c r="BE25" s="34"/>
+      <c r="BF25" s="34"/>
+      <c r="BG25" s="34"/>
+      <c r="BH25" s="34"/>
+      <c r="BI25" s="34"/>
+      <c r="BJ25" s="34"/>
+      <c r="BK25" s="34"/>
+      <c r="BL25" s="34"/>
+      <c r="BM25" s="34"/>
+      <c r="BN25" s="34"/>
+      <c r="BO25" s="34"/>
+      <c r="BP25" s="34"/>
+      <c r="BQ25" s="34"/>
+      <c r="BR25" s="34"/>
+      <c r="BS25" s="34"/>
+      <c r="BT25" s="34"/>
+      <c r="BU25" s="34"/>
+      <c r="BV25" s="34"/>
+      <c r="BW25" s="34"/>
+      <c r="BX25" s="34"/>
+      <c r="BY25" s="34"/>
+      <c r="BZ25" s="34"/>
+      <c r="CA25" s="34"/>
+      <c r="CB25" s="34"/>
+      <c r="CC25" s="34"/>
+      <c r="CD25" s="34"/>
+      <c r="CE25" s="34"/>
+      <c r="CF25" s="34"/>
+      <c r="CG25" s="34"/>
+      <c r="CH25" s="34"/>
+      <c r="CI25" s="34"/>
+      <c r="CJ25" s="34"/>
+      <c r="CK25" s="35"/>
     </row>
-    <row r="26" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-      <c r="BK26" s="10"/>
-      <c r="BL26" s="10"/>
-      <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
-      <c r="BO26" s="10"/>
-      <c r="BP26" s="10"/>
-      <c r="BQ26" s="10"/>
-      <c r="BR26" s="10"/>
-      <c r="BS26" s="10"/>
-      <c r="BT26" s="10"/>
-      <c r="BU26" s="10"/>
-      <c r="BV26" s="10"/>
-      <c r="BW26" s="10"/>
-      <c r="BX26" s="10"/>
-      <c r="BY26" s="10"/>
-      <c r="BZ26" s="10"/>
-      <c r="CA26" s="10"/>
-      <c r="CB26" s="10"/>
-      <c r="CC26" s="10"/>
-      <c r="CD26" s="10"/>
-      <c r="CE26" s="10"/>
-      <c r="CF26" s="11"/>
-      <c r="CG26" s="11"/>
-      <c r="CH26" s="11"/>
-      <c r="CI26" s="12"/>
-      <c r="CJ26" s="21"/>
+    <row r="26" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="34"/>
+      <c r="BB26" s="34"/>
+      <c r="BC26" s="34"/>
+      <c r="BD26" s="34"/>
+      <c r="BE26" s="34"/>
+      <c r="BF26" s="34"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="34"/>
+      <c r="BI26" s="34"/>
+      <c r="BJ26" s="34"/>
+      <c r="BK26" s="34"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="BR26" s="34"/>
+      <c r="BS26" s="34"/>
+      <c r="BT26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="34"/>
+      <c r="BW26" s="34"/>
+      <c r="BX26" s="34"/>
+      <c r="BY26" s="34"/>
+      <c r="BZ26" s="34"/>
+      <c r="CA26" s="34"/>
+      <c r="CB26" s="34"/>
+      <c r="CC26" s="34"/>
+      <c r="CD26" s="34"/>
+      <c r="CE26" s="34"/>
+      <c r="CF26" s="34"/>
+      <c r="CG26" s="34"/>
+      <c r="CH26" s="34"/>
+      <c r="CI26" s="34"/>
+      <c r="CJ26" s="34"/>
+      <c r="CK26" s="35"/>
     </row>
-    <row r="27" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
-      <c r="BK27" s="10"/>
-      <c r="BL27" s="10"/>
-      <c r="BM27" s="10"/>
-      <c r="BN27" s="10"/>
-      <c r="BO27" s="10"/>
-      <c r="BP27" s="10"/>
-      <c r="BQ27" s="10"/>
-      <c r="BR27" s="10"/>
-      <c r="BS27" s="10"/>
-      <c r="BT27" s="10"/>
-      <c r="BU27" s="10"/>
-      <c r="BV27" s="10"/>
-      <c r="BW27" s="10"/>
-      <c r="BX27" s="10"/>
-      <c r="BY27" s="10"/>
-      <c r="BZ27" s="10"/>
-      <c r="CA27" s="10"/>
-      <c r="CB27" s="10"/>
-      <c r="CC27" s="10"/>
-      <c r="CD27" s="10"/>
-      <c r="CE27" s="10"/>
-      <c r="CF27" s="11"/>
-      <c r="CG27" s="11"/>
-      <c r="CH27" s="11"/>
-      <c r="CI27" s="12"/>
-      <c r="CJ27" s="21"/>
+    <row r="27" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="34"/>
+      <c r="AX27" s="34"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="34"/>
+      <c r="BC27" s="34"/>
+      <c r="BD27" s="34"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="34"/>
+      <c r="BI27" s="34"/>
+      <c r="BJ27" s="34"/>
+      <c r="BK27" s="34"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
+      <c r="BN27" s="34"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="34"/>
+      <c r="BR27" s="34"/>
+      <c r="BS27" s="34"/>
+      <c r="BT27" s="34"/>
+      <c r="BU27" s="34"/>
+      <c r="BV27" s="34"/>
+      <c r="BW27" s="34"/>
+      <c r="BX27" s="34"/>
+      <c r="BY27" s="34"/>
+      <c r="BZ27" s="34"/>
+      <c r="CA27" s="34"/>
+      <c r="CB27" s="34"/>
+      <c r="CC27" s="34"/>
+      <c r="CD27" s="34"/>
+      <c r="CE27" s="34"/>
+      <c r="CF27" s="34"/>
+      <c r="CG27" s="34"/>
+      <c r="CH27" s="34"/>
+      <c r="CI27" s="34"/>
+      <c r="CJ27" s="34"/>
+      <c r="CK27" s="35"/>
     </row>
-    <row r="28" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-      <c r="BK28" s="10"/>
-      <c r="BL28" s="10"/>
-      <c r="BM28" s="10"/>
-      <c r="BN28" s="10"/>
-      <c r="BO28" s="10"/>
-      <c r="BP28" s="10"/>
-      <c r="BQ28" s="10"/>
-      <c r="BR28" s="10"/>
-      <c r="BS28" s="10"/>
-      <c r="BT28" s="10"/>
-      <c r="BU28" s="10"/>
-      <c r="BV28" s="10"/>
-      <c r="BW28" s="10"/>
-      <c r="BX28" s="10"/>
-      <c r="BY28" s="10"/>
-      <c r="BZ28" s="10"/>
-      <c r="CA28" s="10"/>
-      <c r="CB28" s="10"/>
-      <c r="CC28" s="10"/>
-      <c r="CD28" s="10"/>
-      <c r="CE28" s="10"/>
-      <c r="CF28" s="11"/>
-      <c r="CG28" s="11"/>
-      <c r="CH28" s="11"/>
-      <c r="CI28" s="12"/>
-      <c r="CJ28" s="21"/>
+    <row r="28" spans="2:89" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="34"/>
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="34"/>
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="34"/>
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="34"/>
+      <c r="BQ28" s="34"/>
+      <c r="BR28" s="34"/>
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="34"/>
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="34"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="34"/>
+      <c r="CA28" s="34"/>
+      <c r="CB28" s="34"/>
+      <c r="CC28" s="34"/>
+      <c r="CD28" s="34"/>
+      <c r="CE28" s="34"/>
+      <c r="CF28" s="34"/>
+      <c r="CG28" s="34"/>
+      <c r="CH28" s="34"/>
+      <c r="CI28" s="34"/>
+      <c r="CJ28" s="34"/>
+      <c r="CK28" s="35"/>
     </row>
     <row r="29" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-      <c r="BK29" s="10"/>
-      <c r="BL29" s="10"/>
-      <c r="BM29" s="10"/>
-      <c r="BN29" s="10"/>
-      <c r="BO29" s="10"/>
-      <c r="BP29" s="10"/>
-      <c r="BQ29" s="10"/>
-      <c r="BR29" s="10"/>
-      <c r="BS29" s="10"/>
-      <c r="BT29" s="10"/>
-      <c r="BU29" s="10"/>
-      <c r="BV29" s="10"/>
-      <c r="BW29" s="10"/>
-      <c r="BX29" s="10"/>
-      <c r="BY29" s="10"/>
-      <c r="BZ29" s="10"/>
-      <c r="CA29" s="10"/>
-      <c r="CB29" s="10"/>
-      <c r="CC29" s="10"/>
-      <c r="CD29" s="10"/>
-      <c r="CE29" s="10"/>
-      <c r="CF29" s="11"/>
-      <c r="CG29" s="11"/>
-      <c r="CH29" s="11"/>
-      <c r="CI29" s="12"/>
-      <c r="CJ29" s="21"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="37"/>
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="37"/>
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="37"/>
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="37"/>
+      <c r="CE29" s="37"/>
+      <c r="CF29" s="37"/>
+      <c r="CG29" s="37"/>
+      <c r="CH29" s="37"/>
+      <c r="CI29" s="37"/>
+      <c r="CJ29" s="37"/>
+      <c r="CK29" s="38"/>
     </row>
-    <row r="30" spans="2:89" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="14"/>
-      <c r="BL30" s="14"/>
-      <c r="BM30" s="14"/>
-      <c r="BN30" s="14"/>
-      <c r="BO30" s="14"/>
-      <c r="BP30" s="14"/>
-      <c r="BQ30" s="14"/>
-      <c r="BR30" s="15"/>
-      <c r="BS30" s="15"/>
-      <c r="BT30" s="15"/>
-      <c r="BU30" s="15"/>
-      <c r="BV30" s="15"/>
-      <c r="BW30" s="15"/>
-      <c r="BX30" s="15"/>
-      <c r="BY30" s="15"/>
-      <c r="BZ30" s="15"/>
-      <c r="CA30" s="15"/>
-      <c r="CB30" s="15"/>
-      <c r="CC30" s="15"/>
-      <c r="CD30" s="15"/>
-      <c r="CE30" s="15"/>
-      <c r="CF30" s="15"/>
-      <c r="CG30" s="15"/>
-      <c r="CH30" s="15"/>
-      <c r="CI30" s="16"/>
-      <c r="CJ30" s="21"/>
-    </row>
+    <row r="30" spans="2:89" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="88">
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
@@ -6220,9 +6332,6 @@
     <mergeCell ref="AS10:CI10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AR13"/>
-    <mergeCell ref="AS13:CI13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:X11"/>
@@ -6232,36 +6341,33 @@
     <mergeCell ref="Y12:AR12"/>
     <mergeCell ref="AS12:CI12"/>
     <mergeCell ref="Y11:AR11"/>
+    <mergeCell ref="B24:CK29"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AR22"/>
+    <mergeCell ref="AS22:CI22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:X21"/>
-    <mergeCell ref="AS22:CI22"/>
+    <mergeCell ref="Y21:AR21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:X23"/>
     <mergeCell ref="Y23:AR23"/>
-    <mergeCell ref="AS23:CI23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AR24"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:X16"/>
+    <mergeCell ref="AS16:CI16"/>
     <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="AS17:CI17"/>
-    <mergeCell ref="Y17:AR17"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AR14"/>
-    <mergeCell ref="AS14:CI14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:X15"/>
     <mergeCell ref="Y15:AR15"/>
     <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="AS24:CI24"/>
+    <mergeCell ref="AS23:CI23"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AR17"/>
+    <mergeCell ref="AS17:CI17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:X18"/>
     <mergeCell ref="Y18:AR18"/>
@@ -6271,12 +6377,8 @@
     <mergeCell ref="Y19:AR19"/>
     <mergeCell ref="AS19:CI19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="AS20:CI20"/>
     <mergeCell ref="Y20:AR20"/>
-    <mergeCell ref="AS20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="AS21:CI21"/>
-    <mergeCell ref="Y21:AR21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7330AEF-A866-4B2C-B0BC-82D104D039F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA84D8-741B-4AB1-8307-D030F08232C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラーページ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>問題ページ</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
@@ -215,6 +211,13 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーページ(問題内容）</t>
+    <rPh sb="7" eb="11">
+      <t>モンダイナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -729,86 +732,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -852,6 +777,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -861,8 +822,50 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1217,7 +1220,7 @@
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD13" sqref="BD13"/>
+      <selection activeCell="AS15" sqref="AS15:CI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1231,102 +1234,102 @@
   <sheetData>
     <row r="1" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="51" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="52" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BW1" s="53"/>
-      <c r="BX1" s="40" t="s">
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="41"/>
-      <c r="CC1" s="41"/>
-      <c r="CD1" s="41"/>
-      <c r="CE1" s="41"/>
-      <c r="CF1" s="41"/>
-      <c r="CG1" s="41"/>
-      <c r="CH1" s="41"/>
-      <c r="CI1" s="41"/>
+      <c r="BY1" s="14"/>
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2266,102 +2269,102 @@
     </row>
     <row r="2" spans="1:1023" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="45" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="47" t="s">
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="47"/>
-      <c r="BZ2" s="47"/>
-      <c r="CA2" s="47"/>
-      <c r="CB2" s="48"/>
-      <c r="CC2" s="48"/>
-      <c r="CD2" s="48"/>
-      <c r="CE2" s="48"/>
-      <c r="CF2" s="48"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="48"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3388,870 +3391,870 @@
       <c r="CI3" s="5"/>
     </row>
     <row r="4" spans="1:1023" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="39" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="33"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="33"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="33"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="33"/>
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="33"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="33"/>
+      <c r="BU4" s="33"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
+      <c r="CA4" s="33"/>
+      <c r="CB4" s="33"/>
+      <c r="CC4" s="33"/>
+      <c r="CD4" s="33"/>
+      <c r="CE4" s="33"/>
+      <c r="CF4" s="33"/>
+      <c r="CG4" s="33"/>
+      <c r="CH4" s="33"/>
+      <c r="CI4" s="33"/>
       <c r="CJ4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="13">
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="36" t="s">
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
-      <c r="BZ5" s="36"/>
-      <c r="CA5" s="36"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="36"/>
-      <c r="CF5" s="36"/>
-      <c r="CG5" s="36"/>
-      <c r="CH5" s="36"/>
-      <c r="CI5" s="36"/>
-      <c r="CJ5" s="57" t="s">
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
+      <c r="AX5" s="30"/>
+      <c r="AY5" s="30"/>
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="30"/>
+      <c r="BC5" s="30"/>
+      <c r="BD5" s="30"/>
+      <c r="BE5" s="30"/>
+      <c r="BF5" s="30"/>
+      <c r="BG5" s="30"/>
+      <c r="BH5" s="30"/>
+      <c r="BI5" s="30"/>
+      <c r="BJ5" s="30"/>
+      <c r="BK5" s="30"/>
+      <c r="BL5" s="30"/>
+      <c r="BM5" s="30"/>
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="30"/>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30"/>
+      <c r="BR5" s="30"/>
+      <c r="BS5" s="30"/>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="30"/>
+      <c r="BV5" s="30"/>
+      <c r="BW5" s="30"/>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="30"/>
+      <c r="BZ5" s="30"/>
+      <c r="CA5" s="30"/>
+      <c r="CB5" s="30"/>
+      <c r="CC5" s="30"/>
+      <c r="CD5" s="30"/>
+      <c r="CE5" s="30"/>
+      <c r="CF5" s="30"/>
+      <c r="CG5" s="30"/>
+      <c r="CH5" s="30"/>
+      <c r="CI5" s="30"/>
+      <c r="CJ5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="35" t="s">
-        <v>28</v>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
+        <v>27</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35" t="s">
-        <v>26</v>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29" t="s">
+        <v>25</v>
       </c>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="36" t="s">
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36"/>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="36"/>
-      <c r="CF6" s="36"/>
-      <c r="CG6" s="36"/>
-      <c r="CH6" s="36"/>
-      <c r="CI6" s="36"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="30"/>
+      <c r="BC6" s="30"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
+      <c r="BV6" s="30"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
+      <c r="BY6" s="30"/>
+      <c r="BZ6" s="30"/>
+      <c r="CA6" s="30"/>
+      <c r="CB6" s="30"/>
+      <c r="CC6" s="30"/>
+      <c r="CD6" s="30"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="30"/>
+      <c r="CI6" s="30"/>
       <c r="CJ6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+      <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
-      <c r="BK7" s="15"/>
-      <c r="BL7" s="15"/>
-      <c r="BM7" s="15"/>
-      <c r="BN7" s="15"/>
-      <c r="BO7" s="15"/>
-      <c r="BP7" s="15"/>
-      <c r="BQ7" s="15"/>
-      <c r="BR7" s="15"/>
-      <c r="BS7" s="15"/>
-      <c r="BT7" s="15"/>
-      <c r="BU7" s="15"/>
-      <c r="BV7" s="15"/>
-      <c r="BW7" s="15"/>
-      <c r="BX7" s="15"/>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="15"/>
-      <c r="CA7" s="15"/>
-      <c r="CB7" s="15"/>
-      <c r="CC7" s="15"/>
-      <c r="CD7" s="15"/>
-      <c r="CE7" s="15"/>
-      <c r="CF7" s="15"/>
-      <c r="CG7" s="15"/>
-      <c r="CH7" s="15"/>
-      <c r="CI7" s="15"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
+      <c r="BM7" s="35"/>
+      <c r="BN7" s="35"/>
+      <c r="BO7" s="35"/>
+      <c r="BP7" s="35"/>
+      <c r="BQ7" s="35"/>
+      <c r="BR7" s="35"/>
+      <c r="BS7" s="35"/>
+      <c r="BT7" s="35"/>
+      <c r="BU7" s="35"/>
+      <c r="BV7" s="35"/>
+      <c r="BW7" s="35"/>
+      <c r="BX7" s="35"/>
+      <c r="BY7" s="35"/>
+      <c r="BZ7" s="35"/>
+      <c r="CA7" s="35"/>
+      <c r="CB7" s="35"/>
+      <c r="CC7" s="35"/>
+      <c r="CD7" s="35"/>
+      <c r="CE7" s="35"/>
+      <c r="CF7" s="35"/>
+      <c r="CG7" s="35"/>
+      <c r="CH7" s="35"/>
+      <c r="CI7" s="35"/>
       <c r="CJ7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+      <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="15" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
-      <c r="BF8" s="15"/>
-      <c r="BG8" s="15"/>
-      <c r="BH8" s="15"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="15"/>
-      <c r="BK8" s="15"/>
-      <c r="BL8" s="15"/>
-      <c r="BM8" s="15"/>
-      <c r="BN8" s="15"/>
-      <c r="BO8" s="15"/>
-      <c r="BP8" s="15"/>
-      <c r="BQ8" s="15"/>
-      <c r="BR8" s="15"/>
-      <c r="BS8" s="15"/>
-      <c r="BT8" s="15"/>
-      <c r="BU8" s="15"/>
-      <c r="BV8" s="15"/>
-      <c r="BW8" s="15"/>
-      <c r="BX8" s="15"/>
-      <c r="BY8" s="15"/>
-      <c r="BZ8" s="15"/>
-      <c r="CA8" s="15"/>
-      <c r="CB8" s="15"/>
-      <c r="CC8" s="15"/>
-      <c r="CD8" s="15"/>
-      <c r="CE8" s="15"/>
-      <c r="CF8" s="15"/>
-      <c r="CG8" s="15"/>
-      <c r="CH8" s="15"/>
-      <c r="CI8" s="15"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
+      <c r="BM8" s="35"/>
+      <c r="BN8" s="35"/>
+      <c r="BO8" s="35"/>
+      <c r="BP8" s="35"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="35"/>
+      <c r="BS8" s="35"/>
+      <c r="BT8" s="35"/>
+      <c r="BU8" s="35"/>
+      <c r="BV8" s="35"/>
+      <c r="BW8" s="35"/>
+      <c r="BX8" s="35"/>
+      <c r="BY8" s="35"/>
+      <c r="BZ8" s="35"/>
+      <c r="CA8" s="35"/>
+      <c r="CB8" s="35"/>
+      <c r="CC8" s="35"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="35"/>
+      <c r="CF8" s="35"/>
+      <c r="CG8" s="35"/>
+      <c r="CH8" s="35"/>
+      <c r="CI8" s="35"/>
       <c r="CJ8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+      <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17"/>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17"/>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
-      <c r="BU9" s="17"/>
-      <c r="BV9" s="17"/>
-      <c r="BW9" s="17"/>
-      <c r="BX9" s="17"/>
-      <c r="BY9" s="17"/>
-      <c r="BZ9" s="17"/>
-      <c r="CA9" s="17"/>
-      <c r="CB9" s="17"/>
-      <c r="CC9" s="17"/>
-      <c r="CD9" s="17"/>
-      <c r="CE9" s="17"/>
-      <c r="CF9" s="17"/>
-      <c r="CG9" s="17"/>
-      <c r="CH9" s="17"/>
-      <c r="CI9" s="19"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37"/>
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37"/>
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37"/>
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="37"/>
+      <c r="BW9" s="37"/>
+      <c r="BX9" s="37"/>
+      <c r="BY9" s="37"/>
+      <c r="BZ9" s="37"/>
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
+      <c r="CD9" s="37"/>
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="37"/>
+      <c r="CG9" s="37"/>
+      <c r="CH9" s="37"/>
+      <c r="CI9" s="39"/>
       <c r="CJ9" s="6"/>
     </row>
     <row r="10" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+      <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
-      <c r="BL10" s="17"/>
-      <c r="BM10" s="17"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="17"/>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="17"/>
-      <c r="BS10" s="17"/>
-      <c r="BT10" s="17"/>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="17"/>
-      <c r="BX10" s="17"/>
-      <c r="BY10" s="17"/>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="17"/>
-      <c r="CB10" s="17"/>
-      <c r="CC10" s="17"/>
-      <c r="CD10" s="17"/>
-      <c r="CE10" s="17"/>
-      <c r="CF10" s="17"/>
-      <c r="CG10" s="17"/>
-      <c r="CH10" s="17"/>
-      <c r="CI10" s="19"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="37"/>
+      <c r="BI10" s="37"/>
+      <c r="BJ10" s="37"/>
+      <c r="BK10" s="37"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="37"/>
+      <c r="BN10" s="37"/>
+      <c r="BO10" s="37"/>
+      <c r="BP10" s="37"/>
+      <c r="BQ10" s="37"/>
+      <c r="BR10" s="37"/>
+      <c r="BS10" s="37"/>
+      <c r="BT10" s="37"/>
+      <c r="BU10" s="37"/>
+      <c r="BV10" s="37"/>
+      <c r="BW10" s="37"/>
+      <c r="BX10" s="37"/>
+      <c r="BY10" s="37"/>
+      <c r="BZ10" s="37"/>
+      <c r="CA10" s="37"/>
+      <c r="CB10" s="37"/>
+      <c r="CC10" s="37"/>
+      <c r="CD10" s="37"/>
+      <c r="CE10" s="37"/>
+      <c r="CF10" s="37"/>
+      <c r="CG10" s="37"/>
+      <c r="CH10" s="37"/>
+      <c r="CI10" s="39"/>
       <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+      <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="30"/>
-      <c r="BI11" s="30"/>
-      <c r="BJ11" s="30"/>
-      <c r="BK11" s="30"/>
-      <c r="BL11" s="30"/>
-      <c r="BM11" s="30"/>
-      <c r="BN11" s="30"/>
-      <c r="BO11" s="30"/>
-      <c r="BP11" s="30"/>
-      <c r="BQ11" s="30"/>
-      <c r="BR11" s="30"/>
-      <c r="BS11" s="30"/>
-      <c r="BT11" s="30"/>
-      <c r="BU11" s="30"/>
-      <c r="BV11" s="30"/>
-      <c r="BW11" s="30"/>
-      <c r="BX11" s="30"/>
-      <c r="BY11" s="30"/>
-      <c r="BZ11" s="30"/>
-      <c r="CA11" s="30"/>
-      <c r="CB11" s="30"/>
-      <c r="CC11" s="30"/>
-      <c r="CD11" s="30"/>
-      <c r="CE11" s="30"/>
-      <c r="CF11" s="30"/>
-      <c r="CG11" s="30"/>
-      <c r="CH11" s="30"/>
-      <c r="CI11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="44"/>
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="44"/>
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="44"/>
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="44"/>
+      <c r="BU11" s="44"/>
+      <c r="BV11" s="44"/>
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="44"/>
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="44"/>
+      <c r="CA11" s="44"/>
+      <c r="CB11" s="44"/>
+      <c r="CC11" s="44"/>
+      <c r="CD11" s="44"/>
+      <c r="CE11" s="44"/>
+      <c r="CF11" s="44"/>
+      <c r="CG11" s="44"/>
+      <c r="CH11" s="44"/>
+      <c r="CI11" s="45"/>
       <c r="CJ11" s="6"/>
     </row>
     <row r="12" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+      <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="17"/>
-      <c r="CI12" s="19"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="37"/>
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="37"/>
+      <c r="BK12" s="37"/>
+      <c r="BL12" s="37"/>
+      <c r="BM12" s="37"/>
+      <c r="BN12" s="37"/>
+      <c r="BO12" s="37"/>
+      <c r="BP12" s="37"/>
+      <c r="BQ12" s="37"/>
+      <c r="BR12" s="37"/>
+      <c r="BS12" s="37"/>
+      <c r="BT12" s="37"/>
+      <c r="BU12" s="37"/>
+      <c r="BV12" s="37"/>
+      <c r="BW12" s="37"/>
+      <c r="BX12" s="37"/>
+      <c r="BY12" s="37"/>
+      <c r="BZ12" s="37"/>
+      <c r="CA12" s="37"/>
+      <c r="CB12" s="37"/>
+      <c r="CC12" s="37"/>
+      <c r="CD12" s="37"/>
+      <c r="CE12" s="37"/>
+      <c r="CF12" s="37"/>
+      <c r="CG12" s="37"/>
+      <c r="CH12" s="37"/>
+      <c r="CI12" s="39"/>
       <c r="CJ12" s="6"/>
     </row>
     <row r="13" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+      <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4338,11 +4341,11 @@
       <c r="CJ13" s="6"/>
     </row>
     <row r="14" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+      <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -4429,1389 +4432,1411 @@
       <c r="CJ14" s="6"/>
     </row>
     <row r="15" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+      <c r="B15" s="28">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
-      <c r="BL15" s="17"/>
-      <c r="BM15" s="17"/>
-      <c r="BN15" s="17"/>
-      <c r="BO15" s="17"/>
-      <c r="BP15" s="17"/>
-      <c r="BQ15" s="17"/>
-      <c r="BR15" s="17"/>
-      <c r="BS15" s="17"/>
-      <c r="BT15" s="17"/>
-      <c r="BU15" s="17"/>
-      <c r="BV15" s="17"/>
-      <c r="BW15" s="17"/>
-      <c r="BX15" s="17"/>
-      <c r="BY15" s="17"/>
-      <c r="BZ15" s="17"/>
-      <c r="CA15" s="17"/>
-      <c r="CB15" s="17"/>
-      <c r="CC15" s="17"/>
-      <c r="CD15" s="17"/>
-      <c r="CE15" s="17"/>
-      <c r="CF15" s="17"/>
-      <c r="CG15" s="17"/>
-      <c r="CH15" s="17"/>
-      <c r="CI15" s="19"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="37"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="37"/>
+      <c r="BK15" s="37"/>
+      <c r="BL15" s="37"/>
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="37"/>
+      <c r="BO15" s="37"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
+      <c r="BR15" s="37"/>
+      <c r="BS15" s="37"/>
+      <c r="BT15" s="37"/>
+      <c r="BU15" s="37"/>
+      <c r="BV15" s="37"/>
+      <c r="BW15" s="37"/>
+      <c r="BX15" s="37"/>
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="37"/>
+      <c r="CA15" s="37"/>
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="37"/>
+      <c r="CE15" s="37"/>
+      <c r="CF15" s="37"/>
+      <c r="CG15" s="37"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="39"/>
       <c r="CJ15" s="6"/>
     </row>
     <row r="16" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="13">
+      <c r="B16" s="28">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="15"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="15"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="15"/>
-      <c r="BL16" s="15"/>
-      <c r="BM16" s="15"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="15"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
-      <c r="BT16" s="15"/>
-      <c r="BU16" s="15"/>
-      <c r="BV16" s="15"/>
-      <c r="BW16" s="15"/>
-      <c r="BX16" s="15"/>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="15"/>
-      <c r="CC16" s="15"/>
-      <c r="CD16" s="15"/>
-      <c r="CE16" s="15"/>
-      <c r="CF16" s="15"/>
-      <c r="CG16" s="15"/>
-      <c r="CH16" s="15"/>
-      <c r="CI16" s="15"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="35"/>
+      <c r="BJ16" s="35"/>
+      <c r="BK16" s="35"/>
+      <c r="BL16" s="35"/>
+      <c r="BM16" s="35"/>
+      <c r="BN16" s="35"/>
+      <c r="BO16" s="35"/>
+      <c r="BP16" s="35"/>
+      <c r="BQ16" s="35"/>
+      <c r="BR16" s="35"/>
+      <c r="BS16" s="35"/>
+      <c r="BT16" s="35"/>
+      <c r="BU16" s="35"/>
+      <c r="BV16" s="35"/>
+      <c r="BW16" s="35"/>
+      <c r="BX16" s="35"/>
+      <c r="BY16" s="35"/>
+      <c r="BZ16" s="35"/>
+      <c r="CA16" s="35"/>
+      <c r="CB16" s="35"/>
+      <c r="CC16" s="35"/>
+      <c r="CD16" s="35"/>
+      <c r="CE16" s="35"/>
+      <c r="CF16" s="35"/>
+      <c r="CG16" s="35"/>
+      <c r="CH16" s="35"/>
+      <c r="CI16" s="35"/>
       <c r="CJ16" s="6"/>
     </row>
     <row r="17" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="13">
+      <c r="B17" s="28">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="15"/>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15"/>
-      <c r="BC17" s="15"/>
-      <c r="BD17" s="15"/>
-      <c r="BE17" s="15"/>
-      <c r="BF17" s="15"/>
-      <c r="BG17" s="15"/>
-      <c r="BH17" s="15"/>
-      <c r="BI17" s="15"/>
-      <c r="BJ17" s="15"/>
-      <c r="BK17" s="15"/>
-      <c r="BL17" s="15"/>
-      <c r="BM17" s="15"/>
-      <c r="BN17" s="15"/>
-      <c r="BO17" s="15"/>
-      <c r="BP17" s="15"/>
-      <c r="BQ17" s="15"/>
-      <c r="BR17" s="15"/>
-      <c r="BS17" s="15"/>
-      <c r="BT17" s="15"/>
-      <c r="BU17" s="15"/>
-      <c r="BV17" s="15"/>
-      <c r="BW17" s="15"/>
-      <c r="BX17" s="15"/>
-      <c r="BY17" s="15"/>
-      <c r="BZ17" s="15"/>
-      <c r="CA17" s="15"/>
-      <c r="CB17" s="15"/>
-      <c r="CC17" s="15"/>
-      <c r="CD17" s="15"/>
-      <c r="CE17" s="15"/>
-      <c r="CF17" s="15"/>
-      <c r="CG17" s="15"/>
-      <c r="CH17" s="15"/>
-      <c r="CI17" s="15"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="35"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="35"/>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="35"/>
+      <c r="BG17" s="35"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="35"/>
+      <c r="BJ17" s="35"/>
+      <c r="BK17" s="35"/>
+      <c r="BL17" s="35"/>
+      <c r="BM17" s="35"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="35"/>
+      <c r="BP17" s="35"/>
+      <c r="BQ17" s="35"/>
+      <c r="BR17" s="35"/>
+      <c r="BS17" s="35"/>
+      <c r="BT17" s="35"/>
+      <c r="BU17" s="35"/>
+      <c r="BV17" s="35"/>
+      <c r="BW17" s="35"/>
+      <c r="BX17" s="35"/>
+      <c r="BY17" s="35"/>
+      <c r="BZ17" s="35"/>
+      <c r="CA17" s="35"/>
+      <c r="CB17" s="35"/>
+      <c r="CC17" s="35"/>
+      <c r="CD17" s="35"/>
+      <c r="CE17" s="35"/>
+      <c r="CF17" s="35"/>
+      <c r="CG17" s="35"/>
+      <c r="CH17" s="35"/>
+      <c r="CI17" s="35"/>
       <c r="CJ17" s="6"/>
     </row>
     <row r="18" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+      <c r="B18" s="28">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
-      <c r="BE18" s="15"/>
-      <c r="BF18" s="15"/>
-      <c r="BG18" s="15"/>
-      <c r="BH18" s="15"/>
-      <c r="BI18" s="15"/>
-      <c r="BJ18" s="15"/>
-      <c r="BK18" s="15"/>
-      <c r="BL18" s="15"/>
-      <c r="BM18" s="15"/>
-      <c r="BN18" s="15"/>
-      <c r="BO18" s="15"/>
-      <c r="BP18" s="15"/>
-      <c r="BQ18" s="15"/>
-      <c r="BR18" s="15"/>
-      <c r="BS18" s="15"/>
-      <c r="BT18" s="15"/>
-      <c r="BU18" s="15"/>
-      <c r="BV18" s="15"/>
-      <c r="BW18" s="15"/>
-      <c r="BX18" s="15"/>
-      <c r="BY18" s="15"/>
-      <c r="BZ18" s="15"/>
-      <c r="CA18" s="15"/>
-      <c r="CB18" s="15"/>
-      <c r="CC18" s="15"/>
-      <c r="CD18" s="15"/>
-      <c r="CE18" s="15"/>
-      <c r="CF18" s="15"/>
-      <c r="CG18" s="15"/>
-      <c r="CH18" s="15"/>
-      <c r="CI18" s="15"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
+      <c r="BJ18" s="35"/>
+      <c r="BK18" s="35"/>
+      <c r="BL18" s="35"/>
+      <c r="BM18" s="35"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="35"/>
+      <c r="BP18" s="35"/>
+      <c r="BQ18" s="35"/>
+      <c r="BR18" s="35"/>
+      <c r="BS18" s="35"/>
+      <c r="BT18" s="35"/>
+      <c r="BU18" s="35"/>
+      <c r="BV18" s="35"/>
+      <c r="BW18" s="35"/>
+      <c r="BX18" s="35"/>
+      <c r="BY18" s="35"/>
+      <c r="BZ18" s="35"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="35"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+      <c r="CF18" s="35"/>
+      <c r="CG18" s="35"/>
+      <c r="CH18" s="35"/>
+      <c r="CI18" s="35"/>
       <c r="CJ18" s="6"/>
     </row>
     <row r="19" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
+      <c r="B19" s="28">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="15"/>
-      <c r="BA19" s="15"/>
-      <c r="BB19" s="15"/>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15"/>
-      <c r="BE19" s="15"/>
-      <c r="BF19" s="15"/>
-      <c r="BG19" s="15"/>
-      <c r="BH19" s="15"/>
-      <c r="BI19" s="15"/>
-      <c r="BJ19" s="15"/>
-      <c r="BK19" s="15"/>
-      <c r="BL19" s="15"/>
-      <c r="BM19" s="15"/>
-      <c r="BN19" s="15"/>
-      <c r="BO19" s="15"/>
-      <c r="BP19" s="15"/>
-      <c r="BQ19" s="15"/>
-      <c r="BR19" s="15"/>
-      <c r="BS19" s="15"/>
-      <c r="BT19" s="15"/>
-      <c r="BU19" s="15"/>
-      <c r="BV19" s="15"/>
-      <c r="BW19" s="15"/>
-      <c r="BX19" s="15"/>
-      <c r="BY19" s="15"/>
-      <c r="BZ19" s="15"/>
-      <c r="CA19" s="15"/>
-      <c r="CB19" s="15"/>
-      <c r="CC19" s="15"/>
-      <c r="CD19" s="15"/>
-      <c r="CE19" s="15"/>
-      <c r="CF19" s="15"/>
-      <c r="CG19" s="15"/>
-      <c r="CH19" s="15"/>
-      <c r="CI19" s="15"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="35"/>
+      <c r="AT19" s="35"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="35"/>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="35"/>
+      <c r="BB19" s="35"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="35"/>
+      <c r="BF19" s="35"/>
+      <c r="BG19" s="35"/>
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="35"/>
+      <c r="BJ19" s="35"/>
+      <c r="BK19" s="35"/>
+      <c r="BL19" s="35"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="35"/>
+      <c r="BQ19" s="35"/>
+      <c r="BR19" s="35"/>
+      <c r="BS19" s="35"/>
+      <c r="BT19" s="35"/>
+      <c r="BU19" s="35"/>
+      <c r="BV19" s="35"/>
+      <c r="BW19" s="35"/>
+      <c r="BX19" s="35"/>
+      <c r="BY19" s="35"/>
+      <c r="BZ19" s="35"/>
+      <c r="CA19" s="35"/>
+      <c r="CB19" s="35"/>
+      <c r="CC19" s="35"/>
+      <c r="CD19" s="35"/>
+      <c r="CE19" s="35"/>
+      <c r="CF19" s="35"/>
+      <c r="CG19" s="35"/>
+      <c r="CH19" s="35"/>
+      <c r="CI19" s="35"/>
       <c r="CJ19" s="6"/>
     </row>
     <row r="20" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+      <c r="B20" s="28">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="15"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="15"/>
-      <c r="BD20" s="15"/>
-      <c r="BE20" s="15"/>
-      <c r="BF20" s="15"/>
-      <c r="BG20" s="15"/>
-      <c r="BH20" s="15"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="15"/>
-      <c r="BK20" s="15"/>
-      <c r="BL20" s="15"/>
-      <c r="BM20" s="15"/>
-      <c r="BN20" s="15"/>
-      <c r="BO20" s="15"/>
-      <c r="BP20" s="15"/>
-      <c r="BQ20" s="15"/>
-      <c r="BR20" s="15"/>
-      <c r="BS20" s="15"/>
-      <c r="BT20" s="15"/>
-      <c r="BU20" s="15"/>
-      <c r="BV20" s="15"/>
-      <c r="BW20" s="15"/>
-      <c r="BX20" s="15"/>
-      <c r="BY20" s="15"/>
-      <c r="BZ20" s="15"/>
-      <c r="CA20" s="15"/>
-      <c r="CB20" s="15"/>
-      <c r="CC20" s="15"/>
-      <c r="CD20" s="15"/>
-      <c r="CE20" s="15"/>
-      <c r="CF20" s="15"/>
-      <c r="CG20" s="15"/>
-      <c r="CH20" s="15"/>
-      <c r="CI20" s="15"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="35"/>
+      <c r="BA20" s="35"/>
+      <c r="BB20" s="35"/>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="35"/>
+      <c r="BF20" s="35"/>
+      <c r="BG20" s="35"/>
+      <c r="BH20" s="35"/>
+      <c r="BI20" s="35"/>
+      <c r="BJ20" s="35"/>
+      <c r="BK20" s="35"/>
+      <c r="BL20" s="35"/>
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="35"/>
+      <c r="BQ20" s="35"/>
+      <c r="BR20" s="35"/>
+      <c r="BS20" s="35"/>
+      <c r="BT20" s="35"/>
+      <c r="BU20" s="35"/>
+      <c r="BV20" s="35"/>
+      <c r="BW20" s="35"/>
+      <c r="BX20" s="35"/>
+      <c r="BY20" s="35"/>
+      <c r="BZ20" s="35"/>
+      <c r="CA20" s="35"/>
+      <c r="CB20" s="35"/>
+      <c r="CC20" s="35"/>
+      <c r="CD20" s="35"/>
+      <c r="CE20" s="35"/>
+      <c r="CF20" s="35"/>
+      <c r="CG20" s="35"/>
+      <c r="CH20" s="35"/>
+      <c r="CI20" s="35"/>
       <c r="CJ20" s="6"/>
     </row>
     <row r="21" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+      <c r="B21" s="28">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15"/>
-      <c r="BE21" s="15"/>
-      <c r="BF21" s="15"/>
-      <c r="BG21" s="15"/>
-      <c r="BH21" s="15"/>
-      <c r="BI21" s="15"/>
-      <c r="BJ21" s="15"/>
-      <c r="BK21" s="15"/>
-      <c r="BL21" s="15"/>
-      <c r="BM21" s="15"/>
-      <c r="BN21" s="15"/>
-      <c r="BO21" s="15"/>
-      <c r="BP21" s="15"/>
-      <c r="BQ21" s="15"/>
-      <c r="BR21" s="15"/>
-      <c r="BS21" s="15"/>
-      <c r="BT21" s="15"/>
-      <c r="BU21" s="15"/>
-      <c r="BV21" s="15"/>
-      <c r="BW21" s="15"/>
-      <c r="BX21" s="15"/>
-      <c r="BY21" s="15"/>
-      <c r="BZ21" s="15"/>
-      <c r="CA21" s="15"/>
-      <c r="CB21" s="15"/>
-      <c r="CC21" s="15"/>
-      <c r="CD21" s="15"/>
-      <c r="CE21" s="15"/>
-      <c r="CF21" s="15"/>
-      <c r="CG21" s="15"/>
-      <c r="CH21" s="15"/>
-      <c r="CI21" s="15"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="35"/>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="35"/>
+      <c r="AZ21" s="35"/>
+      <c r="BA21" s="35"/>
+      <c r="BB21" s="35"/>
+      <c r="BC21" s="35"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="35"/>
+      <c r="BF21" s="35"/>
+      <c r="BG21" s="35"/>
+      <c r="BH21" s="35"/>
+      <c r="BI21" s="35"/>
+      <c r="BJ21" s="35"/>
+      <c r="BK21" s="35"/>
+      <c r="BL21" s="35"/>
+      <c r="BM21" s="35"/>
+      <c r="BN21" s="35"/>
+      <c r="BO21" s="35"/>
+      <c r="BP21" s="35"/>
+      <c r="BQ21" s="35"/>
+      <c r="BR21" s="35"/>
+      <c r="BS21" s="35"/>
+      <c r="BT21" s="35"/>
+      <c r="BU21" s="35"/>
+      <c r="BV21" s="35"/>
+      <c r="BW21" s="35"/>
+      <c r="BX21" s="35"/>
+      <c r="BY21" s="35"/>
+      <c r="BZ21" s="35"/>
+      <c r="CA21" s="35"/>
+      <c r="CB21" s="35"/>
+      <c r="CC21" s="35"/>
+      <c r="CD21" s="35"/>
+      <c r="CE21" s="35"/>
+      <c r="CF21" s="35"/>
+      <c r="CG21" s="35"/>
+      <c r="CH21" s="35"/>
+      <c r="CI21" s="35"/>
       <c r="CJ21" s="6"/>
     </row>
     <row r="22" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+      <c r="B22" s="28">
         <v>19</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15"/>
-      <c r="BC22" s="15"/>
-      <c r="BD22" s="15"/>
-      <c r="BE22" s="15"/>
-      <c r="BF22" s="15"/>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="15"/>
-      <c r="BI22" s="15"/>
-      <c r="BJ22" s="15"/>
-      <c r="BK22" s="15"/>
-      <c r="BL22" s="15"/>
-      <c r="BM22" s="15"/>
-      <c r="BN22" s="15"/>
-      <c r="BO22" s="15"/>
-      <c r="BP22" s="15"/>
-      <c r="BQ22" s="15"/>
-      <c r="BR22" s="15"/>
-      <c r="BS22" s="15"/>
-      <c r="BT22" s="15"/>
-      <c r="BU22" s="15"/>
-      <c r="BV22" s="15"/>
-      <c r="BW22" s="15"/>
-      <c r="BX22" s="15"/>
-      <c r="BY22" s="15"/>
-      <c r="BZ22" s="15"/>
-      <c r="CA22" s="15"/>
-      <c r="CB22" s="15"/>
-      <c r="CC22" s="15"/>
-      <c r="CD22" s="15"/>
-      <c r="CE22" s="15"/>
-      <c r="CF22" s="15"/>
-      <c r="CG22" s="15"/>
-      <c r="CH22" s="15"/>
-      <c r="CI22" s="15"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="35"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="35"/>
+      <c r="BI22" s="35"/>
+      <c r="BJ22" s="35"/>
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
+      <c r="BM22" s="35"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="35"/>
+      <c r="BP22" s="35"/>
+      <c r="BQ22" s="35"/>
+      <c r="BR22" s="35"/>
+      <c r="BS22" s="35"/>
+      <c r="BT22" s="35"/>
+      <c r="BU22" s="35"/>
+      <c r="BV22" s="35"/>
+      <c r="BW22" s="35"/>
+      <c r="BX22" s="35"/>
+      <c r="BY22" s="35"/>
+      <c r="BZ22" s="35"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="35"/>
+      <c r="CC22" s="35"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="35"/>
+      <c r="CG22" s="35"/>
+      <c r="CH22" s="35"/>
+      <c r="CI22" s="35"/>
       <c r="CJ22" s="6"/>
     </row>
     <row r="23" spans="2:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="26">
+      <c r="B23" s="55">
         <v>20</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="28"/>
-      <c r="BE23" s="28"/>
-      <c r="BF23" s="28"/>
-      <c r="BG23" s="28"/>
-      <c r="BH23" s="28"/>
-      <c r="BI23" s="28"/>
-      <c r="BJ23" s="28"/>
-      <c r="BK23" s="28"/>
-      <c r="BL23" s="28"/>
-      <c r="BM23" s="28"/>
-      <c r="BN23" s="28"/>
-      <c r="BO23" s="28"/>
-      <c r="BP23" s="28"/>
-      <c r="BQ23" s="28"/>
-      <c r="BR23" s="28"/>
-      <c r="BS23" s="28"/>
-      <c r="BT23" s="28"/>
-      <c r="BU23" s="28"/>
-      <c r="BV23" s="28"/>
-      <c r="BW23" s="28"/>
-      <c r="BX23" s="28"/>
-      <c r="BY23" s="28"/>
-      <c r="BZ23" s="28"/>
-      <c r="CA23" s="28"/>
-      <c r="CB23" s="28"/>
-      <c r="CC23" s="28"/>
-      <c r="CD23" s="28"/>
-      <c r="CE23" s="28"/>
-      <c r="CF23" s="28"/>
-      <c r="CG23" s="28"/>
-      <c r="CH23" s="28"/>
-      <c r="CI23" s="28"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
+      <c r="BB23" s="57"/>
+      <c r="BC23" s="57"/>
+      <c r="BD23" s="57"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="57"/>
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="57"/>
+      <c r="BI23" s="57"/>
+      <c r="BJ23" s="57"/>
+      <c r="BK23" s="57"/>
+      <c r="BL23" s="57"/>
+      <c r="BM23" s="57"/>
+      <c r="BN23" s="57"/>
+      <c r="BO23" s="57"/>
+      <c r="BP23" s="57"/>
+      <c r="BQ23" s="57"/>
+      <c r="BR23" s="57"/>
+      <c r="BS23" s="57"/>
+      <c r="BT23" s="57"/>
+      <c r="BU23" s="57"/>
+      <c r="BV23" s="57"/>
+      <c r="BW23" s="57"/>
+      <c r="BX23" s="57"/>
+      <c r="BY23" s="57"/>
+      <c r="BZ23" s="57"/>
+      <c r="CA23" s="57"/>
+      <c r="CB23" s="57"/>
+      <c r="CC23" s="57"/>
+      <c r="CD23" s="57"/>
+      <c r="CE23" s="57"/>
+      <c r="CF23" s="57"/>
+      <c r="CG23" s="57"/>
+      <c r="CH23" s="57"/>
+      <c r="CI23" s="57"/>
       <c r="CJ23" s="12"/>
     </row>
     <row r="24" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="21"/>
-      <c r="BH24" s="21"/>
-      <c r="BI24" s="21"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="21"/>
-      <c r="BM24" s="21"/>
-      <c r="BN24" s="21"/>
-      <c r="BO24" s="21"/>
-      <c r="BP24" s="21"/>
-      <c r="BQ24" s="21"/>
-      <c r="BR24" s="21"/>
-      <c r="BS24" s="21"/>
-      <c r="BT24" s="21"/>
-      <c r="BU24" s="21"/>
-      <c r="BV24" s="21"/>
-      <c r="BW24" s="21"/>
-      <c r="BX24" s="21"/>
-      <c r="BY24" s="21"/>
-      <c r="BZ24" s="21"/>
-      <c r="CA24" s="21"/>
-      <c r="CB24" s="21"/>
-      <c r="CC24" s="21"/>
-      <c r="CD24" s="21"/>
-      <c r="CE24" s="21"/>
-      <c r="CF24" s="21"/>
-      <c r="CG24" s="21"/>
-      <c r="CH24" s="21"/>
-      <c r="CI24" s="21"/>
-      <c r="CJ24" s="21"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="50"/>
+      <c r="BK24" s="50"/>
+      <c r="BL24" s="50"/>
+      <c r="BM24" s="50"/>
+      <c r="BN24" s="50"/>
+      <c r="BO24" s="50"/>
+      <c r="BP24" s="50"/>
+      <c r="BQ24" s="50"/>
+      <c r="BR24" s="50"/>
+      <c r="BS24" s="50"/>
+      <c r="BT24" s="50"/>
+      <c r="BU24" s="50"/>
+      <c r="BV24" s="50"/>
+      <c r="BW24" s="50"/>
+      <c r="BX24" s="50"/>
+      <c r="BY24" s="50"/>
+      <c r="BZ24" s="50"/>
+      <c r="CA24" s="50"/>
+      <c r="CB24" s="50"/>
+      <c r="CC24" s="50"/>
+      <c r="CD24" s="50"/>
+      <c r="CE24" s="50"/>
+      <c r="CF24" s="50"/>
+      <c r="CG24" s="50"/>
+      <c r="CH24" s="50"/>
+      <c r="CI24" s="50"/>
+      <c r="CJ24" s="50"/>
     </row>
     <row r="25" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="23"/>
-      <c r="BE25" s="23"/>
-      <c r="BF25" s="23"/>
-      <c r="BG25" s="23"/>
-      <c r="BH25" s="23"/>
-      <c r="BI25" s="23"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="23"/>
-      <c r="BL25" s="23"/>
-      <c r="BM25" s="23"/>
-      <c r="BN25" s="23"/>
-      <c r="BO25" s="23"/>
-      <c r="BP25" s="23"/>
-      <c r="BQ25" s="23"/>
-      <c r="BR25" s="23"/>
-      <c r="BS25" s="23"/>
-      <c r="BT25" s="23"/>
-      <c r="BU25" s="23"/>
-      <c r="BV25" s="23"/>
-      <c r="BW25" s="23"/>
-      <c r="BX25" s="23"/>
-      <c r="BY25" s="23"/>
-      <c r="BZ25" s="23"/>
-      <c r="CA25" s="23"/>
-      <c r="CB25" s="23"/>
-      <c r="CC25" s="23"/>
-      <c r="CD25" s="23"/>
-      <c r="CE25" s="23"/>
-      <c r="CF25" s="23"/>
-      <c r="CG25" s="23"/>
-      <c r="CH25" s="23"/>
-      <c r="CI25" s="23"/>
-      <c r="CJ25" s="23"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="52"/>
+      <c r="BG25" s="52"/>
+      <c r="BH25" s="52"/>
+      <c r="BI25" s="52"/>
+      <c r="BJ25" s="52"/>
+      <c r="BK25" s="52"/>
+      <c r="BL25" s="52"/>
+      <c r="BM25" s="52"/>
+      <c r="BN25" s="52"/>
+      <c r="BO25" s="52"/>
+      <c r="BP25" s="52"/>
+      <c r="BQ25" s="52"/>
+      <c r="BR25" s="52"/>
+      <c r="BS25" s="52"/>
+      <c r="BT25" s="52"/>
+      <c r="BU25" s="52"/>
+      <c r="BV25" s="52"/>
+      <c r="BW25" s="52"/>
+      <c r="BX25" s="52"/>
+      <c r="BY25" s="52"/>
+      <c r="BZ25" s="52"/>
+      <c r="CA25" s="52"/>
+      <c r="CB25" s="52"/>
+      <c r="CC25" s="52"/>
+      <c r="CD25" s="52"/>
+      <c r="CE25" s="52"/>
+      <c r="CF25" s="52"/>
+      <c r="CG25" s="52"/>
+      <c r="CH25" s="52"/>
+      <c r="CI25" s="52"/>
+      <c r="CJ25" s="52"/>
     </row>
     <row r="26" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="23"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
-      <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
-      <c r="AU26" s="23"/>
-      <c r="AV26" s="23"/>
-      <c r="AW26" s="23"/>
-      <c r="AX26" s="23"/>
-      <c r="AY26" s="23"/>
-      <c r="AZ26" s="23"/>
-      <c r="BA26" s="23"/>
-      <c r="BB26" s="23"/>
-      <c r="BC26" s="23"/>
-      <c r="BD26" s="23"/>
-      <c r="BE26" s="23"/>
-      <c r="BF26" s="23"/>
-      <c r="BG26" s="23"/>
-      <c r="BH26" s="23"/>
-      <c r="BI26" s="23"/>
-      <c r="BJ26" s="23"/>
-      <c r="BK26" s="23"/>
-      <c r="BL26" s="23"/>
-      <c r="BM26" s="23"/>
-      <c r="BN26" s="23"/>
-      <c r="BO26" s="23"/>
-      <c r="BP26" s="23"/>
-      <c r="BQ26" s="23"/>
-      <c r="BR26" s="23"/>
-      <c r="BS26" s="23"/>
-      <c r="BT26" s="23"/>
-      <c r="BU26" s="23"/>
-      <c r="BV26" s="23"/>
-      <c r="BW26" s="23"/>
-      <c r="BX26" s="23"/>
-      <c r="BY26" s="23"/>
-      <c r="BZ26" s="23"/>
-      <c r="CA26" s="23"/>
-      <c r="CB26" s="23"/>
-      <c r="CC26" s="23"/>
-      <c r="CD26" s="23"/>
-      <c r="CE26" s="23"/>
-      <c r="CF26" s="23"/>
-      <c r="CG26" s="23"/>
-      <c r="CH26" s="23"/>
-      <c r="CI26" s="23"/>
-      <c r="CJ26" s="23"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="52"/>
+      <c r="BC26" s="52"/>
+      <c r="BD26" s="52"/>
+      <c r="BE26" s="52"/>
+      <c r="BF26" s="52"/>
+      <c r="BG26" s="52"/>
+      <c r="BH26" s="52"/>
+      <c r="BI26" s="52"/>
+      <c r="BJ26" s="52"/>
+      <c r="BK26" s="52"/>
+      <c r="BL26" s="52"/>
+      <c r="BM26" s="52"/>
+      <c r="BN26" s="52"/>
+      <c r="BO26" s="52"/>
+      <c r="BP26" s="52"/>
+      <c r="BQ26" s="52"/>
+      <c r="BR26" s="52"/>
+      <c r="BS26" s="52"/>
+      <c r="BT26" s="52"/>
+      <c r="BU26" s="52"/>
+      <c r="BV26" s="52"/>
+      <c r="BW26" s="52"/>
+      <c r="BX26" s="52"/>
+      <c r="BY26" s="52"/>
+      <c r="BZ26" s="52"/>
+      <c r="CA26" s="52"/>
+      <c r="CB26" s="52"/>
+      <c r="CC26" s="52"/>
+      <c r="CD26" s="52"/>
+      <c r="CE26" s="52"/>
+      <c r="CF26" s="52"/>
+      <c r="CG26" s="52"/>
+      <c r="CH26" s="52"/>
+      <c r="CI26" s="52"/>
+      <c r="CJ26" s="52"/>
     </row>
     <row r="27" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
-      <c r="AV27" s="23"/>
-      <c r="AW27" s="23"/>
-      <c r="AX27" s="23"/>
-      <c r="AY27" s="23"/>
-      <c r="AZ27" s="23"/>
-      <c r="BA27" s="23"/>
-      <c r="BB27" s="23"/>
-      <c r="BC27" s="23"/>
-      <c r="BD27" s="23"/>
-      <c r="BE27" s="23"/>
-      <c r="BF27" s="23"/>
-      <c r="BG27" s="23"/>
-      <c r="BH27" s="23"/>
-      <c r="BI27" s="23"/>
-      <c r="BJ27" s="23"/>
-      <c r="BK27" s="23"/>
-      <c r="BL27" s="23"/>
-      <c r="BM27" s="23"/>
-      <c r="BN27" s="23"/>
-      <c r="BO27" s="23"/>
-      <c r="BP27" s="23"/>
-      <c r="BQ27" s="23"/>
-      <c r="BR27" s="23"/>
-      <c r="BS27" s="23"/>
-      <c r="BT27" s="23"/>
-      <c r="BU27" s="23"/>
-      <c r="BV27" s="23"/>
-      <c r="BW27" s="23"/>
-      <c r="BX27" s="23"/>
-      <c r="BY27" s="23"/>
-      <c r="BZ27" s="23"/>
-      <c r="CA27" s="23"/>
-      <c r="CB27" s="23"/>
-      <c r="CC27" s="23"/>
-      <c r="CD27" s="23"/>
-      <c r="CE27" s="23"/>
-      <c r="CF27" s="23"/>
-      <c r="CG27" s="23"/>
-      <c r="CH27" s="23"/>
-      <c r="CI27" s="23"/>
-      <c r="CJ27" s="23"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
+      <c r="BA27" s="52"/>
+      <c r="BB27" s="52"/>
+      <c r="BC27" s="52"/>
+      <c r="BD27" s="52"/>
+      <c r="BE27" s="52"/>
+      <c r="BF27" s="52"/>
+      <c r="BG27" s="52"/>
+      <c r="BH27" s="52"/>
+      <c r="BI27" s="52"/>
+      <c r="BJ27" s="52"/>
+      <c r="BK27" s="52"/>
+      <c r="BL27" s="52"/>
+      <c r="BM27" s="52"/>
+      <c r="BN27" s="52"/>
+      <c r="BO27" s="52"/>
+      <c r="BP27" s="52"/>
+      <c r="BQ27" s="52"/>
+      <c r="BR27" s="52"/>
+      <c r="BS27" s="52"/>
+      <c r="BT27" s="52"/>
+      <c r="BU27" s="52"/>
+      <c r="BV27" s="52"/>
+      <c r="BW27" s="52"/>
+      <c r="BX27" s="52"/>
+      <c r="BY27" s="52"/>
+      <c r="BZ27" s="52"/>
+      <c r="CA27" s="52"/>
+      <c r="CB27" s="52"/>
+      <c r="CC27" s="52"/>
+      <c r="CD27" s="52"/>
+      <c r="CE27" s="52"/>
+      <c r="CF27" s="52"/>
+      <c r="CG27" s="52"/>
+      <c r="CH27" s="52"/>
+      <c r="CI27" s="52"/>
+      <c r="CJ27" s="52"/>
     </row>
     <row r="28" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="23"/>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="23"/>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="23"/>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="23"/>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="23"/>
-      <c r="BM28" s="23"/>
-      <c r="BN28" s="23"/>
-      <c r="BO28" s="23"/>
-      <c r="BP28" s="23"/>
-      <c r="BQ28" s="23"/>
-      <c r="BR28" s="23"/>
-      <c r="BS28" s="23"/>
-      <c r="BT28" s="23"/>
-      <c r="BU28" s="23"/>
-      <c r="BV28" s="23"/>
-      <c r="BW28" s="23"/>
-      <c r="BX28" s="23"/>
-      <c r="BY28" s="23"/>
-      <c r="BZ28" s="23"/>
-      <c r="CA28" s="23"/>
-      <c r="CB28" s="23"/>
-      <c r="CC28" s="23"/>
-      <c r="CD28" s="23"/>
-      <c r="CE28" s="23"/>
-      <c r="CF28" s="23"/>
-      <c r="CG28" s="23"/>
-      <c r="CH28" s="23"/>
-      <c r="CI28" s="23"/>
-      <c r="CJ28" s="23"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="52"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="52"/>
+      <c r="BE28" s="52"/>
+      <c r="BF28" s="52"/>
+      <c r="BG28" s="52"/>
+      <c r="BH28" s="52"/>
+      <c r="BI28" s="52"/>
+      <c r="BJ28" s="52"/>
+      <c r="BK28" s="52"/>
+      <c r="BL28" s="52"/>
+      <c r="BM28" s="52"/>
+      <c r="BN28" s="52"/>
+      <c r="BO28" s="52"/>
+      <c r="BP28" s="52"/>
+      <c r="BQ28" s="52"/>
+      <c r="BR28" s="52"/>
+      <c r="BS28" s="52"/>
+      <c r="BT28" s="52"/>
+      <c r="BU28" s="52"/>
+      <c r="BV28" s="52"/>
+      <c r="BW28" s="52"/>
+      <c r="BX28" s="52"/>
+      <c r="BY28" s="52"/>
+      <c r="BZ28" s="52"/>
+      <c r="CA28" s="52"/>
+      <c r="CB28" s="52"/>
+      <c r="CC28" s="52"/>
+      <c r="CD28" s="52"/>
+      <c r="CE28" s="52"/>
+      <c r="CF28" s="52"/>
+      <c r="CG28" s="52"/>
+      <c r="CH28" s="52"/>
+      <c r="CI28" s="52"/>
+      <c r="CJ28" s="52"/>
     </row>
     <row r="29" spans="2:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="25"/>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="25"/>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="25"/>
-      <c r="BG29" s="25"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
-      <c r="BJ29" s="25"/>
-      <c r="BK29" s="25"/>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
-      <c r="BN29" s="25"/>
-      <c r="BO29" s="25"/>
-      <c r="BP29" s="25"/>
-      <c r="BQ29" s="25"/>
-      <c r="BR29" s="25"/>
-      <c r="BS29" s="25"/>
-      <c r="BT29" s="25"/>
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="25"/>
-      <c r="BW29" s="25"/>
-      <c r="BX29" s="25"/>
-      <c r="BY29" s="25"/>
-      <c r="BZ29" s="25"/>
-      <c r="CA29" s="25"/>
-      <c r="CB29" s="25"/>
-      <c r="CC29" s="25"/>
-      <c r="CD29" s="25"/>
-      <c r="CE29" s="25"/>
-      <c r="CF29" s="25"/>
-      <c r="CG29" s="25"/>
-      <c r="CH29" s="25"/>
-      <c r="CI29" s="25"/>
-      <c r="CJ29" s="25"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="54"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
+      <c r="BI29" s="54"/>
+      <c r="BJ29" s="54"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="54"/>
+      <c r="BO29" s="54"/>
+      <c r="BP29" s="54"/>
+      <c r="BQ29" s="54"/>
+      <c r="BR29" s="54"/>
+      <c r="BS29" s="54"/>
+      <c r="BT29" s="54"/>
+      <c r="BU29" s="54"/>
+      <c r="BV29" s="54"/>
+      <c r="BW29" s="54"/>
+      <c r="BX29" s="54"/>
+      <c r="BY29" s="54"/>
+      <c r="BZ29" s="54"/>
+      <c r="CA29" s="54"/>
+      <c r="CB29" s="54"/>
+      <c r="CC29" s="54"/>
+      <c r="CD29" s="54"/>
+      <c r="CE29" s="54"/>
+      <c r="CF29" s="54"/>
+      <c r="CG29" s="54"/>
+      <c r="CH29" s="54"/>
+      <c r="CI29" s="54"/>
+      <c r="CJ29" s="54"/>
     </row>
     <row r="30" spans="2:88" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:X6"/>
-    <mergeCell ref="Y6:AR6"/>
-    <mergeCell ref="AS6:CI6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AR19"/>
+    <mergeCell ref="AS19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="AS20:CI20"/>
+    <mergeCell ref="Y20:AR20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AR17"/>
+    <mergeCell ref="AS17:CI17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AR18"/>
+    <mergeCell ref="AS18:CI18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="Y16:AR16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AR15"/>
+    <mergeCell ref="AS15:CI15"/>
+    <mergeCell ref="B24:CJ29"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AR22"/>
+    <mergeCell ref="AS22:CI22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AR21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AR23"/>
+    <mergeCell ref="AS23:CI23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="AS11:CI11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AR12"/>
+    <mergeCell ref="AS12:CI12"/>
+    <mergeCell ref="Y11:AR11"/>
     <mergeCell ref="E7:X7"/>
     <mergeCell ref="Y7:AR7"/>
     <mergeCell ref="AS7:CI7"/>
@@ -5827,54 +5852,32 @@
     <mergeCell ref="AS10:CI10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="Y8:AR8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="AS11:CI11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AR12"/>
-    <mergeCell ref="AS12:CI12"/>
-    <mergeCell ref="Y11:AR11"/>
-    <mergeCell ref="B24:CJ29"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="AS21:CI21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="AS22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AR23"/>
-    <mergeCell ref="AS23:CI23"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AR15"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AR17"/>
-    <mergeCell ref="AS17:CI17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AR18"/>
-    <mergeCell ref="AS18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AR19"/>
-    <mergeCell ref="AS19:CI19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="AS20:CI20"/>
-    <mergeCell ref="Y20:AR20"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:X6"/>
+    <mergeCell ref="Y6:AR6"/>
+    <mergeCell ref="AS6:CI6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA84D8-741B-4AB1-8307-D030F08232C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A44E44-DF04-4FB0-8C1D-04F0F845DA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>システム名</t>
   </si>
@@ -187,14 +187,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>inputerror</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>quizerror</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラーページ(入力系）</t>
     <rPh sb="7" eb="10">
       <t>ニュウリョクケイ</t>
@@ -219,6 +211,38 @@
     <rPh sb="7" eb="11">
       <t>モンダイナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点数表示ページ</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点数表示</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>error/input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>error/quiz</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1220,7 +1244,7 @@
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS15" sqref="AS15:CI15"/>
+      <selection activeCell="Y10" sqref="Y10:AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3595,7 +3619,7 @@
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -3617,7 +3641,7 @@
       <c r="W6" s="29"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="29"/>
       <c r="AA6" s="29"/>
@@ -3793,7 +3817,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -3815,7 +3839,7 @@
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
       <c r="Y8" s="40" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="41"/>
       <c r="AA8" s="41"/>
@@ -3837,7 +3861,7 @@
       <c r="AQ8" s="41"/>
       <c r="AR8" s="42"/>
       <c r="AS8" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AT8" s="35"/>
       <c r="AU8" s="35"/>
@@ -3891,7 +3915,9 @@
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
@@ -3911,7 +3937,9 @@
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="38"/>
-      <c r="Y9" s="34"/>
+      <c r="Y9" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
@@ -3931,7 +3959,9 @@
       <c r="AP9" s="34"/>
       <c r="AQ9" s="34"/>
       <c r="AR9" s="34"/>
-      <c r="AS9" s="36"/>
+      <c r="AS9" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="AT9" s="37"/>
       <c r="AU9" s="37"/>
       <c r="AV9" s="37"/>
@@ -3974,7 +4004,9 @@
       <c r="CG9" s="37"/>
       <c r="CH9" s="37"/>
       <c r="CI9" s="39"/>
-      <c r="CJ9" s="6"/>
+      <c r="CJ9" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="28">

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A44E44-DF04-4FB0-8C1D-04F0F845DA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47F2855-2D65-4142-8763-EABE0C4CD89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,6 +759,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -800,96 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:AR10"/>
+      <selection activeCell="E8" sqref="E8:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1258,102 +1258,102 @@
   <sheetData>
     <row r="1" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="14" t="s">
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44"/>
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="45"/>
+      <c r="CC1" s="45"/>
+      <c r="CD1" s="45"/>
+      <c r="CE1" s="45"/>
+      <c r="CF1" s="45"/>
+      <c r="CG1" s="45"/>
+      <c r="CH1" s="45"/>
+      <c r="CI1" s="45"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2293,102 +2293,102 @@
     </row>
     <row r="2" spans="1:1023" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="48"/>
+      <c r="BD2" s="48"/>
+      <c r="BE2" s="48"/>
+      <c r="BF2" s="48"/>
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="48"/>
+      <c r="BI2" s="48"/>
+      <c r="BJ2" s="48"/>
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="50"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="50"/>
+      <c r="BU2" s="50"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="50"/>
+      <c r="BX2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="51"/>
+      <c r="BZ2" s="51"/>
+      <c r="CA2" s="51"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="52"/>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+      <c r="CG2" s="52"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="52"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3415,878 +3415,878 @@
       <c r="CI3" s="5"/>
     </row>
     <row r="4" spans="1:1023" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="33" t="s">
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="33"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="33"/>
-      <c r="BG4" s="33"/>
-      <c r="BH4" s="33"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="33"/>
-      <c r="BP4" s="33"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="33"/>
-      <c r="BS4" s="33"/>
-      <c r="BT4" s="33"/>
-      <c r="BU4" s="33"/>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="33"/>
-      <c r="BZ4" s="33"/>
-      <c r="CA4" s="33"/>
-      <c r="CB4" s="33"/>
-      <c r="CC4" s="33"/>
-      <c r="CD4" s="33"/>
-      <c r="CE4" s="33"/>
-      <c r="CF4" s="33"/>
-      <c r="CG4" s="33"/>
-      <c r="CH4" s="33"/>
-      <c r="CI4" s="33"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="43"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="43"/>
+      <c r="BW4" s="43"/>
+      <c r="BX4" s="43"/>
+      <c r="BY4" s="43"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CB4" s="43"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="43"/>
+      <c r="CE4" s="43"/>
+      <c r="CF4" s="43"/>
+      <c r="CG4" s="43"/>
+      <c r="CH4" s="43"/>
+      <c r="CI4" s="43"/>
       <c r="CJ4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="28">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="30" t="s">
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AT5" s="30"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30"/>
-      <c r="AW5" s="30"/>
-      <c r="AX5" s="30"/>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="30"/>
-      <c r="BA5" s="30"/>
-      <c r="BB5" s="30"/>
-      <c r="BC5" s="30"/>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30"/>
-      <c r="BK5" s="30"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BR5" s="30"/>
-      <c r="BS5" s="30"/>
-      <c r="BT5" s="30"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="30"/>
-      <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="30"/>
-      <c r="CF5" s="30"/>
-      <c r="CG5" s="30"/>
-      <c r="CH5" s="30"/>
-      <c r="CI5" s="30"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40"/>
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="40"/>
+      <c r="BH5" s="40"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="40"/>
+      <c r="BK5" s="40"/>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40"/>
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="40"/>
+      <c r="BP5" s="40"/>
+      <c r="BQ5" s="40"/>
+      <c r="BR5" s="40"/>
+      <c r="BS5" s="40"/>
+      <c r="BT5" s="40"/>
+      <c r="BU5" s="40"/>
+      <c r="BV5" s="40"/>
+      <c r="BW5" s="40"/>
+      <c r="BX5" s="40"/>
+      <c r="BY5" s="40"/>
+      <c r="BZ5" s="40"/>
+      <c r="CA5" s="40"/>
+      <c r="CB5" s="40"/>
+      <c r="CC5" s="40"/>
+      <c r="CD5" s="40"/>
+      <c r="CE5" s="40"/>
+      <c r="CF5" s="40"/>
+      <c r="CG5" s="40"/>
+      <c r="CH5" s="40"/>
+      <c r="CI5" s="40"/>
       <c r="CJ5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="28">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="30" t="s">
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="30"/>
-      <c r="BC6" s="30"/>
-      <c r="BD6" s="30"/>
-      <c r="BE6" s="30"/>
-      <c r="BF6" s="30"/>
-      <c r="BG6" s="30"/>
-      <c r="BH6" s="30"/>
-      <c r="BI6" s="30"/>
-      <c r="BJ6" s="30"/>
-      <c r="BK6" s="30"/>
-      <c r="BL6" s="30"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="30"/>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
-      <c r="BS6" s="30"/>
-      <c r="BT6" s="30"/>
-      <c r="BU6" s="30"/>
-      <c r="BV6" s="30"/>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
-      <c r="BY6" s="30"/>
-      <c r="BZ6" s="30"/>
-      <c r="CA6" s="30"/>
-      <c r="CB6" s="30"/>
-      <c r="CC6" s="30"/>
-      <c r="CD6" s="30"/>
-      <c r="CE6" s="30"/>
-      <c r="CF6" s="30"/>
-      <c r="CG6" s="30"/>
-      <c r="CH6" s="30"/>
-      <c r="CI6" s="30"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="40"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
+      <c r="BI6" s="40"/>
+      <c r="BJ6" s="40"/>
+      <c r="BK6" s="40"/>
+      <c r="BL6" s="40"/>
+      <c r="BM6" s="40"/>
+      <c r="BN6" s="40"/>
+      <c r="BO6" s="40"/>
+      <c r="BP6" s="40"/>
+      <c r="BQ6" s="40"/>
+      <c r="BR6" s="40"/>
+      <c r="BS6" s="40"/>
+      <c r="BT6" s="40"/>
+      <c r="BU6" s="40"/>
+      <c r="BV6" s="40"/>
+      <c r="BW6" s="40"/>
+      <c r="BX6" s="40"/>
+      <c r="BY6" s="40"/>
+      <c r="BZ6" s="40"/>
+      <c r="CA6" s="40"/>
+      <c r="CB6" s="40"/>
+      <c r="CC6" s="40"/>
+      <c r="CD6" s="40"/>
+      <c r="CE6" s="40"/>
+      <c r="CF6" s="40"/>
+      <c r="CG6" s="40"/>
+      <c r="CH6" s="40"/>
+      <c r="CI6" s="40"/>
       <c r="CJ6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="28">
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
-      <c r="AQ7" s="34"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="35" t="s">
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="35"/>
-      <c r="BB7" s="35"/>
-      <c r="BC7" s="35"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="35"/>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="35"/>
-      <c r="BL7" s="35"/>
-      <c r="BM7" s="35"/>
-      <c r="BN7" s="35"/>
-      <c r="BO7" s="35"/>
-      <c r="BP7" s="35"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="35"/>
-      <c r="BS7" s="35"/>
-      <c r="BT7" s="35"/>
-      <c r="BU7" s="35"/>
-      <c r="BV7" s="35"/>
-      <c r="BW7" s="35"/>
-      <c r="BX7" s="35"/>
-      <c r="BY7" s="35"/>
-      <c r="BZ7" s="35"/>
-      <c r="CA7" s="35"/>
-      <c r="CB7" s="35"/>
-      <c r="CC7" s="35"/>
-      <c r="CD7" s="35"/>
-      <c r="CE7" s="35"/>
-      <c r="CF7" s="35"/>
-      <c r="CG7" s="35"/>
-      <c r="CH7" s="35"/>
-      <c r="CI7" s="35"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16"/>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
       <c r="CJ7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28">
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="40" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="35" t="s">
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="35"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="35"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="35"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="35"/>
-      <c r="BP8" s="35"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="35"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="35"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="BY8" s="35"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="35"/>
-      <c r="CB8" s="35"/>
-      <c r="CC8" s="35"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="35"/>
-      <c r="CF8" s="35"/>
-      <c r="CG8" s="35"/>
-      <c r="CH8" s="35"/>
-      <c r="CI8" s="35"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16"/>
+      <c r="CI8" s="16"/>
       <c r="CJ8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28">
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="36" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="34" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="36" t="s">
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37"/>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37"/>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37"/>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37"/>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37"/>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="37"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="37"/>
-      <c r="BW9" s="37"/>
-      <c r="BX9" s="37"/>
-      <c r="BY9" s="37"/>
-      <c r="BZ9" s="37"/>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="37"/>
-      <c r="CE9" s="37"/>
-      <c r="CF9" s="37"/>
-      <c r="CG9" s="37"/>
-      <c r="CH9" s="37"/>
-      <c r="CI9" s="39"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18"/>
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18"/>
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18"/>
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18"/>
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18"/>
+      <c r="CI9" s="20"/>
       <c r="CJ9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28">
+      <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="37"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="37"/>
-      <c r="BK10" s="37"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="37"/>
-      <c r="BN10" s="37"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37"/>
-      <c r="BQ10" s="37"/>
-      <c r="BR10" s="37"/>
-      <c r="BS10" s="37"/>
-      <c r="BT10" s="37"/>
-      <c r="BU10" s="37"/>
-      <c r="BV10" s="37"/>
-      <c r="BW10" s="37"/>
-      <c r="BX10" s="37"/>
-      <c r="BY10" s="37"/>
-      <c r="BZ10" s="37"/>
-      <c r="CA10" s="37"/>
-      <c r="CB10" s="37"/>
-      <c r="CC10" s="37"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="37"/>
-      <c r="CF10" s="37"/>
-      <c r="CG10" s="37"/>
-      <c r="CH10" s="37"/>
-      <c r="CI10" s="39"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="CA10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CC10" s="18"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="18"/>
+      <c r="CF10" s="18"/>
+      <c r="CG10" s="18"/>
+      <c r="CH10" s="18"/>
+      <c r="CI10" s="20"/>
       <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28">
+      <c r="B11" s="14">
         <v>7</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="43"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44"/>
-      <c r="BP11" s="44"/>
-      <c r="BQ11" s="44"/>
-      <c r="BR11" s="44"/>
-      <c r="BS11" s="44"/>
-      <c r="BT11" s="44"/>
-      <c r="BU11" s="44"/>
-      <c r="BV11" s="44"/>
-      <c r="BW11" s="44"/>
-      <c r="BX11" s="44"/>
-      <c r="BY11" s="44"/>
-      <c r="BZ11" s="44"/>
-      <c r="CA11" s="44"/>
-      <c r="CB11" s="44"/>
-      <c r="CC11" s="44"/>
-      <c r="CD11" s="44"/>
-      <c r="CE11" s="44"/>
-      <c r="CF11" s="44"/>
-      <c r="CG11" s="44"/>
-      <c r="CH11" s="44"/>
-      <c r="CI11" s="45"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="31"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="32"/>
       <c r="CJ11" s="6"/>
     </row>
     <row r="12" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28">
+      <c r="B12" s="14">
         <v>8</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="37"/>
-      <c r="AW12" s="37"/>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="37"/>
-      <c r="BE12" s="37"/>
-      <c r="BF12" s="37"/>
-      <c r="BG12" s="37"/>
-      <c r="BH12" s="37"/>
-      <c r="BI12" s="37"/>
-      <c r="BJ12" s="37"/>
-      <c r="BK12" s="37"/>
-      <c r="BL12" s="37"/>
-      <c r="BM12" s="37"/>
-      <c r="BN12" s="37"/>
-      <c r="BO12" s="37"/>
-      <c r="BP12" s="37"/>
-      <c r="BQ12" s="37"/>
-      <c r="BR12" s="37"/>
-      <c r="BS12" s="37"/>
-      <c r="BT12" s="37"/>
-      <c r="BU12" s="37"/>
-      <c r="BV12" s="37"/>
-      <c r="BW12" s="37"/>
-      <c r="BX12" s="37"/>
-      <c r="BY12" s="37"/>
-      <c r="BZ12" s="37"/>
-      <c r="CA12" s="37"/>
-      <c r="CB12" s="37"/>
-      <c r="CC12" s="37"/>
-      <c r="CD12" s="37"/>
-      <c r="CE12" s="37"/>
-      <c r="CF12" s="37"/>
-      <c r="CG12" s="37"/>
-      <c r="CH12" s="37"/>
-      <c r="CI12" s="39"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="18"/>
+      <c r="BQ12" s="18"/>
+      <c r="BR12" s="18"/>
+      <c r="BS12" s="18"/>
+      <c r="BT12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="18"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CF12" s="18"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="20"/>
       <c r="CJ12" s="6"/>
     </row>
     <row r="13" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28">
+      <c r="B13" s="14">
         <v>9</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4373,11 +4373,11 @@
       <c r="CJ13" s="6"/>
     </row>
     <row r="14" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28">
+      <c r="B14" s="14">
         <v>10</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -4464,1411 +4464,1389 @@
       <c r="CJ14" s="6"/>
     </row>
     <row r="15" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28">
+      <c r="B15" s="14">
         <v>11</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="37"/>
-      <c r="BG15" s="37"/>
-      <c r="BH15" s="37"/>
-      <c r="BI15" s="37"/>
-      <c r="BJ15" s="37"/>
-      <c r="BK15" s="37"/>
-      <c r="BL15" s="37"/>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
-      <c r="BR15" s="37"/>
-      <c r="BS15" s="37"/>
-      <c r="BT15" s="37"/>
-      <c r="BU15" s="37"/>
-      <c r="BV15" s="37"/>
-      <c r="BW15" s="37"/>
-      <c r="BX15" s="37"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="37"/>
-      <c r="CA15" s="37"/>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="37"/>
-      <c r="CE15" s="37"/>
-      <c r="CF15" s="37"/>
-      <c r="CG15" s="37"/>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="39"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="18"/>
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="18"/>
+      <c r="BJ15" s="18"/>
+      <c r="BK15" s="18"/>
+      <c r="BL15" s="18"/>
+      <c r="BM15" s="18"/>
+      <c r="BN15" s="18"/>
+      <c r="BO15" s="18"/>
+      <c r="BP15" s="18"/>
+      <c r="BQ15" s="18"/>
+      <c r="BR15" s="18"/>
+      <c r="BS15" s="18"/>
+      <c r="BT15" s="18"/>
+      <c r="BU15" s="18"/>
+      <c r="BV15" s="18"/>
+      <c r="BW15" s="18"/>
+      <c r="BX15" s="18"/>
+      <c r="BY15" s="18"/>
+      <c r="BZ15" s="18"/>
+      <c r="CA15" s="18"/>
+      <c r="CB15" s="18"/>
+      <c r="CC15" s="18"/>
+      <c r="CD15" s="18"/>
+      <c r="CE15" s="18"/>
+      <c r="CF15" s="18"/>
+      <c r="CG15" s="18"/>
+      <c r="CH15" s="18"/>
+      <c r="CI15" s="20"/>
       <c r="CJ15" s="6"/>
     </row>
     <row r="16" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28">
+      <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="35"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="35"/>
-      <c r="BC16" s="35"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="35"/>
-      <c r="BI16" s="35"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="35"/>
-      <c r="BL16" s="35"/>
-      <c r="BM16" s="35"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="35"/>
-      <c r="BP16" s="35"/>
-      <c r="BQ16" s="35"/>
-      <c r="BR16" s="35"/>
-      <c r="BS16" s="35"/>
-      <c r="BT16" s="35"/>
-      <c r="BU16" s="35"/>
-      <c r="BV16" s="35"/>
-      <c r="BW16" s="35"/>
-      <c r="BX16" s="35"/>
-      <c r="BY16" s="35"/>
-      <c r="BZ16" s="35"/>
-      <c r="CA16" s="35"/>
-      <c r="CB16" s="35"/>
-      <c r="CC16" s="35"/>
-      <c r="CD16" s="35"/>
-      <c r="CE16" s="35"/>
-      <c r="CF16" s="35"/>
-      <c r="CG16" s="35"/>
-      <c r="CH16" s="35"/>
-      <c r="CI16" s="35"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+      <c r="BI16" s="16"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="16"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="16"/>
+      <c r="BP16" s="16"/>
+      <c r="BQ16" s="16"/>
+      <c r="BR16" s="16"/>
+      <c r="BS16" s="16"/>
+      <c r="BT16" s="16"/>
+      <c r="BU16" s="16"/>
+      <c r="BV16" s="16"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="16"/>
+      <c r="BY16" s="16"/>
+      <c r="BZ16" s="16"/>
+      <c r="CA16" s="16"/>
+      <c r="CB16" s="16"/>
+      <c r="CC16" s="16"/>
+      <c r="CD16" s="16"/>
+      <c r="CE16" s="16"/>
+      <c r="CF16" s="16"/>
+      <c r="CG16" s="16"/>
+      <c r="CH16" s="16"/>
+      <c r="CI16" s="16"/>
       <c r="CJ16" s="6"/>
     </row>
     <row r="17" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28">
+      <c r="B17" s="14">
         <v>14</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="35"/>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="35"/>
-      <c r="BC17" s="35"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="35"/>
-      <c r="BF17" s="35"/>
-      <c r="BG17" s="35"/>
-      <c r="BH17" s="35"/>
-      <c r="BI17" s="35"/>
-      <c r="BJ17" s="35"/>
-      <c r="BK17" s="35"/>
-      <c r="BL17" s="35"/>
-      <c r="BM17" s="35"/>
-      <c r="BN17" s="35"/>
-      <c r="BO17" s="35"/>
-      <c r="BP17" s="35"/>
-      <c r="BQ17" s="35"/>
-      <c r="BR17" s="35"/>
-      <c r="BS17" s="35"/>
-      <c r="BT17" s="35"/>
-      <c r="BU17" s="35"/>
-      <c r="BV17" s="35"/>
-      <c r="BW17" s="35"/>
-      <c r="BX17" s="35"/>
-      <c r="BY17" s="35"/>
-      <c r="BZ17" s="35"/>
-      <c r="CA17" s="35"/>
-      <c r="CB17" s="35"/>
-      <c r="CC17" s="35"/>
-      <c r="CD17" s="35"/>
-      <c r="CE17" s="35"/>
-      <c r="CF17" s="35"/>
-      <c r="CG17" s="35"/>
-      <c r="CH17" s="35"/>
-      <c r="CI17" s="35"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="16"/>
+      <c r="BS17" s="16"/>
+      <c r="BT17" s="16"/>
+      <c r="BU17" s="16"/>
+      <c r="BV17" s="16"/>
+      <c r="BW17" s="16"/>
+      <c r="BX17" s="16"/>
+      <c r="BY17" s="16"/>
+      <c r="BZ17" s="16"/>
+      <c r="CA17" s="16"/>
+      <c r="CB17" s="16"/>
+      <c r="CC17" s="16"/>
+      <c r="CD17" s="16"/>
+      <c r="CE17" s="16"/>
+      <c r="CF17" s="16"/>
+      <c r="CG17" s="16"/>
+      <c r="CH17" s="16"/>
+      <c r="CI17" s="16"/>
       <c r="CJ17" s="6"/>
     </row>
     <row r="18" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28">
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-      <c r="BG18" s="35"/>
-      <c r="BH18" s="35"/>
-      <c r="BI18" s="35"/>
-      <c r="BJ18" s="35"/>
-      <c r="BK18" s="35"/>
-      <c r="BL18" s="35"/>
-      <c r="BM18" s="35"/>
-      <c r="BN18" s="35"/>
-      <c r="BO18" s="35"/>
-      <c r="BP18" s="35"/>
-      <c r="BQ18" s="35"/>
-      <c r="BR18" s="35"/>
-      <c r="BS18" s="35"/>
-      <c r="BT18" s="35"/>
-      <c r="BU18" s="35"/>
-      <c r="BV18" s="35"/>
-      <c r="BW18" s="35"/>
-      <c r="BX18" s="35"/>
-      <c r="BY18" s="35"/>
-      <c r="BZ18" s="35"/>
-      <c r="CA18" s="35"/>
-      <c r="CB18" s="35"/>
-      <c r="CC18" s="35"/>
-      <c r="CD18" s="35"/>
-      <c r="CE18" s="35"/>
-      <c r="CF18" s="35"/>
-      <c r="CG18" s="35"/>
-      <c r="CH18" s="35"/>
-      <c r="CI18" s="35"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="16"/>
+      <c r="BT18" s="16"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+      <c r="BY18" s="16"/>
+      <c r="BZ18" s="16"/>
+      <c r="CA18" s="16"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="16"/>
+      <c r="CG18" s="16"/>
+      <c r="CH18" s="16"/>
+      <c r="CI18" s="16"/>
       <c r="CJ18" s="6"/>
     </row>
     <row r="19" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28">
+      <c r="B19" s="14">
         <v>16</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="35"/>
-      <c r="AX19" s="35"/>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="35"/>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="35"/>
-      <c r="BF19" s="35"/>
-      <c r="BG19" s="35"/>
-      <c r="BH19" s="35"/>
-      <c r="BI19" s="35"/>
-      <c r="BJ19" s="35"/>
-      <c r="BK19" s="35"/>
-      <c r="BL19" s="35"/>
-      <c r="BM19" s="35"/>
-      <c r="BN19" s="35"/>
-      <c r="BO19" s="35"/>
-      <c r="BP19" s="35"/>
-      <c r="BQ19" s="35"/>
-      <c r="BR19" s="35"/>
-      <c r="BS19" s="35"/>
-      <c r="BT19" s="35"/>
-      <c r="BU19" s="35"/>
-      <c r="BV19" s="35"/>
-      <c r="BW19" s="35"/>
-      <c r="BX19" s="35"/>
-      <c r="BY19" s="35"/>
-      <c r="BZ19" s="35"/>
-      <c r="CA19" s="35"/>
-      <c r="CB19" s="35"/>
-      <c r="CC19" s="35"/>
-      <c r="CD19" s="35"/>
-      <c r="CE19" s="35"/>
-      <c r="CF19" s="35"/>
-      <c r="CG19" s="35"/>
-      <c r="CH19" s="35"/>
-      <c r="CI19" s="35"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="16"/>
+      <c r="BI19" s="16"/>
+      <c r="BJ19" s="16"/>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="16"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="16"/>
+      <c r="BP19" s="16"/>
+      <c r="BQ19" s="16"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="16"/>
+      <c r="BT19" s="16"/>
+      <c r="BU19" s="16"/>
+      <c r="BV19" s="16"/>
+      <c r="BW19" s="16"/>
+      <c r="BX19" s="16"/>
+      <c r="BY19" s="16"/>
+      <c r="BZ19" s="16"/>
+      <c r="CA19" s="16"/>
+      <c r="CB19" s="16"/>
+      <c r="CC19" s="16"/>
+      <c r="CD19" s="16"/>
+      <c r="CE19" s="16"/>
+      <c r="CF19" s="16"/>
+      <c r="CG19" s="16"/>
+      <c r="CH19" s="16"/>
+      <c r="CI19" s="16"/>
       <c r="CJ19" s="6"/>
     </row>
     <row r="20" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28">
+      <c r="B20" s="14">
         <v>17</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="35"/>
-      <c r="AT20" s="35"/>
-      <c r="AU20" s="35"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="35"/>
-      <c r="AX20" s="35"/>
-      <c r="AY20" s="35"/>
-      <c r="AZ20" s="35"/>
-      <c r="BA20" s="35"/>
-      <c r="BB20" s="35"/>
-      <c r="BC20" s="35"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="35"/>
-      <c r="BF20" s="35"/>
-      <c r="BG20" s="35"/>
-      <c r="BH20" s="35"/>
-      <c r="BI20" s="35"/>
-      <c r="BJ20" s="35"/>
-      <c r="BK20" s="35"/>
-      <c r="BL20" s="35"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="35"/>
-      <c r="BO20" s="35"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="35"/>
-      <c r="BR20" s="35"/>
-      <c r="BS20" s="35"/>
-      <c r="BT20" s="35"/>
-      <c r="BU20" s="35"/>
-      <c r="BV20" s="35"/>
-      <c r="BW20" s="35"/>
-      <c r="BX20" s="35"/>
-      <c r="BY20" s="35"/>
-      <c r="BZ20" s="35"/>
-      <c r="CA20" s="35"/>
-      <c r="CB20" s="35"/>
-      <c r="CC20" s="35"/>
-      <c r="CD20" s="35"/>
-      <c r="CE20" s="35"/>
-      <c r="CF20" s="35"/>
-      <c r="CG20" s="35"/>
-      <c r="CH20" s="35"/>
-      <c r="CI20" s="35"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="16"/>
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="16"/>
+      <c r="BY20" s="16"/>
+      <c r="BZ20" s="16"/>
+      <c r="CA20" s="16"/>
+      <c r="CB20" s="16"/>
+      <c r="CC20" s="16"/>
+      <c r="CD20" s="16"/>
+      <c r="CE20" s="16"/>
+      <c r="CF20" s="16"/>
+      <c r="CG20" s="16"/>
+      <c r="CH20" s="16"/>
+      <c r="CI20" s="16"/>
       <c r="CJ20" s="6"/>
     </row>
     <row r="21" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28">
+      <c r="B21" s="14">
         <v>18</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="35"/>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="35"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="35"/>
-      <c r="BF21" s="35"/>
-      <c r="BG21" s="35"/>
-      <c r="BH21" s="35"/>
-      <c r="BI21" s="35"/>
-      <c r="BJ21" s="35"/>
-      <c r="BK21" s="35"/>
-      <c r="BL21" s="35"/>
-      <c r="BM21" s="35"/>
-      <c r="BN21" s="35"/>
-      <c r="BO21" s="35"/>
-      <c r="BP21" s="35"/>
-      <c r="BQ21" s="35"/>
-      <c r="BR21" s="35"/>
-      <c r="BS21" s="35"/>
-      <c r="BT21" s="35"/>
-      <c r="BU21" s="35"/>
-      <c r="BV21" s="35"/>
-      <c r="BW21" s="35"/>
-      <c r="BX21" s="35"/>
-      <c r="BY21" s="35"/>
-      <c r="BZ21" s="35"/>
-      <c r="CA21" s="35"/>
-      <c r="CB21" s="35"/>
-      <c r="CC21" s="35"/>
-      <c r="CD21" s="35"/>
-      <c r="CE21" s="35"/>
-      <c r="CF21" s="35"/>
-      <c r="CG21" s="35"/>
-      <c r="CH21" s="35"/>
-      <c r="CI21" s="35"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="16"/>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="16"/>
+      <c r="BI21" s="16"/>
+      <c r="BJ21" s="16"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="16"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="16"/>
+      <c r="BP21" s="16"/>
+      <c r="BQ21" s="16"/>
+      <c r="BR21" s="16"/>
+      <c r="BS21" s="16"/>
+      <c r="BT21" s="16"/>
+      <c r="BU21" s="16"/>
+      <c r="BV21" s="16"/>
+      <c r="BW21" s="16"/>
+      <c r="BX21" s="16"/>
+      <c r="BY21" s="16"/>
+      <c r="BZ21" s="16"/>
+      <c r="CA21" s="16"/>
+      <c r="CB21" s="16"/>
+      <c r="CC21" s="16"/>
+      <c r="CD21" s="16"/>
+      <c r="CE21" s="16"/>
+      <c r="CF21" s="16"/>
+      <c r="CG21" s="16"/>
+      <c r="CH21" s="16"/>
+      <c r="CI21" s="16"/>
       <c r="CJ21" s="6"/>
     </row>
     <row r="22" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28">
+      <c r="B22" s="14">
         <v>19</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="35"/>
-      <c r="BD22" s="35"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="35"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-      <c r="CA22" s="35"/>
-      <c r="CB22" s="35"/>
-      <c r="CC22" s="35"/>
-      <c r="CD22" s="35"/>
-      <c r="CE22" s="35"/>
-      <c r="CF22" s="35"/>
-      <c r="CG22" s="35"/>
-      <c r="CH22" s="35"/>
-      <c r="CI22" s="35"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="16"/>
+      <c r="BI22" s="16"/>
+      <c r="BJ22" s="16"/>
+      <c r="BK22" s="16"/>
+      <c r="BL22" s="16"/>
+      <c r="BM22" s="16"/>
+      <c r="BN22" s="16"/>
+      <c r="BO22" s="16"/>
+      <c r="BP22" s="16"/>
+      <c r="BQ22" s="16"/>
+      <c r="BR22" s="16"/>
+      <c r="BS22" s="16"/>
+      <c r="BT22" s="16"/>
+      <c r="BU22" s="16"/>
+      <c r="BV22" s="16"/>
+      <c r="BW22" s="16"/>
+      <c r="BX22" s="16"/>
+      <c r="BY22" s="16"/>
+      <c r="BZ22" s="16"/>
+      <c r="CA22" s="16"/>
+      <c r="CB22" s="16"/>
+      <c r="CC22" s="16"/>
+      <c r="CD22" s="16"/>
+      <c r="CE22" s="16"/>
+      <c r="CF22" s="16"/>
+      <c r="CG22" s="16"/>
+      <c r="CH22" s="16"/>
+      <c r="CI22" s="16"/>
       <c r="CJ22" s="6"/>
     </row>
     <row r="23" spans="2:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="55">
+      <c r="B23" s="27">
         <v>20</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
-      <c r="AU23" s="57"/>
-      <c r="AV23" s="57"/>
-      <c r="AW23" s="57"/>
-      <c r="AX23" s="57"/>
-      <c r="AY23" s="57"/>
-      <c r="AZ23" s="57"/>
-      <c r="BA23" s="57"/>
-      <c r="BB23" s="57"/>
-      <c r="BC23" s="57"/>
-      <c r="BD23" s="57"/>
-      <c r="BE23" s="57"/>
-      <c r="BF23" s="57"/>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="57"/>
-      <c r="BI23" s="57"/>
-      <c r="BJ23" s="57"/>
-      <c r="BK23" s="57"/>
-      <c r="BL23" s="57"/>
-      <c r="BM23" s="57"/>
-      <c r="BN23" s="57"/>
-      <c r="BO23" s="57"/>
-      <c r="BP23" s="57"/>
-      <c r="BQ23" s="57"/>
-      <c r="BR23" s="57"/>
-      <c r="BS23" s="57"/>
-      <c r="BT23" s="57"/>
-      <c r="BU23" s="57"/>
-      <c r="BV23" s="57"/>
-      <c r="BW23" s="57"/>
-      <c r="BX23" s="57"/>
-      <c r="BY23" s="57"/>
-      <c r="BZ23" s="57"/>
-      <c r="CA23" s="57"/>
-      <c r="CB23" s="57"/>
-      <c r="CC23" s="57"/>
-      <c r="CD23" s="57"/>
-      <c r="CE23" s="57"/>
-      <c r="CF23" s="57"/>
-      <c r="CG23" s="57"/>
-      <c r="CH23" s="57"/>
-      <c r="CI23" s="57"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="29"/>
+      <c r="BD23" s="29"/>
+      <c r="BE23" s="29"/>
+      <c r="BF23" s="29"/>
+      <c r="BG23" s="29"/>
+      <c r="BH23" s="29"/>
+      <c r="BI23" s="29"/>
+      <c r="BJ23" s="29"/>
+      <c r="BK23" s="29"/>
+      <c r="BL23" s="29"/>
+      <c r="BM23" s="29"/>
+      <c r="BN23" s="29"/>
+      <c r="BO23" s="29"/>
+      <c r="BP23" s="29"/>
+      <c r="BQ23" s="29"/>
+      <c r="BR23" s="29"/>
+      <c r="BS23" s="29"/>
+      <c r="BT23" s="29"/>
+      <c r="BU23" s="29"/>
+      <c r="BV23" s="29"/>
+      <c r="BW23" s="29"/>
+      <c r="BX23" s="29"/>
+      <c r="BY23" s="29"/>
+      <c r="BZ23" s="29"/>
+      <c r="CA23" s="29"/>
+      <c r="CB23" s="29"/>
+      <c r="CC23" s="29"/>
+      <c r="CD23" s="29"/>
+      <c r="CE23" s="29"/>
+      <c r="CF23" s="29"/>
+      <c r="CG23" s="29"/>
+      <c r="CH23" s="29"/>
+      <c r="CI23" s="29"/>
       <c r="CJ23" s="12"/>
     </row>
     <row r="24" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
-      <c r="AV24" s="50"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="50"/>
-      <c r="BA24" s="50"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="50"/>
-      <c r="BD24" s="50"/>
-      <c r="BE24" s="50"/>
-      <c r="BF24" s="50"/>
-      <c r="BG24" s="50"/>
-      <c r="BH24" s="50"/>
-      <c r="BI24" s="50"/>
-      <c r="BJ24" s="50"/>
-      <c r="BK24" s="50"/>
-      <c r="BL24" s="50"/>
-      <c r="BM24" s="50"/>
-      <c r="BN24" s="50"/>
-      <c r="BO24" s="50"/>
-      <c r="BP24" s="50"/>
-      <c r="BQ24" s="50"/>
-      <c r="BR24" s="50"/>
-      <c r="BS24" s="50"/>
-      <c r="BT24" s="50"/>
-      <c r="BU24" s="50"/>
-      <c r="BV24" s="50"/>
-      <c r="BW24" s="50"/>
-      <c r="BX24" s="50"/>
-      <c r="BY24" s="50"/>
-      <c r="BZ24" s="50"/>
-      <c r="CA24" s="50"/>
-      <c r="CB24" s="50"/>
-      <c r="CC24" s="50"/>
-      <c r="CD24" s="50"/>
-      <c r="CE24" s="50"/>
-      <c r="CF24" s="50"/>
-      <c r="CG24" s="50"/>
-      <c r="CH24" s="50"/>
-      <c r="CI24" s="50"/>
-      <c r="CJ24" s="50"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="22"/>
+      <c r="BH24" s="22"/>
+      <c r="BI24" s="22"/>
+      <c r="BJ24" s="22"/>
+      <c r="BK24" s="22"/>
+      <c r="BL24" s="22"/>
+      <c r="BM24" s="22"/>
+      <c r="BN24" s="22"/>
+      <c r="BO24" s="22"/>
+      <c r="BP24" s="22"/>
+      <c r="BQ24" s="22"/>
+      <c r="BR24" s="22"/>
+      <c r="BS24" s="22"/>
+      <c r="BT24" s="22"/>
+      <c r="BU24" s="22"/>
+      <c r="BV24" s="22"/>
+      <c r="BW24" s="22"/>
+      <c r="BX24" s="22"/>
+      <c r="BY24" s="22"/>
+      <c r="BZ24" s="22"/>
+      <c r="CA24" s="22"/>
+      <c r="CB24" s="22"/>
+      <c r="CC24" s="22"/>
+      <c r="CD24" s="22"/>
+      <c r="CE24" s="22"/>
+      <c r="CF24" s="22"/>
+      <c r="CG24" s="22"/>
+      <c r="CH24" s="22"/>
+      <c r="CI24" s="22"/>
+      <c r="CJ24" s="22"/>
     </row>
     <row r="25" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
-      <c r="BO25" s="52"/>
-      <c r="BP25" s="52"/>
-      <c r="BQ25" s="52"/>
-      <c r="BR25" s="52"/>
-      <c r="BS25" s="52"/>
-      <c r="BT25" s="52"/>
-      <c r="BU25" s="52"/>
-      <c r="BV25" s="52"/>
-      <c r="BW25" s="52"/>
-      <c r="BX25" s="52"/>
-      <c r="BY25" s="52"/>
-      <c r="BZ25" s="52"/>
-      <c r="CA25" s="52"/>
-      <c r="CB25" s="52"/>
-      <c r="CC25" s="52"/>
-      <c r="CD25" s="52"/>
-      <c r="CE25" s="52"/>
-      <c r="CF25" s="52"/>
-      <c r="CG25" s="52"/>
-      <c r="CH25" s="52"/>
-      <c r="CI25" s="52"/>
-      <c r="CJ25" s="52"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="24"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="24"/>
+      <c r="BI25" s="24"/>
+      <c r="BJ25" s="24"/>
+      <c r="BK25" s="24"/>
+      <c r="BL25" s="24"/>
+      <c r="BM25" s="24"/>
+      <c r="BN25" s="24"/>
+      <c r="BO25" s="24"/>
+      <c r="BP25" s="24"/>
+      <c r="BQ25" s="24"/>
+      <c r="BR25" s="24"/>
+      <c r="BS25" s="24"/>
+      <c r="BT25" s="24"/>
+      <c r="BU25" s="24"/>
+      <c r="BV25" s="24"/>
+      <c r="BW25" s="24"/>
+      <c r="BX25" s="24"/>
+      <c r="BY25" s="24"/>
+      <c r="BZ25" s="24"/>
+      <c r="CA25" s="24"/>
+      <c r="CB25" s="24"/>
+      <c r="CC25" s="24"/>
+      <c r="CD25" s="24"/>
+      <c r="CE25" s="24"/>
+      <c r="CF25" s="24"/>
+      <c r="CG25" s="24"/>
+      <c r="CH25" s="24"/>
+      <c r="CI25" s="24"/>
+      <c r="CJ25" s="24"/>
     </row>
     <row r="26" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="52"/>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="52"/>
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="52"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="52"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="AZ26" s="52"/>
-      <c r="BA26" s="52"/>
-      <c r="BB26" s="52"/>
-      <c r="BC26" s="52"/>
-      <c r="BD26" s="52"/>
-      <c r="BE26" s="52"/>
-      <c r="BF26" s="52"/>
-      <c r="BG26" s="52"/>
-      <c r="BH26" s="52"/>
-      <c r="BI26" s="52"/>
-      <c r="BJ26" s="52"/>
-      <c r="BK26" s="52"/>
-      <c r="BL26" s="52"/>
-      <c r="BM26" s="52"/>
-      <c r="BN26" s="52"/>
-      <c r="BO26" s="52"/>
-      <c r="BP26" s="52"/>
-      <c r="BQ26" s="52"/>
-      <c r="BR26" s="52"/>
-      <c r="BS26" s="52"/>
-      <c r="BT26" s="52"/>
-      <c r="BU26" s="52"/>
-      <c r="BV26" s="52"/>
-      <c r="BW26" s="52"/>
-      <c r="BX26" s="52"/>
-      <c r="BY26" s="52"/>
-      <c r="BZ26" s="52"/>
-      <c r="CA26" s="52"/>
-      <c r="CB26" s="52"/>
-      <c r="CC26" s="52"/>
-      <c r="CD26" s="52"/>
-      <c r="CE26" s="52"/>
-      <c r="CF26" s="52"/>
-      <c r="CG26" s="52"/>
-      <c r="CH26" s="52"/>
-      <c r="CI26" s="52"/>
-      <c r="CJ26" s="52"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+      <c r="BA26" s="24"/>
+      <c r="BB26" s="24"/>
+      <c r="BC26" s="24"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="24"/>
+      <c r="BF26" s="24"/>
+      <c r="BG26" s="24"/>
+      <c r="BH26" s="24"/>
+      <c r="BI26" s="24"/>
+      <c r="BJ26" s="24"/>
+      <c r="BK26" s="24"/>
+      <c r="BL26" s="24"/>
+      <c r="BM26" s="24"/>
+      <c r="BN26" s="24"/>
+      <c r="BO26" s="24"/>
+      <c r="BP26" s="24"/>
+      <c r="BQ26" s="24"/>
+      <c r="BR26" s="24"/>
+      <c r="BS26" s="24"/>
+      <c r="BT26" s="24"/>
+      <c r="BU26" s="24"/>
+      <c r="BV26" s="24"/>
+      <c r="BW26" s="24"/>
+      <c r="BX26" s="24"/>
+      <c r="BY26" s="24"/>
+      <c r="BZ26" s="24"/>
+      <c r="CA26" s="24"/>
+      <c r="CB26" s="24"/>
+      <c r="CC26" s="24"/>
+      <c r="CD26" s="24"/>
+      <c r="CE26" s="24"/>
+      <c r="CF26" s="24"/>
+      <c r="CG26" s="24"/>
+      <c r="CH26" s="24"/>
+      <c r="CI26" s="24"/>
+      <c r="CJ26" s="24"/>
     </row>
     <row r="27" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="52"/>
-      <c r="BA27" s="52"/>
-      <c r="BB27" s="52"/>
-      <c r="BC27" s="52"/>
-      <c r="BD27" s="52"/>
-      <c r="BE27" s="52"/>
-      <c r="BF27" s="52"/>
-      <c r="BG27" s="52"/>
-      <c r="BH27" s="52"/>
-      <c r="BI27" s="52"/>
-      <c r="BJ27" s="52"/>
-      <c r="BK27" s="52"/>
-      <c r="BL27" s="52"/>
-      <c r="BM27" s="52"/>
-      <c r="BN27" s="52"/>
-      <c r="BO27" s="52"/>
-      <c r="BP27" s="52"/>
-      <c r="BQ27" s="52"/>
-      <c r="BR27" s="52"/>
-      <c r="BS27" s="52"/>
-      <c r="BT27" s="52"/>
-      <c r="BU27" s="52"/>
-      <c r="BV27" s="52"/>
-      <c r="BW27" s="52"/>
-      <c r="BX27" s="52"/>
-      <c r="BY27" s="52"/>
-      <c r="BZ27" s="52"/>
-      <c r="CA27" s="52"/>
-      <c r="CB27" s="52"/>
-      <c r="CC27" s="52"/>
-      <c r="CD27" s="52"/>
-      <c r="CE27" s="52"/>
-      <c r="CF27" s="52"/>
-      <c r="CG27" s="52"/>
-      <c r="CH27" s="52"/>
-      <c r="CI27" s="52"/>
-      <c r="CJ27" s="52"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="24"/>
+      <c r="AS27" s="24"/>
+      <c r="AT27" s="24"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="24"/>
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="24"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="24"/>
+      <c r="BA27" s="24"/>
+      <c r="BB27" s="24"/>
+      <c r="BC27" s="24"/>
+      <c r="BD27" s="24"/>
+      <c r="BE27" s="24"/>
+      <c r="BF27" s="24"/>
+      <c r="BG27" s="24"/>
+      <c r="BH27" s="24"/>
+      <c r="BI27" s="24"/>
+      <c r="BJ27" s="24"/>
+      <c r="BK27" s="24"/>
+      <c r="BL27" s="24"/>
+      <c r="BM27" s="24"/>
+      <c r="BN27" s="24"/>
+      <c r="BO27" s="24"/>
+      <c r="BP27" s="24"/>
+      <c r="BQ27" s="24"/>
+      <c r="BR27" s="24"/>
+      <c r="BS27" s="24"/>
+      <c r="BT27" s="24"/>
+      <c r="BU27" s="24"/>
+      <c r="BV27" s="24"/>
+      <c r="BW27" s="24"/>
+      <c r="BX27" s="24"/>
+      <c r="BY27" s="24"/>
+      <c r="BZ27" s="24"/>
+      <c r="CA27" s="24"/>
+      <c r="CB27" s="24"/>
+      <c r="CC27" s="24"/>
+      <c r="CD27" s="24"/>
+      <c r="CE27" s="24"/>
+      <c r="CF27" s="24"/>
+      <c r="CG27" s="24"/>
+      <c r="CH27" s="24"/>
+      <c r="CI27" s="24"/>
+      <c r="CJ27" s="24"/>
     </row>
     <row r="28" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="52"/>
-      <c r="AQ28" s="52"/>
-      <c r="AR28" s="52"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="52"/>
-      <c r="BH28" s="52"/>
-      <c r="BI28" s="52"/>
-      <c r="BJ28" s="52"/>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="52"/>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="52"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="BR28" s="52"/>
-      <c r="BS28" s="52"/>
-      <c r="BT28" s="52"/>
-      <c r="BU28" s="52"/>
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="52"/>
-      <c r="BX28" s="52"/>
-      <c r="BY28" s="52"/>
-      <c r="BZ28" s="52"/>
-      <c r="CA28" s="52"/>
-      <c r="CB28" s="52"/>
-      <c r="CC28" s="52"/>
-      <c r="CD28" s="52"/>
-      <c r="CE28" s="52"/>
-      <c r="CF28" s="52"/>
-      <c r="CG28" s="52"/>
-      <c r="CH28" s="52"/>
-      <c r="CI28" s="52"/>
-      <c r="CJ28" s="52"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="24"/>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="24"/>
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="24"/>
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="24"/>
+      <c r="BJ28" s="24"/>
+      <c r="BK28" s="24"/>
+      <c r="BL28" s="24"/>
+      <c r="BM28" s="24"/>
+      <c r="BN28" s="24"/>
+      <c r="BO28" s="24"/>
+      <c r="BP28" s="24"/>
+      <c r="BQ28" s="24"/>
+      <c r="BR28" s="24"/>
+      <c r="BS28" s="24"/>
+      <c r="BT28" s="24"/>
+      <c r="BU28" s="24"/>
+      <c r="BV28" s="24"/>
+      <c r="BW28" s="24"/>
+      <c r="BX28" s="24"/>
+      <c r="BY28" s="24"/>
+      <c r="BZ28" s="24"/>
+      <c r="CA28" s="24"/>
+      <c r="CB28" s="24"/>
+      <c r="CC28" s="24"/>
+      <c r="CD28" s="24"/>
+      <c r="CE28" s="24"/>
+      <c r="CF28" s="24"/>
+      <c r="CG28" s="24"/>
+      <c r="CH28" s="24"/>
+      <c r="CI28" s="24"/>
+      <c r="CJ28" s="24"/>
     </row>
     <row r="29" spans="2:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="54"/>
-      <c r="AU29" s="54"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="54"/>
-      <c r="BA29" s="54"/>
-      <c r="BB29" s="54"/>
-      <c r="BC29" s="54"/>
-      <c r="BD29" s="54"/>
-      <c r="BE29" s="54"/>
-      <c r="BF29" s="54"/>
-      <c r="BG29" s="54"/>
-      <c r="BH29" s="54"/>
-      <c r="BI29" s="54"/>
-      <c r="BJ29" s="54"/>
-      <c r="BK29" s="54"/>
-      <c r="BL29" s="54"/>
-      <c r="BM29" s="54"/>
-      <c r="BN29" s="54"/>
-      <c r="BO29" s="54"/>
-      <c r="BP29" s="54"/>
-      <c r="BQ29" s="54"/>
-      <c r="BR29" s="54"/>
-      <c r="BS29" s="54"/>
-      <c r="BT29" s="54"/>
-      <c r="BU29" s="54"/>
-      <c r="BV29" s="54"/>
-      <c r="BW29" s="54"/>
-      <c r="BX29" s="54"/>
-      <c r="BY29" s="54"/>
-      <c r="BZ29" s="54"/>
-      <c r="CA29" s="54"/>
-      <c r="CB29" s="54"/>
-      <c r="CC29" s="54"/>
-      <c r="CD29" s="54"/>
-      <c r="CE29" s="54"/>
-      <c r="CF29" s="54"/>
-      <c r="CG29" s="54"/>
-      <c r="CH29" s="54"/>
-      <c r="CI29" s="54"/>
-      <c r="CJ29" s="54"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="26"/>
+      <c r="BH29" s="26"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="26"/>
+      <c r="BM29" s="26"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29" s="26"/>
+      <c r="BP29" s="26"/>
+      <c r="BQ29" s="26"/>
+      <c r="BR29" s="26"/>
+      <c r="BS29" s="26"/>
+      <c r="BT29" s="26"/>
+      <c r="BU29" s="26"/>
+      <c r="BV29" s="26"/>
+      <c r="BW29" s="26"/>
+      <c r="BX29" s="26"/>
+      <c r="BY29" s="26"/>
+      <c r="BZ29" s="26"/>
+      <c r="CA29" s="26"/>
+      <c r="CB29" s="26"/>
+      <c r="CC29" s="26"/>
+      <c r="CD29" s="26"/>
+      <c r="CE29" s="26"/>
+      <c r="CF29" s="26"/>
+      <c r="CG29" s="26"/>
+      <c r="CH29" s="26"/>
+      <c r="CI29" s="26"/>
+      <c r="CJ29" s="26"/>
     </row>
     <row r="30" spans="2:88" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AR19"/>
-    <mergeCell ref="AS19:CI19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="AS20:CI20"/>
-    <mergeCell ref="Y20:AR20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AR17"/>
-    <mergeCell ref="AS17:CI17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AR18"/>
-    <mergeCell ref="AS18:CI18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AR15"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="B24:CJ29"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="AS21:CI21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="AS22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AR23"/>
-    <mergeCell ref="AS23:CI23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="AS11:CI11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AR12"/>
-    <mergeCell ref="AS12:CI12"/>
-    <mergeCell ref="Y11:AR11"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:X6"/>
+    <mergeCell ref="Y6:AR6"/>
+    <mergeCell ref="AS6:CI6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="E7:X7"/>
     <mergeCell ref="Y7:AR7"/>
     <mergeCell ref="AS7:CI7"/>
@@ -5884,32 +5862,54 @@
     <mergeCell ref="AS10:CI10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="Y8:AR8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:X6"/>
-    <mergeCell ref="Y6:AR6"/>
-    <mergeCell ref="AS6:CI6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="AS11:CI11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AR12"/>
+    <mergeCell ref="AS12:CI12"/>
+    <mergeCell ref="Y11:AR11"/>
+    <mergeCell ref="B24:CJ29"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AR22"/>
+    <mergeCell ref="AS22:CI22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AR21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AR23"/>
+    <mergeCell ref="AS23:CI23"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="Y16:AR16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AR15"/>
+    <mergeCell ref="AS15:CI15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AR17"/>
+    <mergeCell ref="AS17:CI17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AR18"/>
+    <mergeCell ref="AS18:CI18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AR19"/>
+    <mergeCell ref="AS19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="AS20:CI20"/>
+    <mergeCell ref="Y20:AR20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47F2855-2D65-4142-8763-EABE0C4CD89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF65313-57CF-405B-B717-EBB3AA8837F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>システム名</t>
   </si>
@@ -94,13 +94,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1に遷移</t>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -144,19 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザー名入力欄の入力エラー</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>問題ページ</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
@@ -164,45 +144,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題内容表示提出ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認証</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラーページ(入力系）</t>
     <rPh sb="7" eb="10">
       <t>ニュウリョクケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題内容にエラー（空欄あり）</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>クウラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -238,11 +182,99 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>error/input</t>
+    <t>問題内容にエラー(空欄で提出など）　javascrpit等フロント側でエラー表示</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>error/quiz</t>
+    <t>ユーザー名入力欄の入力エラー　画面遷移</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>index以外のページにアクセスしたらindexに飛ぶ　spring security利用</t>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>認証機能</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題内容表示　ラジオボタンで選択　下に提出ボタン有</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>error</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -297,7 +329,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,14 +348,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -605,36 +631,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thick">
@@ -679,19 +675,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -720,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -735,12 +718,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,12 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,7 +751,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,19 +763,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,119 +1212,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMI30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:X8"/>
+      <selection activeCell="Y7" sqref="Y7:AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0.6640625" style="2"/>
     <col min="2" max="87" width="1.6640625" style="2"/>
-    <col min="88" max="88" width="12" style="2" customWidth="1"/>
-    <col min="89" max="1024" width="9" style="2"/>
-    <col min="1025" max="16384" width="9" style="1"/>
+    <col min="88" max="1023" width="9" style="2"/>
+    <col min="1024" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="55" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="56" t="s">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="44" t="s">
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
+      <c r="BX1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="44"/>
-      <c r="BZ1" s="44"/>
-      <c r="CA1" s="44"/>
-      <c r="CB1" s="45"/>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45"/>
-      <c r="CE1" s="45"/>
-      <c r="CF1" s="45"/>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45"/>
-      <c r="CI1" s="45"/>
+      <c r="BY1" s="40"/>
+      <c r="BZ1" s="40"/>
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="41"/>
+      <c r="CC1" s="41"/>
+      <c r="CD1" s="41"/>
+      <c r="CE1" s="41"/>
+      <c r="CF1" s="41"/>
+      <c r="CG1" s="41"/>
+      <c r="CH1" s="41"/>
+      <c r="CI1" s="41"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2289,106 +2259,105 @@
       <c r="AMF1" s="1"/>
       <c r="AMG1" s="1"/>
       <c r="AMH1" s="1"/>
-      <c r="AMI1" s="1"/>
     </row>
-    <row r="2" spans="1:1023" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1022" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="48" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="48"/>
-      <c r="BI2" s="48"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="49" t="s">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="51" t="s">
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="51"/>
-      <c r="BZ2" s="51"/>
-      <c r="CA2" s="51"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="52"/>
-      <c r="CD2" s="52"/>
-      <c r="CE2" s="52"/>
-      <c r="CF2" s="52"/>
-      <c r="CG2" s="52"/>
-      <c r="CH2" s="52"/>
-      <c r="CI2" s="52"/>
+      <c r="BY2" s="47"/>
+      <c r="BZ2" s="47"/>
+      <c r="CA2" s="47"/>
+      <c r="CB2" s="48"/>
+      <c r="CC2" s="48"/>
+      <c r="CD2" s="48"/>
+      <c r="CE2" s="48"/>
+      <c r="CF2" s="48"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="48"/>
+      <c r="CI2" s="48"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3324,9 +3293,8 @@
       <c r="AMF2" s="1"/>
       <c r="AMG2" s="1"/>
       <c r="AMH2" s="1"/>
-      <c r="AMI2" s="1"/>
     </row>
-    <row r="3" spans="1:1023" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1022" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3414,2411 +3382,2379 @@
       <c r="CH3" s="5"/>
       <c r="CI3" s="5"/>
     </row>
-    <row r="4" spans="1:1023" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="43" t="s">
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="43"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="43"/>
-      <c r="BT4" s="43"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="43"/>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="43"/>
-      <c r="CC4" s="43"/>
-      <c r="CD4" s="43"/>
-      <c r="CE4" s="43"/>
-      <c r="CF4" s="43"/>
-      <c r="CG4" s="43"/>
-      <c r="CH4" s="43"/>
-      <c r="CI4" s="43"/>
-      <c r="CJ4" s="7" t="s">
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39"/>
+    </row>
+    <row r="5" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="36"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="36"/>
+      <c r="BU5" s="36"/>
+      <c r="BV5" s="36"/>
+      <c r="BW5" s="36"/>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="36"/>
+      <c r="BZ5" s="36"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="36"/>
+      <c r="CC5" s="36"/>
+      <c r="CD5" s="36"/>
+      <c r="CE5" s="36"/>
+      <c r="CF5" s="36"/>
+      <c r="CG5" s="36"/>
+      <c r="CH5" s="36"/>
+      <c r="CI5" s="36"/>
+    </row>
+    <row r="6" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="36"/>
+      <c r="BM6" s="36"/>
+      <c r="BN6" s="36"/>
+      <c r="BO6" s="36"/>
+      <c r="BP6" s="36"/>
+      <c r="BQ6" s="36"/>
+      <c r="BR6" s="36"/>
+      <c r="BS6" s="36"/>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="36"/>
+      <c r="CA6" s="36"/>
+      <c r="CB6" s="36"/>
+      <c r="CC6" s="36"/>
+      <c r="CD6" s="36"/>
+      <c r="CE6" s="36"/>
+      <c r="CF6" s="36"/>
+      <c r="CG6" s="36"/>
+      <c r="CH6" s="36"/>
+      <c r="CI6" s="36"/>
+    </row>
+    <row r="7" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="12"/>
+      <c r="BZ7" s="12"/>
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="12"/>
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="12"/>
+      <c r="CG7" s="12"/>
+      <c r="CH7" s="12"/>
+      <c r="CI7" s="12"/>
+    </row>
+    <row r="8" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="12"/>
+      <c r="BT8" s="12"/>
+      <c r="BU8" s="12"/>
+      <c r="BV8" s="12"/>
+      <c r="BW8" s="12"/>
+      <c r="BX8" s="12"/>
+      <c r="BY8" s="12"/>
+      <c r="BZ8" s="12"/>
+      <c r="CA8" s="12"/>
+      <c r="CB8" s="12"/>
+      <c r="CC8" s="12"/>
+      <c r="CD8" s="12"/>
+      <c r="CE8" s="12"/>
+      <c r="CF8" s="12"/>
+      <c r="CG8" s="12"/>
+      <c r="CH8" s="12"/>
+      <c r="CI8" s="12"/>
+    </row>
+    <row r="9" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
+      <c r="CA9" s="14"/>
+      <c r="CB9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="14"/>
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14"/>
+      <c r="CI9" s="16"/>
     </row>
-    <row r="5" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="14">
-        <v>1</v>
+    <row r="10" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
+        <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="39" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="14"/>
+      <c r="CE10" s="14"/>
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="16"/>
+    </row>
+    <row r="11" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="27"/>
+      <c r="BE11" s="27"/>
+      <c r="BF11" s="27"/>
+      <c r="BG11" s="27"/>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="27"/>
+      <c r="BJ11" s="27"/>
+      <c r="BK11" s="27"/>
+      <c r="BL11" s="27"/>
+      <c r="BM11" s="27"/>
+      <c r="BN11" s="27"/>
+      <c r="BO11" s="27"/>
+      <c r="BP11" s="27"/>
+      <c r="BQ11" s="27"/>
+      <c r="BR11" s="27"/>
+      <c r="BS11" s="27"/>
+      <c r="BT11" s="27"/>
+      <c r="BU11" s="27"/>
+      <c r="BV11" s="27"/>
+      <c r="BW11" s="27"/>
+      <c r="BX11" s="27"/>
+      <c r="BY11" s="27"/>
+      <c r="BZ11" s="27"/>
+      <c r="CA11" s="27"/>
+      <c r="CB11" s="27"/>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="27"/>
+      <c r="CE11" s="27"/>
+      <c r="CF11" s="27"/>
+      <c r="CG11" s="27"/>
+      <c r="CH11" s="27"/>
+      <c r="CI11" s="28"/>
+    </row>
+    <row r="12" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BP12" s="14"/>
+      <c r="BQ12" s="14"/>
+      <c r="BR12" s="14"/>
+      <c r="BS12" s="14"/>
+      <c r="BT12" s="14"/>
+      <c r="BU12" s="14"/>
+      <c r="BV12" s="14"/>
+      <c r="BW12" s="14"/>
+      <c r="BX12" s="14"/>
+      <c r="BY12" s="14"/>
+      <c r="BZ12" s="14"/>
+      <c r="CA12" s="14"/>
+      <c r="CB12" s="14"/>
+      <c r="CC12" s="14"/>
+      <c r="CD12" s="14"/>
+      <c r="CE12" s="14"/>
+      <c r="CF12" s="14"/>
+      <c r="CG12" s="14"/>
+      <c r="CH12" s="14"/>
+      <c r="CI12" s="16"/>
+    </row>
+    <row r="13" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7"/>
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+      <c r="CG13" s="7"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="9"/>
+    </row>
+    <row r="14" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
+      <c r="BU14" s="7"/>
+      <c r="BV14" s="7"/>
+      <c r="BW14" s="7"/>
+      <c r="BX14" s="7"/>
+      <c r="BY14" s="7"/>
+      <c r="BZ14" s="7"/>
+      <c r="CA14" s="7"/>
+      <c r="CB14" s="7"/>
+      <c r="CC14" s="7"/>
+      <c r="CD14" s="7"/>
+      <c r="CE14" s="7"/>
+      <c r="CF14" s="7"/>
+      <c r="CG14" s="7"/>
+      <c r="CH14" s="7"/>
+      <c r="CI14" s="9"/>
+    </row>
+    <row r="15" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="14"/>
+      <c r="BR15" s="14"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+      <c r="BU15" s="14"/>
+      <c r="BV15" s="14"/>
+      <c r="BW15" s="14"/>
+      <c r="BX15" s="14"/>
+      <c r="BY15" s="14"/>
+      <c r="BZ15" s="14"/>
+      <c r="CA15" s="14"/>
+      <c r="CB15" s="14"/>
+      <c r="CC15" s="14"/>
+      <c r="CD15" s="14"/>
+      <c r="CE15" s="14"/>
+      <c r="CF15" s="14"/>
+      <c r="CG15" s="14"/>
+      <c r="CH15" s="14"/>
+      <c r="CI15" s="16"/>
+    </row>
+    <row r="16" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
+      <c r="BY16" s="12"/>
+      <c r="BZ16" s="12"/>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="12"/>
+      <c r="CI16" s="12"/>
+    </row>
+    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
+      <c r="CE17" s="12"/>
+      <c r="CF17" s="12"/>
+      <c r="CG17" s="12"/>
+      <c r="CH17" s="12"/>
+      <c r="CI17" s="12"/>
+    </row>
+    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
+      <c r="BW18" s="12"/>
+      <c r="BX18" s="12"/>
+      <c r="BY18" s="12"/>
+      <c r="BZ18" s="12"/>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="12"/>
+      <c r="CE18" s="12"/>
+      <c r="CF18" s="12"/>
+      <c r="CG18" s="12"/>
+      <c r="CH18" s="12"/>
+      <c r="CI18" s="12"/>
+    </row>
+    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="12"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
+      <c r="CE19" s="12"/>
+      <c r="CF19" s="12"/>
+      <c r="CG19" s="12"/>
+      <c r="CH19" s="12"/>
+      <c r="CI19" s="12"/>
+    </row>
+    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="12"/>
+      <c r="BS20" s="12"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="12"/>
+      <c r="BX20" s="12"/>
+      <c r="BY20" s="12"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="12"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="12"/>
+    </row>
+    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
+      <c r="BR21" s="12"/>
+      <c r="BS21" s="12"/>
+      <c r="BT21" s="12"/>
+      <c r="BU21" s="12"/>
+      <c r="BV21" s="12"/>
+      <c r="BW21" s="12"/>
+      <c r="BX21" s="12"/>
+      <c r="BY21" s="12"/>
+      <c r="BZ21" s="12"/>
+      <c r="CA21" s="12"/>
+      <c r="CB21" s="12"/>
+      <c r="CC21" s="12"/>
+      <c r="CD21" s="12"/>
+      <c r="CE21" s="12"/>
+      <c r="CF21" s="12"/>
+      <c r="CG21" s="12"/>
+      <c r="CH21" s="12"/>
+      <c r="CI21" s="12"/>
+    </row>
+    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>19</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
+      <c r="BR22" s="12"/>
+      <c r="BS22" s="12"/>
+      <c r="BT22" s="12"/>
+      <c r="BU22" s="12"/>
+      <c r="BV22" s="12"/>
+      <c r="BW22" s="12"/>
+      <c r="BX22" s="12"/>
+      <c r="BY22" s="12"/>
+      <c r="BZ22" s="12"/>
+      <c r="CA22" s="12"/>
+      <c r="CB22" s="12"/>
+      <c r="CC22" s="12"/>
+      <c r="CD22" s="12"/>
+      <c r="CE22" s="12"/>
+      <c r="CF22" s="12"/>
+      <c r="CG22" s="12"/>
+      <c r="CH22" s="12"/>
+      <c r="CI22" s="12"/>
+    </row>
+    <row r="23" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="25"/>
+      <c r="BF23" s="25"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="25"/>
+      <c r="BL23" s="25"/>
+      <c r="BM23" s="25"/>
+      <c r="BN23" s="25"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="25"/>
+      <c r="BS23" s="25"/>
+      <c r="BT23" s="25"/>
+      <c r="BU23" s="25"/>
+      <c r="BV23" s="25"/>
+      <c r="BW23" s="25"/>
+      <c r="BX23" s="25"/>
+      <c r="BY23" s="25"/>
+      <c r="BZ23" s="25"/>
+      <c r="CA23" s="25"/>
+      <c r="CB23" s="25"/>
+      <c r="CC23" s="25"/>
+      <c r="CD23" s="25"/>
+      <c r="CE23" s="25"/>
+      <c r="CF23" s="25"/>
+      <c r="CG23" s="25"/>
+      <c r="CH23" s="25"/>
+      <c r="CI23" s="25"/>
+    </row>
+    <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
-      <c r="BH5" s="40"/>
-      <c r="BI5" s="40"/>
-      <c r="BJ5" s="40"/>
-      <c r="BK5" s="40"/>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="40"/>
-      <c r="BN5" s="40"/>
-      <c r="BO5" s="40"/>
-      <c r="BP5" s="40"/>
-      <c r="BQ5" s="40"/>
-      <c r="BR5" s="40"/>
-      <c r="BS5" s="40"/>
-      <c r="BT5" s="40"/>
-      <c r="BU5" s="40"/>
-      <c r="BV5" s="40"/>
-      <c r="BW5" s="40"/>
-      <c r="BX5" s="40"/>
-      <c r="BY5" s="40"/>
-      <c r="BZ5" s="40"/>
-      <c r="CA5" s="40"/>
-      <c r="CB5" s="40"/>
-      <c r="CC5" s="40"/>
-      <c r="CD5" s="40"/>
-      <c r="CE5" s="40"/>
-      <c r="CF5" s="40"/>
-      <c r="CG5" s="40"/>
-      <c r="CH5" s="40"/>
-      <c r="CI5" s="40"/>
-      <c r="CJ5" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
+      <c r="AZ24" s="18"/>
+      <c r="BA24" s="18"/>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="18"/>
+      <c r="BD24" s="18"/>
+      <c r="BE24" s="18"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="18"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
+      <c r="BM24" s="18"/>
+      <c r="BN24" s="18"/>
+      <c r="BO24" s="18"/>
+      <c r="BP24" s="18"/>
+      <c r="BQ24" s="18"/>
+      <c r="BR24" s="18"/>
+      <c r="BS24" s="18"/>
+      <c r="BT24" s="18"/>
+      <c r="BU24" s="18"/>
+      <c r="BV24" s="18"/>
+      <c r="BW24" s="18"/>
+      <c r="BX24" s="18"/>
+      <c r="BY24" s="18"/>
+      <c r="BZ24" s="18"/>
+      <c r="CA24" s="18"/>
+      <c r="CB24" s="18"/>
+      <c r="CC24" s="18"/>
+      <c r="CD24" s="18"/>
+      <c r="CE24" s="18"/>
+      <c r="CF24" s="18"/>
+      <c r="CG24" s="18"/>
+      <c r="CH24" s="18"/>
+      <c r="CI24" s="18"/>
     </row>
-    <row r="6" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
-      <c r="BI6" s="40"/>
-      <c r="BJ6" s="40"/>
-      <c r="BK6" s="40"/>
-      <c r="BL6" s="40"/>
-      <c r="BM6" s="40"/>
-      <c r="BN6" s="40"/>
-      <c r="BO6" s="40"/>
-      <c r="BP6" s="40"/>
-      <c r="BQ6" s="40"/>
-      <c r="BR6" s="40"/>
-      <c r="BS6" s="40"/>
-      <c r="BT6" s="40"/>
-      <c r="BU6" s="40"/>
-      <c r="BV6" s="40"/>
-      <c r="BW6" s="40"/>
-      <c r="BX6" s="40"/>
-      <c r="BY6" s="40"/>
-      <c r="BZ6" s="40"/>
-      <c r="CA6" s="40"/>
-      <c r="CB6" s="40"/>
-      <c r="CC6" s="40"/>
-      <c r="CD6" s="40"/>
-      <c r="CE6" s="40"/>
-      <c r="CF6" s="40"/>
-      <c r="CG6" s="40"/>
-      <c r="CH6" s="40"/>
-      <c r="CI6" s="40"/>
-      <c r="CJ6" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="20"/>
+      <c r="BR25" s="20"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="20"/>
+      <c r="BU25" s="20"/>
+      <c r="BV25" s="20"/>
+      <c r="BW25" s="20"/>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
+      <c r="BZ25" s="20"/>
+      <c r="CA25" s="20"/>
+      <c r="CB25" s="20"/>
+      <c r="CC25" s="20"/>
+      <c r="CD25" s="20"/>
+      <c r="CE25" s="20"/>
+      <c r="CF25" s="20"/>
+      <c r="CG25" s="20"/>
+      <c r="CH25" s="20"/>
+      <c r="CI25" s="20"/>
     </row>
-    <row r="7" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
-      <c r="BM7" s="16"/>
-      <c r="BN7" s="16"/>
-      <c r="BO7" s="16"/>
-      <c r="BP7" s="16"/>
-      <c r="BQ7" s="16"/>
-      <c r="BR7" s="16"/>
-      <c r="BS7" s="16"/>
-      <c r="BT7" s="16"/>
-      <c r="BU7" s="16"/>
-      <c r="BV7" s="16"/>
-      <c r="BW7" s="16"/>
-      <c r="BX7" s="16"/>
-      <c r="BY7" s="16"/>
-      <c r="BZ7" s="16"/>
-      <c r="CA7" s="16"/>
-      <c r="CB7" s="16"/>
-      <c r="CC7" s="16"/>
-      <c r="CD7" s="16"/>
-      <c r="CE7" s="16"/>
-      <c r="CF7" s="16"/>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16"/>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="20"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="20"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="20"/>
+      <c r="CE26" s="20"/>
+      <c r="CF26" s="20"/>
+      <c r="CG26" s="20"/>
+      <c r="CH26" s="20"/>
+      <c r="CI26" s="20"/>
     </row>
-    <row r="8" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="14">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-      <c r="BM8" s="16"/>
-      <c r="BN8" s="16"/>
-      <c r="BO8" s="16"/>
-      <c r="BP8" s="16"/>
-      <c r="BQ8" s="16"/>
-      <c r="BR8" s="16"/>
-      <c r="BS8" s="16"/>
-      <c r="BT8" s="16"/>
-      <c r="BU8" s="16"/>
-      <c r="BV8" s="16"/>
-      <c r="BW8" s="16"/>
-      <c r="BX8" s="16"/>
-      <c r="BY8" s="16"/>
-      <c r="BZ8" s="16"/>
-      <c r="CA8" s="16"/>
-      <c r="CB8" s="16"/>
-      <c r="CC8" s="16"/>
-      <c r="CD8" s="16"/>
-      <c r="CE8" s="16"/>
-      <c r="CF8" s="16"/>
-      <c r="CG8" s="16"/>
-      <c r="CH8" s="16"/>
-      <c r="CI8" s="16"/>
-      <c r="CJ8" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="27" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="20"/>
+      <c r="BQ27" s="20"/>
+      <c r="BR27" s="20"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="20"/>
+      <c r="BU27" s="20"/>
+      <c r="BV27" s="20"/>
+      <c r="BW27" s="20"/>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
+      <c r="BZ27" s="20"/>
+      <c r="CA27" s="20"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
+      <c r="CD27" s="20"/>
+      <c r="CE27" s="20"/>
+      <c r="CF27" s="20"/>
+      <c r="CG27" s="20"/>
+      <c r="CH27" s="20"/>
+      <c r="CI27" s="20"/>
     </row>
-    <row r="9" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18"/>
-      <c r="BK9" s="18"/>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18"/>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18"/>
-      <c r="BS9" s="18"/>
-      <c r="BT9" s="18"/>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="18"/>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="18"/>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="18"/>
-      <c r="CA9" s="18"/>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18"/>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="18"/>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18"/>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="28" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="20"/>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="20"/>
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="20"/>
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="20"/>
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="20"/>
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="20"/>
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="20"/>
+      <c r="CI28" s="20"/>
     </row>
-    <row r="10" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="14">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="18"/>
-      <c r="BL10" s="18"/>
-      <c r="BM10" s="18"/>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="18"/>
-      <c r="BP10" s="18"/>
-      <c r="BQ10" s="18"/>
-      <c r="BR10" s="18"/>
-      <c r="BS10" s="18"/>
-      <c r="BT10" s="18"/>
-      <c r="BU10" s="18"/>
-      <c r="BV10" s="18"/>
-      <c r="BW10" s="18"/>
-      <c r="BX10" s="18"/>
-      <c r="BY10" s="18"/>
-      <c r="BZ10" s="18"/>
-      <c r="CA10" s="18"/>
-      <c r="CB10" s="18"/>
-      <c r="CC10" s="18"/>
-      <c r="CD10" s="18"/>
-      <c r="CE10" s="18"/>
-      <c r="CF10" s="18"/>
-      <c r="CG10" s="18"/>
-      <c r="CH10" s="18"/>
-      <c r="CI10" s="20"/>
-      <c r="CJ10" s="6"/>
+    <row r="29" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="22"/>
+      <c r="BN29" s="22"/>
+      <c r="BO29" s="22"/>
+      <c r="BP29" s="22"/>
+      <c r="BQ29" s="22"/>
+      <c r="BR29" s="22"/>
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="22"/>
+      <c r="BV29" s="22"/>
+      <c r="BW29" s="22"/>
+      <c r="BX29" s="22"/>
+      <c r="BY29" s="22"/>
+      <c r="BZ29" s="22"/>
+      <c r="CA29" s="22"/>
+      <c r="CB29" s="22"/>
+      <c r="CC29" s="22"/>
+      <c r="CD29" s="22"/>
+      <c r="CE29" s="22"/>
+      <c r="CF29" s="22"/>
+      <c r="CG29" s="22"/>
+      <c r="CH29" s="22"/>
+      <c r="CI29" s="22"/>
     </row>
-    <row r="11" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="31"/>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="31"/>
-      <c r="BN11" s="31"/>
-      <c r="BO11" s="31"/>
-      <c r="BP11" s="31"/>
-      <c r="BQ11" s="31"/>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="31"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="31"/>
-      <c r="BW11" s="31"/>
-      <c r="BX11" s="31"/>
-      <c r="BY11" s="31"/>
-      <c r="BZ11" s="31"/>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="31"/>
-      <c r="CC11" s="31"/>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="31"/>
-      <c r="CF11" s="31"/>
-      <c r="CG11" s="31"/>
-      <c r="CH11" s="31"/>
-      <c r="CI11" s="32"/>
-      <c r="CJ11" s="6"/>
-    </row>
-    <row r="12" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="14">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="18"/>
-      <c r="BF12" s="18"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="18"/>
-      <c r="BI12" s="18"/>
-      <c r="BJ12" s="18"/>
-      <c r="BK12" s="18"/>
-      <c r="BL12" s="18"/>
-      <c r="BM12" s="18"/>
-      <c r="BN12" s="18"/>
-      <c r="BO12" s="18"/>
-      <c r="BP12" s="18"/>
-      <c r="BQ12" s="18"/>
-      <c r="BR12" s="18"/>
-      <c r="BS12" s="18"/>
-      <c r="BT12" s="18"/>
-      <c r="BU12" s="18"/>
-      <c r="BV12" s="18"/>
-      <c r="BW12" s="18"/>
-      <c r="BX12" s="18"/>
-      <c r="BY12" s="18"/>
-      <c r="BZ12" s="18"/>
-      <c r="CA12" s="18"/>
-      <c r="CB12" s="18"/>
-      <c r="CC12" s="18"/>
-      <c r="CD12" s="18"/>
-      <c r="CE12" s="18"/>
-      <c r="CF12" s="18"/>
-      <c r="CG12" s="18"/>
-      <c r="CH12" s="18"/>
-      <c r="CI12" s="20"/>
-      <c r="CJ12" s="6"/>
-    </row>
-    <row r="13" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="14">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
-      <c r="BG13" s="9"/>
-      <c r="BH13" s="9"/>
-      <c r="BI13" s="9"/>
-      <c r="BJ13" s="9"/>
-      <c r="BK13" s="9"/>
-      <c r="BL13" s="9"/>
-      <c r="BM13" s="9"/>
-      <c r="BN13" s="9"/>
-      <c r="BO13" s="9"/>
-      <c r="BP13" s="9"/>
-      <c r="BQ13" s="9"/>
-      <c r="BR13" s="9"/>
-      <c r="BS13" s="9"/>
-      <c r="BT13" s="9"/>
-      <c r="BU13" s="9"/>
-      <c r="BV13" s="9"/>
-      <c r="BW13" s="9"/>
-      <c r="BX13" s="9"/>
-      <c r="BY13" s="9"/>
-      <c r="BZ13" s="9"/>
-      <c r="CA13" s="9"/>
-      <c r="CB13" s="9"/>
-      <c r="CC13" s="9"/>
-      <c r="CD13" s="9"/>
-      <c r="CE13" s="9"/>
-      <c r="CF13" s="9"/>
-      <c r="CG13" s="9"/>
-      <c r="CH13" s="9"/>
-      <c r="CI13" s="11"/>
-      <c r="CJ13" s="6"/>
-    </row>
-    <row r="14" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="14">
-        <v>10</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="9"/>
-      <c r="BO14" s="9"/>
-      <c r="BP14" s="9"/>
-      <c r="BQ14" s="9"/>
-      <c r="BR14" s="9"/>
-      <c r="BS14" s="9"/>
-      <c r="BT14" s="9"/>
-      <c r="BU14" s="9"/>
-      <c r="BV14" s="9"/>
-      <c r="BW14" s="9"/>
-      <c r="BX14" s="9"/>
-      <c r="BY14" s="9"/>
-      <c r="BZ14" s="9"/>
-      <c r="CA14" s="9"/>
-      <c r="CB14" s="9"/>
-      <c r="CC14" s="9"/>
-      <c r="CD14" s="9"/>
-      <c r="CE14" s="9"/>
-      <c r="CF14" s="9"/>
-      <c r="CG14" s="9"/>
-      <c r="CH14" s="9"/>
-      <c r="CI14" s="11"/>
-      <c r="CJ14" s="6"/>
-    </row>
-    <row r="15" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
-        <v>11</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="18"/>
-      <c r="AU15" s="18"/>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="18"/>
-      <c r="AX15" s="18"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="18"/>
-      <c r="BA15" s="18"/>
-      <c r="BB15" s="18"/>
-      <c r="BC15" s="18"/>
-      <c r="BD15" s="18"/>
-      <c r="BE15" s="18"/>
-      <c r="BF15" s="18"/>
-      <c r="BG15" s="18"/>
-      <c r="BH15" s="18"/>
-      <c r="BI15" s="18"/>
-      <c r="BJ15" s="18"/>
-      <c r="BK15" s="18"/>
-      <c r="BL15" s="18"/>
-      <c r="BM15" s="18"/>
-      <c r="BN15" s="18"/>
-      <c r="BO15" s="18"/>
-      <c r="BP15" s="18"/>
-      <c r="BQ15" s="18"/>
-      <c r="BR15" s="18"/>
-      <c r="BS15" s="18"/>
-      <c r="BT15" s="18"/>
-      <c r="BU15" s="18"/>
-      <c r="BV15" s="18"/>
-      <c r="BW15" s="18"/>
-      <c r="BX15" s="18"/>
-      <c r="BY15" s="18"/>
-      <c r="BZ15" s="18"/>
-      <c r="CA15" s="18"/>
-      <c r="CB15" s="18"/>
-      <c r="CC15" s="18"/>
-      <c r="CD15" s="18"/>
-      <c r="CE15" s="18"/>
-      <c r="CF15" s="18"/>
-      <c r="CG15" s="18"/>
-      <c r="CH15" s="18"/>
-      <c r="CI15" s="20"/>
-      <c r="CJ15" s="6"/>
-    </row>
-    <row r="16" spans="1:1023" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="16"/>
-      <c r="BD16" s="16"/>
-      <c r="BE16" s="16"/>
-      <c r="BF16" s="16"/>
-      <c r="BG16" s="16"/>
-      <c r="BH16" s="16"/>
-      <c r="BI16" s="16"/>
-      <c r="BJ16" s="16"/>
-      <c r="BK16" s="16"/>
-      <c r="BL16" s="16"/>
-      <c r="BM16" s="16"/>
-      <c r="BN16" s="16"/>
-      <c r="BO16" s="16"/>
-      <c r="BP16" s="16"/>
-      <c r="BQ16" s="16"/>
-      <c r="BR16" s="16"/>
-      <c r="BS16" s="16"/>
-      <c r="BT16" s="16"/>
-      <c r="BU16" s="16"/>
-      <c r="BV16" s="16"/>
-      <c r="BW16" s="16"/>
-      <c r="BX16" s="16"/>
-      <c r="BY16" s="16"/>
-      <c r="BZ16" s="16"/>
-      <c r="CA16" s="16"/>
-      <c r="CB16" s="16"/>
-      <c r="CC16" s="16"/>
-      <c r="CD16" s="16"/>
-      <c r="CE16" s="16"/>
-      <c r="CF16" s="16"/>
-      <c r="CG16" s="16"/>
-      <c r="CH16" s="16"/>
-      <c r="CI16" s="16"/>
-      <c r="CJ16" s="6"/>
-    </row>
-    <row r="17" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
-      <c r="BF17" s="16"/>
-      <c r="BG17" s="16"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16"/>
-      <c r="BJ17" s="16"/>
-      <c r="BK17" s="16"/>
-      <c r="BL17" s="16"/>
-      <c r="BM17" s="16"/>
-      <c r="BN17" s="16"/>
-      <c r="BO17" s="16"/>
-      <c r="BP17" s="16"/>
-      <c r="BQ17" s="16"/>
-      <c r="BR17" s="16"/>
-      <c r="BS17" s="16"/>
-      <c r="BT17" s="16"/>
-      <c r="BU17" s="16"/>
-      <c r="BV17" s="16"/>
-      <c r="BW17" s="16"/>
-      <c r="BX17" s="16"/>
-      <c r="BY17" s="16"/>
-      <c r="BZ17" s="16"/>
-      <c r="CA17" s="16"/>
-      <c r="CB17" s="16"/>
-      <c r="CC17" s="16"/>
-      <c r="CD17" s="16"/>
-      <c r="CE17" s="16"/>
-      <c r="CF17" s="16"/>
-      <c r="CG17" s="16"/>
-      <c r="CH17" s="16"/>
-      <c r="CI17" s="16"/>
-      <c r="CJ17" s="6"/>
-    </row>
-    <row r="18" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
-      <c r="BF18" s="16"/>
-      <c r="BG18" s="16"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="16"/>
-      <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-      <c r="BL18" s="16"/>
-      <c r="BM18" s="16"/>
-      <c r="BN18" s="16"/>
-      <c r="BO18" s="16"/>
-      <c r="BP18" s="16"/>
-      <c r="BQ18" s="16"/>
-      <c r="BR18" s="16"/>
-      <c r="BS18" s="16"/>
-      <c r="BT18" s="16"/>
-      <c r="BU18" s="16"/>
-      <c r="BV18" s="16"/>
-      <c r="BW18" s="16"/>
-      <c r="BX18" s="16"/>
-      <c r="BY18" s="16"/>
-      <c r="BZ18" s="16"/>
-      <c r="CA18" s="16"/>
-      <c r="CB18" s="16"/>
-      <c r="CC18" s="16"/>
-      <c r="CD18" s="16"/>
-      <c r="CE18" s="16"/>
-      <c r="CF18" s="16"/>
-      <c r="CG18" s="16"/>
-      <c r="CH18" s="16"/>
-      <c r="CI18" s="16"/>
-      <c r="CJ18" s="6"/>
-    </row>
-    <row r="19" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="16"/>
-      <c r="BF19" s="16"/>
-      <c r="BG19" s="16"/>
-      <c r="BH19" s="16"/>
-      <c r="BI19" s="16"/>
-      <c r="BJ19" s="16"/>
-      <c r="BK19" s="16"/>
-      <c r="BL19" s="16"/>
-      <c r="BM19" s="16"/>
-      <c r="BN19" s="16"/>
-      <c r="BO19" s="16"/>
-      <c r="BP19" s="16"/>
-      <c r="BQ19" s="16"/>
-      <c r="BR19" s="16"/>
-      <c r="BS19" s="16"/>
-      <c r="BT19" s="16"/>
-      <c r="BU19" s="16"/>
-      <c r="BV19" s="16"/>
-      <c r="BW19" s="16"/>
-      <c r="BX19" s="16"/>
-      <c r="BY19" s="16"/>
-      <c r="BZ19" s="16"/>
-      <c r="CA19" s="16"/>
-      <c r="CB19" s="16"/>
-      <c r="CC19" s="16"/>
-      <c r="CD19" s="16"/>
-      <c r="CE19" s="16"/>
-      <c r="CF19" s="16"/>
-      <c r="CG19" s="16"/>
-      <c r="CH19" s="16"/>
-      <c r="CI19" s="16"/>
-      <c r="CJ19" s="6"/>
-    </row>
-    <row r="20" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="14">
-        <v>17</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
-      <c r="AZ20" s="16"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="16"/>
-      <c r="BD20" s="16"/>
-      <c r="BE20" s="16"/>
-      <c r="BF20" s="16"/>
-      <c r="BG20" s="16"/>
-      <c r="BH20" s="16"/>
-      <c r="BI20" s="16"/>
-      <c r="BJ20" s="16"/>
-      <c r="BK20" s="16"/>
-      <c r="BL20" s="16"/>
-      <c r="BM20" s="16"/>
-      <c r="BN20" s="16"/>
-      <c r="BO20" s="16"/>
-      <c r="BP20" s="16"/>
-      <c r="BQ20" s="16"/>
-      <c r="BR20" s="16"/>
-      <c r="BS20" s="16"/>
-      <c r="BT20" s="16"/>
-      <c r="BU20" s="16"/>
-      <c r="BV20" s="16"/>
-      <c r="BW20" s="16"/>
-      <c r="BX20" s="16"/>
-      <c r="BY20" s="16"/>
-      <c r="BZ20" s="16"/>
-      <c r="CA20" s="16"/>
-      <c r="CB20" s="16"/>
-      <c r="CC20" s="16"/>
-      <c r="CD20" s="16"/>
-      <c r="CE20" s="16"/>
-      <c r="CF20" s="16"/>
-      <c r="CG20" s="16"/>
-      <c r="CH20" s="16"/>
-      <c r="CI20" s="16"/>
-      <c r="CJ20" s="6"/>
-    </row>
-    <row r="21" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
-        <v>18</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="16"/>
-      <c r="AT21" s="16"/>
-      <c r="AU21" s="16"/>
-      <c r="AV21" s="16"/>
-      <c r="AW21" s="16"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="16"/>
-      <c r="AZ21" s="16"/>
-      <c r="BA21" s="16"/>
-      <c r="BB21" s="16"/>
-      <c r="BC21" s="16"/>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="16"/>
-      <c r="BF21" s="16"/>
-      <c r="BG21" s="16"/>
-      <c r="BH21" s="16"/>
-      <c r="BI21" s="16"/>
-      <c r="BJ21" s="16"/>
-      <c r="BK21" s="16"/>
-      <c r="BL21" s="16"/>
-      <c r="BM21" s="16"/>
-      <c r="BN21" s="16"/>
-      <c r="BO21" s="16"/>
-      <c r="BP21" s="16"/>
-      <c r="BQ21" s="16"/>
-      <c r="BR21" s="16"/>
-      <c r="BS21" s="16"/>
-      <c r="BT21" s="16"/>
-      <c r="BU21" s="16"/>
-      <c r="BV21" s="16"/>
-      <c r="BW21" s="16"/>
-      <c r="BX21" s="16"/>
-      <c r="BY21" s="16"/>
-      <c r="BZ21" s="16"/>
-      <c r="CA21" s="16"/>
-      <c r="CB21" s="16"/>
-      <c r="CC21" s="16"/>
-      <c r="CD21" s="16"/>
-      <c r="CE21" s="16"/>
-      <c r="CF21" s="16"/>
-      <c r="CG21" s="16"/>
-      <c r="CH21" s="16"/>
-      <c r="CI21" s="16"/>
-      <c r="CJ21" s="6"/>
-    </row>
-    <row r="22" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="14">
-        <v>19</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="16"/>
-      <c r="AT22" s="16"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="16"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="16"/>
-      <c r="AZ22" s="16"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="16"/>
-      <c r="BC22" s="16"/>
-      <c r="BD22" s="16"/>
-      <c r="BE22" s="16"/>
-      <c r="BF22" s="16"/>
-      <c r="BG22" s="16"/>
-      <c r="BH22" s="16"/>
-      <c r="BI22" s="16"/>
-      <c r="BJ22" s="16"/>
-      <c r="BK22" s="16"/>
-      <c r="BL22" s="16"/>
-      <c r="BM22" s="16"/>
-      <c r="BN22" s="16"/>
-      <c r="BO22" s="16"/>
-      <c r="BP22" s="16"/>
-      <c r="BQ22" s="16"/>
-      <c r="BR22" s="16"/>
-      <c r="BS22" s="16"/>
-      <c r="BT22" s="16"/>
-      <c r="BU22" s="16"/>
-      <c r="BV22" s="16"/>
-      <c r="BW22" s="16"/>
-      <c r="BX22" s="16"/>
-      <c r="BY22" s="16"/>
-      <c r="BZ22" s="16"/>
-      <c r="CA22" s="16"/>
-      <c r="CB22" s="16"/>
-      <c r="CC22" s="16"/>
-      <c r="CD22" s="16"/>
-      <c r="CE22" s="16"/>
-      <c r="CF22" s="16"/>
-      <c r="CG22" s="16"/>
-      <c r="CH22" s="16"/>
-      <c r="CI22" s="16"/>
-      <c r="CJ22" s="6"/>
-    </row>
-    <row r="23" spans="2:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="27">
-        <v>20</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="29"/>
-      <c r="AT23" s="29"/>
-      <c r="AU23" s="29"/>
-      <c r="AV23" s="29"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="29"/>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="29"/>
-      <c r="BG23" s="29"/>
-      <c r="BH23" s="29"/>
-      <c r="BI23" s="29"/>
-      <c r="BJ23" s="29"/>
-      <c r="BK23" s="29"/>
-      <c r="BL23" s="29"/>
-      <c r="BM23" s="29"/>
-      <c r="BN23" s="29"/>
-      <c r="BO23" s="29"/>
-      <c r="BP23" s="29"/>
-      <c r="BQ23" s="29"/>
-      <c r="BR23" s="29"/>
-      <c r="BS23" s="29"/>
-      <c r="BT23" s="29"/>
-      <c r="BU23" s="29"/>
-      <c r="BV23" s="29"/>
-      <c r="BW23" s="29"/>
-      <c r="BX23" s="29"/>
-      <c r="BY23" s="29"/>
-      <c r="BZ23" s="29"/>
-      <c r="CA23" s="29"/>
-      <c r="CB23" s="29"/>
-      <c r="CC23" s="29"/>
-      <c r="CD23" s="29"/>
-      <c r="CE23" s="29"/>
-      <c r="CF23" s="29"/>
-      <c r="CG23" s="29"/>
-      <c r="CH23" s="29"/>
-      <c r="CI23" s="29"/>
-      <c r="CJ23" s="12"/>
-    </row>
-    <row r="24" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="22"/>
-      <c r="AV24" s="22"/>
-      <c r="AW24" s="22"/>
-      <c r="AX24" s="22"/>
-      <c r="AY24" s="22"/>
-      <c r="AZ24" s="22"/>
-      <c r="BA24" s="22"/>
-      <c r="BB24" s="22"/>
-      <c r="BC24" s="22"/>
-      <c r="BD24" s="22"/>
-      <c r="BE24" s="22"/>
-      <c r="BF24" s="22"/>
-      <c r="BG24" s="22"/>
-      <c r="BH24" s="22"/>
-      <c r="BI24" s="22"/>
-      <c r="BJ24" s="22"/>
-      <c r="BK24" s="22"/>
-      <c r="BL24" s="22"/>
-      <c r="BM24" s="22"/>
-      <c r="BN24" s="22"/>
-      <c r="BO24" s="22"/>
-      <c r="BP24" s="22"/>
-      <c r="BQ24" s="22"/>
-      <c r="BR24" s="22"/>
-      <c r="BS24" s="22"/>
-      <c r="BT24" s="22"/>
-      <c r="BU24" s="22"/>
-      <c r="BV24" s="22"/>
-      <c r="BW24" s="22"/>
-      <c r="BX24" s="22"/>
-      <c r="BY24" s="22"/>
-      <c r="BZ24" s="22"/>
-      <c r="CA24" s="22"/>
-      <c r="CB24" s="22"/>
-      <c r="CC24" s="22"/>
-      <c r="CD24" s="22"/>
-      <c r="CE24" s="22"/>
-      <c r="CF24" s="22"/>
-      <c r="CG24" s="22"/>
-      <c r="CH24" s="22"/>
-      <c r="CI24" s="22"/>
-      <c r="CJ24" s="22"/>
-    </row>
-    <row r="25" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="24"/>
-      <c r="AW25" s="24"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="24"/>
-      <c r="BB25" s="24"/>
-      <c r="BC25" s="24"/>
-      <c r="BD25" s="24"/>
-      <c r="BE25" s="24"/>
-      <c r="BF25" s="24"/>
-      <c r="BG25" s="24"/>
-      <c r="BH25" s="24"/>
-      <c r="BI25" s="24"/>
-      <c r="BJ25" s="24"/>
-      <c r="BK25" s="24"/>
-      <c r="BL25" s="24"/>
-      <c r="BM25" s="24"/>
-      <c r="BN25" s="24"/>
-      <c r="BO25" s="24"/>
-      <c r="BP25" s="24"/>
-      <c r="BQ25" s="24"/>
-      <c r="BR25" s="24"/>
-      <c r="BS25" s="24"/>
-      <c r="BT25" s="24"/>
-      <c r="BU25" s="24"/>
-      <c r="BV25" s="24"/>
-      <c r="BW25" s="24"/>
-      <c r="BX25" s="24"/>
-      <c r="BY25" s="24"/>
-      <c r="BZ25" s="24"/>
-      <c r="CA25" s="24"/>
-      <c r="CB25" s="24"/>
-      <c r="CC25" s="24"/>
-      <c r="CD25" s="24"/>
-      <c r="CE25" s="24"/>
-      <c r="CF25" s="24"/>
-      <c r="CG25" s="24"/>
-      <c r="CH25" s="24"/>
-      <c r="CI25" s="24"/>
-      <c r="CJ25" s="24"/>
-    </row>
-    <row r="26" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="24"/>
-      <c r="BF26" s="24"/>
-      <c r="BG26" s="24"/>
-      <c r="BH26" s="24"/>
-      <c r="BI26" s="24"/>
-      <c r="BJ26" s="24"/>
-      <c r="BK26" s="24"/>
-      <c r="BL26" s="24"/>
-      <c r="BM26" s="24"/>
-      <c r="BN26" s="24"/>
-      <c r="BO26" s="24"/>
-      <c r="BP26" s="24"/>
-      <c r="BQ26" s="24"/>
-      <c r="BR26" s="24"/>
-      <c r="BS26" s="24"/>
-      <c r="BT26" s="24"/>
-      <c r="BU26" s="24"/>
-      <c r="BV26" s="24"/>
-      <c r="BW26" s="24"/>
-      <c r="BX26" s="24"/>
-      <c r="BY26" s="24"/>
-      <c r="BZ26" s="24"/>
-      <c r="CA26" s="24"/>
-      <c r="CB26" s="24"/>
-      <c r="CC26" s="24"/>
-      <c r="CD26" s="24"/>
-      <c r="CE26" s="24"/>
-      <c r="CF26" s="24"/>
-      <c r="CG26" s="24"/>
-      <c r="CH26" s="24"/>
-      <c r="CI26" s="24"/>
-      <c r="CJ26" s="24"/>
-    </row>
-    <row r="27" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="24"/>
-      <c r="AR27" s="24"/>
-      <c r="AS27" s="24"/>
-      <c r="AT27" s="24"/>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="24"/>
-      <c r="AX27" s="24"/>
-      <c r="AY27" s="24"/>
-      <c r="AZ27" s="24"/>
-      <c r="BA27" s="24"/>
-      <c r="BB27" s="24"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="24"/>
-      <c r="BE27" s="24"/>
-      <c r="BF27" s="24"/>
-      <c r="BG27" s="24"/>
-      <c r="BH27" s="24"/>
-      <c r="BI27" s="24"/>
-      <c r="BJ27" s="24"/>
-      <c r="BK27" s="24"/>
-      <c r="BL27" s="24"/>
-      <c r="BM27" s="24"/>
-      <c r="BN27" s="24"/>
-      <c r="BO27" s="24"/>
-      <c r="BP27" s="24"/>
-      <c r="BQ27" s="24"/>
-      <c r="BR27" s="24"/>
-      <c r="BS27" s="24"/>
-      <c r="BT27" s="24"/>
-      <c r="BU27" s="24"/>
-      <c r="BV27" s="24"/>
-      <c r="BW27" s="24"/>
-      <c r="BX27" s="24"/>
-      <c r="BY27" s="24"/>
-      <c r="BZ27" s="24"/>
-      <c r="CA27" s="24"/>
-      <c r="CB27" s="24"/>
-      <c r="CC27" s="24"/>
-      <c r="CD27" s="24"/>
-      <c r="CE27" s="24"/>
-      <c r="CF27" s="24"/>
-      <c r="CG27" s="24"/>
-      <c r="CH27" s="24"/>
-      <c r="CI27" s="24"/>
-      <c r="CJ27" s="24"/>
-    </row>
-    <row r="28" spans="2:88" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="24"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="24"/>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="24"/>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="24"/>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="24"/>
-      <c r="BJ28" s="24"/>
-      <c r="BK28" s="24"/>
-      <c r="BL28" s="24"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="24"/>
-      <c r="BO28" s="24"/>
-      <c r="BP28" s="24"/>
-      <c r="BQ28" s="24"/>
-      <c r="BR28" s="24"/>
-      <c r="BS28" s="24"/>
-      <c r="BT28" s="24"/>
-      <c r="BU28" s="24"/>
-      <c r="BV28" s="24"/>
-      <c r="BW28" s="24"/>
-      <c r="BX28" s="24"/>
-      <c r="BY28" s="24"/>
-      <c r="BZ28" s="24"/>
-      <c r="CA28" s="24"/>
-      <c r="CB28" s="24"/>
-      <c r="CC28" s="24"/>
-      <c r="CD28" s="24"/>
-      <c r="CE28" s="24"/>
-      <c r="CF28" s="24"/>
-      <c r="CG28" s="24"/>
-      <c r="CH28" s="24"/>
-      <c r="CI28" s="24"/>
-      <c r="CJ28" s="24"/>
-    </row>
-    <row r="29" spans="2:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="26"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="26"/>
-      <c r="BD29" s="26"/>
-      <c r="BE29" s="26"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="26"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
-      <c r="BL29" s="26"/>
-      <c r="BM29" s="26"/>
-      <c r="BN29" s="26"/>
-      <c r="BO29" s="26"/>
-      <c r="BP29" s="26"/>
-      <c r="BQ29" s="26"/>
-      <c r="BR29" s="26"/>
-      <c r="BS29" s="26"/>
-      <c r="BT29" s="26"/>
-      <c r="BU29" s="26"/>
-      <c r="BV29" s="26"/>
-      <c r="BW29" s="26"/>
-      <c r="BX29" s="26"/>
-      <c r="BY29" s="26"/>
-      <c r="BZ29" s="26"/>
-      <c r="CA29" s="26"/>
-      <c r="CB29" s="26"/>
-      <c r="CC29" s="26"/>
-      <c r="CD29" s="26"/>
-      <c r="CE29" s="26"/>
-      <c r="CF29" s="26"/>
-      <c r="CG29" s="26"/>
-      <c r="CH29" s="26"/>
-      <c r="CI29" s="26"/>
-      <c r="CJ29" s="26"/>
-    </row>
-    <row r="30" spans="2:88" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:87" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="89">
     <mergeCell ref="BX1:CA1"/>
@@ -5872,7 +5808,7 @@
     <mergeCell ref="Y12:AR12"/>
     <mergeCell ref="AS12:CI12"/>
     <mergeCell ref="Y11:AR11"/>
-    <mergeCell ref="B24:CJ29"/>
+    <mergeCell ref="B24:CI29"/>
     <mergeCell ref="E20:X20"/>
     <mergeCell ref="AS21:CI21"/>
     <mergeCell ref="B22:D22"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF65313-57CF-405B-B717-EBB3AA8837F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461EBCD7-A31C-4611-BB49-31872225BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>システム名</t>
   </si>
@@ -151,13 +151,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラーページ(問題内容）</t>
-    <rPh sb="7" eb="11">
-      <t>モンダイナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>点数表示ページ</t>
     <rPh sb="0" eb="2">
       <t>テンスウ</t>
@@ -177,31 +170,6 @@
       <t>テンスウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題内容にエラー(空欄で提出など）　javascrpit等フロント側でエラー表示</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -249,32 +217,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題内容表示　ラジオボタンで選択　下に提出ボタン有</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>アリ</t>
-    </rPh>
+    <t>error</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>error</t>
+    <t>ラジオボタンで選択　下に提出ボタン有 javascrpit等フロント側でエラー表示</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -349,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -645,19 +604,6 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -703,7 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -751,7 +697,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,13 +715,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,15 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1212,118 +1146,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI30"/>
+  <dimension ref="A1:AMI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:AR7"/>
+      <selection activeCell="CN11" sqref="CN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0.6640625" style="2"/>
-    <col min="2" max="87" width="1.6640625" style="2"/>
+    <col min="2" max="4" width="1.6640625" style="2"/>
+    <col min="5" max="5" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="87" width="1.6640625" style="2"/>
     <col min="88" max="1023" width="9" style="2"/>
     <col min="1024" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="51" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="52" t="s">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BW1" s="53"/>
-      <c r="BX1" s="40" t="s">
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="41"/>
-      <c r="CC1" s="41"/>
-      <c r="CD1" s="41"/>
-      <c r="CE1" s="41"/>
-      <c r="CF1" s="41"/>
-      <c r="CG1" s="41"/>
-      <c r="CH1" s="41"/>
-      <c r="CI1" s="41"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2262,102 +2198,102 @@
     </row>
     <row r="2" spans="1:1022" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="45" t="s">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="47" t="s">
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="41"/>
+      <c r="BO2" s="41"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
+      <c r="BR2" s="42"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="42"/>
+      <c r="BU2" s="42"/>
+      <c r="BV2" s="42"/>
+      <c r="BW2" s="42"/>
+      <c r="BX2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="47"/>
-      <c r="BZ2" s="47"/>
-      <c r="CA2" s="47"/>
-      <c r="CB2" s="48"/>
-      <c r="CC2" s="48"/>
-      <c r="CD2" s="48"/>
-      <c r="CE2" s="48"/>
-      <c r="CF2" s="48"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="48"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3383,100 +3319,100 @@
       <c r="CI3" s="5"/>
     </row>
     <row r="4" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="39" t="s">
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35"/>
     </row>
     <row r="5" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10">
@@ -3484,95 +3420,95 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="36" t="s">
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
-      <c r="BZ5" s="36"/>
-      <c r="CA5" s="36"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="36"/>
-      <c r="CF5" s="36"/>
-      <c r="CG5" s="36"/>
-      <c r="CH5" s="36"/>
-      <c r="CI5" s="36"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="32"/>
     </row>
     <row r="6" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
@@ -3580,95 +3516,95 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35" t="s">
-        <v>31</v>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31" t="s">
+        <v>28</v>
       </c>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="36" t="s">
-        <v>27</v>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32" t="s">
+        <v>25</v>
       </c>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36"/>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="36"/>
-      <c r="CF6" s="36"/>
-      <c r="CG6" s="36"/>
-      <c r="CH6" s="36"/>
-      <c r="CI6" s="36"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="32"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="32"/>
+      <c r="CB6" s="32"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
+      <c r="CE6" s="32"/>
+      <c r="CF6" s="32"/>
+      <c r="CG6" s="32"/>
+      <c r="CH6" s="32"/>
+      <c r="CI6" s="32"/>
     </row>
     <row r="7" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10">
@@ -3721,7 +3657,7 @@
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" s="12"/>
       <c r="AU7" s="12"/>
@@ -3772,95 +3708,95 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="32" t="s">
-        <v>17</v>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="11" t="s">
+        <v>23</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="12" t="s">
-        <v>26</v>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="13" t="s">
+        <v>24</v>
       </c>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="12"/>
-      <c r="BQ8" s="12"/>
-      <c r="BR8" s="12"/>
-      <c r="BS8" s="12"/>
-      <c r="BT8" s="12"/>
-      <c r="BU8" s="12"/>
-      <c r="BV8" s="12"/>
-      <c r="BW8" s="12"/>
-      <c r="BX8" s="12"/>
-      <c r="BY8" s="12"/>
-      <c r="BZ8" s="12"/>
-      <c r="CA8" s="12"/>
-      <c r="CB8" s="12"/>
-      <c r="CC8" s="12"/>
-      <c r="CD8" s="12"/>
-      <c r="CE8" s="12"/>
-      <c r="CF8" s="12"/>
-      <c r="CG8" s="12"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="12"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="16"/>
     </row>
     <row r="9" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
@@ -3869,7 +3805,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -3891,7 +3827,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
@@ -3913,7 +3849,7 @@
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
       <c r="AS9" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT9" s="14"/>
       <c r="AU9" s="14"/>
@@ -3964,95 +3900,91 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="13" t="s">
-        <v>29</v>
+      <c r="E10" s="11">
+        <v>1</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="14"/>
-      <c r="BF10" s="14"/>
-      <c r="BG10" s="14"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="14"/>
-      <c r="BK10" s="14"/>
-      <c r="BL10" s="14"/>
-      <c r="BM10" s="14"/>
-      <c r="BN10" s="14"/>
-      <c r="BO10" s="14"/>
-      <c r="BP10" s="14"/>
-      <c r="BQ10" s="14"/>
-      <c r="BR10" s="14"/>
-      <c r="BS10" s="14"/>
-      <c r="BT10" s="14"/>
-      <c r="BU10" s="14"/>
-      <c r="BV10" s="14"/>
-      <c r="BW10" s="14"/>
-      <c r="BX10" s="14"/>
-      <c r="BY10" s="14"/>
-      <c r="BZ10" s="14"/>
-      <c r="CA10" s="14"/>
-      <c r="CB10" s="14"/>
-      <c r="CC10" s="14"/>
-      <c r="CD10" s="14"/>
-      <c r="CE10" s="14"/>
-      <c r="CF10" s="14"/>
-      <c r="CG10" s="14"/>
-      <c r="CH10" s="14"/>
-      <c r="CI10" s="16"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="26"/>
+      <c r="BL10" s="26"/>
+      <c r="BM10" s="26"/>
+      <c r="BN10" s="26"/>
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="26"/>
+      <c r="BQ10" s="26"/>
+      <c r="BR10" s="26"/>
+      <c r="BS10" s="26"/>
+      <c r="BT10" s="26"/>
+      <c r="BU10" s="26"/>
+      <c r="BV10" s="26"/>
+      <c r="BW10" s="26"/>
+      <c r="BX10" s="26"/>
+      <c r="BY10" s="26"/>
+      <c r="BZ10" s="26"/>
+      <c r="CA10" s="26"/>
+      <c r="CB10" s="26"/>
+      <c r="CC10" s="26"/>
+      <c r="CD10" s="26"/>
+      <c r="CE10" s="26"/>
+      <c r="CF10" s="26"/>
+      <c r="CG10" s="26"/>
+      <c r="CH10" s="26"/>
+      <c r="CI10" s="27"/>
     </row>
     <row r="11" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="10">
@@ -4060,89 +3992,91 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="27"/>
-      <c r="BC11" s="27"/>
-      <c r="BD11" s="27"/>
-      <c r="BE11" s="27"/>
-      <c r="BF11" s="27"/>
-      <c r="BG11" s="27"/>
-      <c r="BH11" s="27"/>
-      <c r="BI11" s="27"/>
-      <c r="BJ11" s="27"/>
-      <c r="BK11" s="27"/>
-      <c r="BL11" s="27"/>
-      <c r="BM11" s="27"/>
-      <c r="BN11" s="27"/>
-      <c r="BO11" s="27"/>
-      <c r="BP11" s="27"/>
-      <c r="BQ11" s="27"/>
-      <c r="BR11" s="27"/>
-      <c r="BS11" s="27"/>
-      <c r="BT11" s="27"/>
-      <c r="BU11" s="27"/>
-      <c r="BV11" s="27"/>
-      <c r="BW11" s="27"/>
-      <c r="BX11" s="27"/>
-      <c r="BY11" s="27"/>
-      <c r="BZ11" s="27"/>
-      <c r="CA11" s="27"/>
-      <c r="CB11" s="27"/>
-      <c r="CC11" s="27"/>
-      <c r="CD11" s="27"/>
-      <c r="CE11" s="27"/>
-      <c r="CF11" s="27"/>
-      <c r="CG11" s="27"/>
-      <c r="CH11" s="27"/>
-      <c r="CI11" s="28"/>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="14"/>
+      <c r="BM11" s="14"/>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BP11" s="14"/>
+      <c r="BQ11" s="14"/>
+      <c r="BR11" s="14"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
+      <c r="BU11" s="14"/>
+      <c r="BV11" s="14"/>
+      <c r="BW11" s="14"/>
+      <c r="BX11" s="14"/>
+      <c r="BY11" s="14"/>
+      <c r="BZ11" s="14"/>
+      <c r="CA11" s="14"/>
+      <c r="CB11" s="14"/>
+      <c r="CC11" s="14"/>
+      <c r="CD11" s="14"/>
+      <c r="CE11" s="14"/>
+      <c r="CF11" s="14"/>
+      <c r="CG11" s="14"/>
+      <c r="CH11" s="14"/>
+      <c r="CI11" s="16"/>
     </row>
     <row r="12" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="10">
@@ -4150,89 +4084,91 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="14"/>
-      <c r="BK12" s="14"/>
-      <c r="BL12" s="14"/>
-      <c r="BM12" s="14"/>
-      <c r="BN12" s="14"/>
-      <c r="BO12" s="14"/>
-      <c r="BP12" s="14"/>
-      <c r="BQ12" s="14"/>
-      <c r="BR12" s="14"/>
-      <c r="BS12" s="14"/>
-      <c r="BT12" s="14"/>
-      <c r="BU12" s="14"/>
-      <c r="BV12" s="14"/>
-      <c r="BW12" s="14"/>
-      <c r="BX12" s="14"/>
-      <c r="BY12" s="14"/>
-      <c r="BZ12" s="14"/>
-      <c r="CA12" s="14"/>
-      <c r="CB12" s="14"/>
-      <c r="CC12" s="14"/>
-      <c r="CD12" s="14"/>
-      <c r="CE12" s="14"/>
-      <c r="CF12" s="14"/>
-      <c r="CG12" s="14"/>
-      <c r="CH12" s="14"/>
-      <c r="CI12" s="16"/>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="7"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="7"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="7"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="7"/>
+      <c r="CC12" s="7"/>
+      <c r="CD12" s="7"/>
+      <c r="CE12" s="7"/>
+      <c r="CF12" s="7"/>
+      <c r="CG12" s="7"/>
+      <c r="CH12" s="7"/>
+      <c r="CI12" s="9"/>
     </row>
     <row r="13" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="10">
@@ -4330,89 +4266,89 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="7"/>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
-      <c r="BJ14" s="7"/>
-      <c r="BK14" s="7"/>
-      <c r="BL14" s="7"/>
-      <c r="BM14" s="7"/>
-      <c r="BN14" s="7"/>
-      <c r="BO14" s="7"/>
-      <c r="BP14" s="7"/>
-      <c r="BQ14" s="7"/>
-      <c r="BR14" s="7"/>
-      <c r="BS14" s="7"/>
-      <c r="BT14" s="7"/>
-      <c r="BU14" s="7"/>
-      <c r="BV14" s="7"/>
-      <c r="BW14" s="7"/>
-      <c r="BX14" s="7"/>
-      <c r="BY14" s="7"/>
-      <c r="BZ14" s="7"/>
-      <c r="CA14" s="7"/>
-      <c r="CB14" s="7"/>
-      <c r="CC14" s="7"/>
-      <c r="CD14" s="7"/>
-      <c r="CE14" s="7"/>
-      <c r="CF14" s="7"/>
-      <c r="CG14" s="7"/>
-      <c r="CH14" s="7"/>
-      <c r="CI14" s="9"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="14"/>
+      <c r="BR14" s="14"/>
+      <c r="BS14" s="14"/>
+      <c r="BT14" s="14"/>
+      <c r="BU14" s="14"/>
+      <c r="BV14" s="14"/>
+      <c r="BW14" s="14"/>
+      <c r="BX14" s="14"/>
+      <c r="BY14" s="14"/>
+      <c r="BZ14" s="14"/>
+      <c r="CA14" s="14"/>
+      <c r="CB14" s="14"/>
+      <c r="CC14" s="14"/>
+      <c r="CD14" s="14"/>
+      <c r="CE14" s="14"/>
+      <c r="CF14" s="14"/>
+      <c r="CG14" s="14"/>
+      <c r="CH14" s="14"/>
+      <c r="CI14" s="16"/>
     </row>
     <row r="15" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="10">
@@ -4420,93 +4356,93 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="14"/>
-      <c r="BR15" s="14"/>
-      <c r="BS15" s="14"/>
-      <c r="BT15" s="14"/>
-      <c r="BU15" s="14"/>
-      <c r="BV15" s="14"/>
-      <c r="BW15" s="14"/>
-      <c r="BX15" s="14"/>
-      <c r="BY15" s="14"/>
-      <c r="BZ15" s="14"/>
-      <c r="CA15" s="14"/>
-      <c r="CB15" s="14"/>
-      <c r="CC15" s="14"/>
-      <c r="CD15" s="14"/>
-      <c r="CE15" s="14"/>
-      <c r="CF15" s="14"/>
-      <c r="CG15" s="14"/>
-      <c r="CH15" s="14"/>
-      <c r="CI15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12"/>
+      <c r="BP15" s="12"/>
+      <c r="BQ15" s="12"/>
+      <c r="BR15" s="12"/>
+      <c r="BS15" s="12"/>
+      <c r="BT15" s="12"/>
+      <c r="BU15" s="12"/>
+      <c r="BV15" s="12"/>
+      <c r="BW15" s="12"/>
+      <c r="BX15" s="12"/>
+      <c r="BY15" s="12"/>
+      <c r="BZ15" s="12"/>
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="12"/>
+      <c r="CC15" s="12"/>
+      <c r="CD15" s="12"/>
+      <c r="CE15" s="12"/>
+      <c r="CF15" s="12"/>
+      <c r="CG15" s="12"/>
+      <c r="CH15" s="12"/>
+      <c r="CI15" s="12"/>
     </row>
     <row r="16" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -4596,7 +4532,7 @@
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4686,7 +4622,7 @@
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -4776,7 +4712,7 @@
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4866,7 +4802,7 @@
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -4956,7 +4892,7 @@
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -5044,275 +4980,273 @@
       <c r="CH21" s="12"/>
       <c r="CI21" s="12"/>
     </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="12"/>
-      <c r="BB22" s="12"/>
-      <c r="BC22" s="12"/>
-      <c r="BD22" s="12"/>
-      <c r="BE22" s="12"/>
-      <c r="BF22" s="12"/>
-      <c r="BG22" s="12"/>
-      <c r="BH22" s="12"/>
-      <c r="BI22" s="12"/>
-      <c r="BJ22" s="12"/>
-      <c r="BK22" s="12"/>
-      <c r="BL22" s="12"/>
-      <c r="BM22" s="12"/>
-      <c r="BN22" s="12"/>
-      <c r="BO22" s="12"/>
-      <c r="BP22" s="12"/>
-      <c r="BQ22" s="12"/>
-      <c r="BR22" s="12"/>
-      <c r="BS22" s="12"/>
-      <c r="BT22" s="12"/>
-      <c r="BU22" s="12"/>
-      <c r="BV22" s="12"/>
-      <c r="BW22" s="12"/>
-      <c r="BX22" s="12"/>
-      <c r="BY22" s="12"/>
-      <c r="BZ22" s="12"/>
-      <c r="CA22" s="12"/>
-      <c r="CB22" s="12"/>
-      <c r="CC22" s="12"/>
-      <c r="CD22" s="12"/>
-      <c r="CE22" s="12"/>
-      <c r="CF22" s="12"/>
-      <c r="CG22" s="12"/>
-      <c r="CH22" s="12"/>
-      <c r="CI22" s="12"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="24"/>
+      <c r="BG22" s="24"/>
+      <c r="BH22" s="24"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="24"/>
+      <c r="BK22" s="24"/>
+      <c r="BL22" s="24"/>
+      <c r="BM22" s="24"/>
+      <c r="BN22" s="24"/>
+      <c r="BO22" s="24"/>
+      <c r="BP22" s="24"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="24"/>
+      <c r="BS22" s="24"/>
+      <c r="BT22" s="24"/>
+      <c r="BU22" s="24"/>
+      <c r="BV22" s="24"/>
+      <c r="BW22" s="24"/>
+      <c r="BX22" s="24"/>
+      <c r="BY22" s="24"/>
+      <c r="BZ22" s="24"/>
+      <c r="CA22" s="24"/>
+      <c r="CB22" s="24"/>
+      <c r="CC22" s="24"/>
+      <c r="CD22" s="24"/>
+      <c r="CE22" s="24"/>
+      <c r="CF22" s="24"/>
+      <c r="CG22" s="24"/>
+      <c r="CH22" s="24"/>
+      <c r="CI22" s="24"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="23">
-        <v>20</v>
+    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="17" t="s">
+        <v>16</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="25"/>
-      <c r="AY23" s="25"/>
-      <c r="AZ23" s="25"/>
-      <c r="BA23" s="25"/>
-      <c r="BB23" s="25"/>
-      <c r="BC23" s="25"/>
-      <c r="BD23" s="25"/>
-      <c r="BE23" s="25"/>
-      <c r="BF23" s="25"/>
-      <c r="BG23" s="25"/>
-      <c r="BH23" s="25"/>
-      <c r="BI23" s="25"/>
-      <c r="BJ23" s="25"/>
-      <c r="BK23" s="25"/>
-      <c r="BL23" s="25"/>
-      <c r="BM23" s="25"/>
-      <c r="BN23" s="25"/>
-      <c r="BO23" s="25"/>
-      <c r="BP23" s="25"/>
-      <c r="BQ23" s="25"/>
-      <c r="BR23" s="25"/>
-      <c r="BS23" s="25"/>
-      <c r="BT23" s="25"/>
-      <c r="BU23" s="25"/>
-      <c r="BV23" s="25"/>
-      <c r="BW23" s="25"/>
-      <c r="BX23" s="25"/>
-      <c r="BY23" s="25"/>
-      <c r="BZ23" s="25"/>
-      <c r="CA23" s="25"/>
-      <c r="CB23" s="25"/>
-      <c r="CC23" s="25"/>
-      <c r="CD23" s="25"/>
-      <c r="CE23" s="25"/>
-      <c r="CF23" s="25"/>
-      <c r="CG23" s="25"/>
-      <c r="CH23" s="25"/>
-      <c r="CI23" s="25"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="18"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="18"/>
+      <c r="BJ23" s="18"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="18"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="18"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="18"/>
+      <c r="BR23" s="18"/>
+      <c r="BS23" s="18"/>
+      <c r="BT23" s="18"/>
+      <c r="BU23" s="18"/>
+      <c r="BV23" s="18"/>
+      <c r="BW23" s="18"/>
+      <c r="BX23" s="18"/>
+      <c r="BY23" s="18"/>
+      <c r="BZ23" s="18"/>
+      <c r="CA23" s="18"/>
+      <c r="CB23" s="18"/>
+      <c r="CC23" s="18"/>
+      <c r="CD23" s="18"/>
+      <c r="CE23" s="18"/>
+      <c r="CF23" s="18"/>
+      <c r="CG23" s="18"/>
+      <c r="CH23" s="18"/>
+      <c r="CI23" s="18"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="18"/>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="18"/>
-      <c r="AT24" s="18"/>
-      <c r="AU24" s="18"/>
-      <c r="AV24" s="18"/>
-      <c r="AW24" s="18"/>
-      <c r="AX24" s="18"/>
-      <c r="AY24" s="18"/>
-      <c r="AZ24" s="18"/>
-      <c r="BA24" s="18"/>
-      <c r="BB24" s="18"/>
-      <c r="BC24" s="18"/>
-      <c r="BD24" s="18"/>
-      <c r="BE24" s="18"/>
-      <c r="BF24" s="18"/>
-      <c r="BG24" s="18"/>
-      <c r="BH24" s="18"/>
-      <c r="BI24" s="18"/>
-      <c r="BJ24" s="18"/>
-      <c r="BK24" s="18"/>
-      <c r="BL24" s="18"/>
-      <c r="BM24" s="18"/>
-      <c r="BN24" s="18"/>
-      <c r="BO24" s="18"/>
-      <c r="BP24" s="18"/>
-      <c r="BQ24" s="18"/>
-      <c r="BR24" s="18"/>
-      <c r="BS24" s="18"/>
-      <c r="BT24" s="18"/>
-      <c r="BU24" s="18"/>
-      <c r="BV24" s="18"/>
-      <c r="BW24" s="18"/>
-      <c r="BX24" s="18"/>
-      <c r="BY24" s="18"/>
-      <c r="BZ24" s="18"/>
-      <c r="CA24" s="18"/>
-      <c r="CB24" s="18"/>
-      <c r="CC24" s="18"/>
-      <c r="CD24" s="18"/>
-      <c r="CE24" s="18"/>
-      <c r="CF24" s="18"/>
-      <c r="CG24" s="18"/>
-      <c r="CH24" s="18"/>
-      <c r="CI24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="20"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="20"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="BZ24" s="20"/>
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+      <c r="CC24" s="20"/>
+      <c r="CD24" s="20"/>
+      <c r="CE24" s="20"/>
+      <c r="CF24" s="20"/>
+      <c r="CG24" s="20"/>
+      <c r="CH24" s="20"/>
+      <c r="CI24" s="20"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="19"/>
@@ -5578,185 +5512,97 @@
       <c r="CH27" s="20"/>
       <c r="CI27" s="20"/>
     </row>
-    <row r="28" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="20"/>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="20"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="20"/>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="20"/>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="20"/>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="20"/>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
-      <c r="BY28" s="20"/>
-      <c r="BZ28" s="20"/>
-      <c r="CA28" s="20"/>
-      <c r="CB28" s="20"/>
-      <c r="CC28" s="20"/>
-      <c r="CD28" s="20"/>
-      <c r="CE28" s="20"/>
-      <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="20"/>
-      <c r="CI28" s="20"/>
+    <row r="28" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="22"/>
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="22"/>
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="22"/>
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="22"/>
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="22"/>
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
+      <c r="CH28" s="22"/>
+      <c r="CI28" s="22"/>
     </row>
-    <row r="29" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
-      <c r="AQ29" s="22"/>
-      <c r="AR29" s="22"/>
-      <c r="AS29" s="22"/>
-      <c r="AT29" s="22"/>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
-      <c r="AW29" s="22"/>
-      <c r="AX29" s="22"/>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
-      <c r="BA29" s="22"/>
-      <c r="BB29" s="22"/>
-      <c r="BC29" s="22"/>
-      <c r="BD29" s="22"/>
-      <c r="BE29" s="22"/>
-      <c r="BF29" s="22"/>
-      <c r="BG29" s="22"/>
-      <c r="BH29" s="22"/>
-      <c r="BI29" s="22"/>
-      <c r="BJ29" s="22"/>
-      <c r="BK29" s="22"/>
-      <c r="BL29" s="22"/>
-      <c r="BM29" s="22"/>
-      <c r="BN29" s="22"/>
-      <c r="BO29" s="22"/>
-      <c r="BP29" s="22"/>
-      <c r="BQ29" s="22"/>
-      <c r="BR29" s="22"/>
-      <c r="BS29" s="22"/>
-      <c r="BT29" s="22"/>
-      <c r="BU29" s="22"/>
-      <c r="BV29" s="22"/>
-      <c r="BW29" s="22"/>
-      <c r="BX29" s="22"/>
-      <c r="BY29" s="22"/>
-      <c r="BZ29" s="22"/>
-      <c r="CA29" s="22"/>
-      <c r="CB29" s="22"/>
-      <c r="CC29" s="22"/>
-      <c r="CD29" s="22"/>
-      <c r="CE29" s="22"/>
-      <c r="CF29" s="22"/>
-      <c r="CG29" s="22"/>
-      <c r="CH29" s="22"/>
-      <c r="CI29" s="22"/>
-    </row>
-    <row r="30" spans="2:87" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:87" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="85">
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
@@ -5786,51 +5632,51 @@
     <mergeCell ref="E7:X7"/>
     <mergeCell ref="Y7:AR7"/>
     <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AR8"/>
     <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:X9"/>
     <mergeCell ref="Y9:AR9"/>
     <mergeCell ref="AS9:CI9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AR10"/>
     <mergeCell ref="AS10:CI10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y8:AR8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AR11"/>
     <mergeCell ref="AS11:CI11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AR12"/>
-    <mergeCell ref="AS12:CI12"/>
-    <mergeCell ref="Y11:AR11"/>
-    <mergeCell ref="B24:CI29"/>
+    <mergeCell ref="Y10:AR10"/>
+    <mergeCell ref="B23:CI28"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="AS20:CI20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AR21"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:X20"/>
-    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="Y20:AR20"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:X22"/>
     <mergeCell ref="Y22:AR22"/>
     <mergeCell ref="AS22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AR23"/>
-    <mergeCell ref="AS23:CI23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="AS15:CI15"/>
+    <mergeCell ref="Y15:AR15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AR14"/>
+    <mergeCell ref="AS14:CI14"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AR16"/>
     <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AR15"/>
-    <mergeCell ref="AS15:CI15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:X17"/>
     <mergeCell ref="Y17:AR17"/>
@@ -5840,12 +5686,8 @@
     <mergeCell ref="Y18:AR18"/>
     <mergeCell ref="AS18:CI18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="AS19:CI19"/>
     <mergeCell ref="Y19:AR19"/>
-    <mergeCell ref="AS19:CI19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="AS20:CI20"/>
-    <mergeCell ref="Y20:AR20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461EBCD7-A31C-4611-BB49-31872225BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797A7B7-FA8E-4DC5-8A51-909DBAFB8763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,84 +676,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -795,6 +717,84 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:AMI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CN11" sqref="CN11"/>
+      <selection activeCell="Y6" sqref="Y6:AR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1164,102 +1164,102 @@
   <sheetData>
     <row r="1" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="47" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="48" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="36" t="s">
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="37"/>
-      <c r="CC1" s="37"/>
-      <c r="CD1" s="37"/>
-      <c r="CE1" s="37"/>
-      <c r="CF1" s="37"/>
-      <c r="CG1" s="37"/>
-      <c r="CH1" s="37"/>
-      <c r="CI1" s="37"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2198,102 +2198,102 @@
     </row>
     <row r="2" spans="1:1022" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="41" t="s">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="42"/>
-      <c r="BR2" s="42"/>
-      <c r="BS2" s="42"/>
-      <c r="BT2" s="42"/>
-      <c r="BU2" s="42"/>
-      <c r="BV2" s="42"/>
-      <c r="BW2" s="42"/>
-      <c r="BX2" s="43" t="s">
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="44"/>
-      <c r="CC2" s="44"/>
-      <c r="CD2" s="44"/>
-      <c r="CE2" s="44"/>
-      <c r="CF2" s="44"/>
-      <c r="CG2" s="44"/>
-      <c r="CH2" s="44"/>
-      <c r="CI2" s="44"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="18"/>
+      <c r="CI2" s="18"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3319,774 +3319,768 @@
       <c r="CI3" s="5"/>
     </row>
     <row r="4" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="35" t="s">
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="29"/>
+      <c r="BL4" s="29"/>
+      <c r="BM4" s="29"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="29"/>
+      <c r="BP4" s="29"/>
+      <c r="BQ4" s="29"/>
+      <c r="BR4" s="29"/>
+      <c r="BS4" s="29"/>
+      <c r="BT4" s="29"/>
+      <c r="BU4" s="29"/>
+      <c r="BV4" s="29"/>
+      <c r="BW4" s="29"/>
+      <c r="BX4" s="29"/>
+      <c r="BY4" s="29"/>
+      <c r="BZ4" s="29"/>
+      <c r="CA4" s="29"/>
+      <c r="CB4" s="29"/>
+      <c r="CC4" s="29"/>
+      <c r="CD4" s="29"/>
+      <c r="CE4" s="29"/>
+      <c r="CF4" s="29"/>
+      <c r="CG4" s="29"/>
+      <c r="CH4" s="29"/>
+      <c r="CI4" s="29"/>
     </row>
     <row r="5" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="32" t="s">
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="32"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="26"/>
+      <c r="BH5" s="26"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="26"/>
+      <c r="BL5" s="26"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="26"/>
+      <c r="BO5" s="26"/>
+      <c r="BP5" s="26"/>
+      <c r="BQ5" s="26"/>
+      <c r="BR5" s="26"/>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="26"/>
+      <c r="BU5" s="26"/>
+      <c r="BV5" s="26"/>
+      <c r="BW5" s="26"/>
+      <c r="BX5" s="26"/>
+      <c r="BY5" s="26"/>
+      <c r="BZ5" s="26"/>
+      <c r="CA5" s="26"/>
+      <c r="CB5" s="26"/>
+      <c r="CC5" s="26"/>
+      <c r="CD5" s="26"/>
+      <c r="CE5" s="26"/>
+      <c r="CF5" s="26"/>
+      <c r="CG5" s="26"/>
+      <c r="CH5" s="26"/>
+      <c r="CI5" s="26"/>
     </row>
     <row r="6" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32" t="s">
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="32"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="32"/>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="32"/>
-      <c r="CA6" s="32"/>
-      <c r="CB6" s="32"/>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="32"/>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="32"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="26"/>
+      <c r="BE6" s="26"/>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="26"/>
+      <c r="BH6" s="26"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="26"/>
+      <c r="BK6" s="26"/>
+      <c r="BL6" s="26"/>
+      <c r="BM6" s="26"/>
+      <c r="BN6" s="26"/>
+      <c r="BO6" s="26"/>
+      <c r="BP6" s="26"/>
+      <c r="BQ6" s="26"/>
+      <c r="BR6" s="26"/>
+      <c r="BS6" s="26"/>
+      <c r="BT6" s="26"/>
+      <c r="BU6" s="26"/>
+      <c r="BV6" s="26"/>
+      <c r="BW6" s="26"/>
+      <c r="BX6" s="26"/>
+      <c r="BY6" s="26"/>
+      <c r="BZ6" s="26"/>
+      <c r="CA6" s="26"/>
+      <c r="CB6" s="26"/>
+      <c r="CC6" s="26"/>
+      <c r="CD6" s="26"/>
+      <c r="CE6" s="26"/>
+      <c r="CF6" s="26"/>
+      <c r="CG6" s="26"/>
+      <c r="CH6" s="26"/>
+      <c r="CI6" s="26"/>
     </row>
     <row r="7" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+      <c r="B7" s="24">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="12" t="s">
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-      <c r="BM7" s="12"/>
-      <c r="BN7" s="12"/>
-      <c r="BO7" s="12"/>
-      <c r="BP7" s="12"/>
-      <c r="BQ7" s="12"/>
-      <c r="BR7" s="12"/>
-      <c r="BS7" s="12"/>
-      <c r="BT7" s="12"/>
-      <c r="BU7" s="12"/>
-      <c r="BV7" s="12"/>
-      <c r="BW7" s="12"/>
-      <c r="BX7" s="12"/>
-      <c r="BY7" s="12"/>
-      <c r="BZ7" s="12"/>
-      <c r="CA7" s="12"/>
-      <c r="CB7" s="12"/>
-      <c r="CC7" s="12"/>
-      <c r="CD7" s="12"/>
-      <c r="CE7" s="12"/>
-      <c r="CF7" s="12"/>
-      <c r="CG7" s="12"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="12"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="31"/>
+      <c r="BC7" s="31"/>
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="31"/>
+      <c r="BU7" s="31"/>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="31"/>
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="31"/>
+      <c r="CD7" s="31"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31"/>
+      <c r="CG7" s="31"/>
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="31"/>
     </row>
     <row r="8" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+      <c r="B8" s="24">
         <v>4</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="11" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="13" t="s">
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="14"/>
-      <c r="BR8" s="14"/>
-      <c r="BS8" s="14"/>
-      <c r="BT8" s="14"/>
-      <c r="BU8" s="14"/>
-      <c r="BV8" s="14"/>
-      <c r="BW8" s="14"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="14"/>
-      <c r="BZ8" s="14"/>
-      <c r="CA8" s="14"/>
-      <c r="CB8" s="14"/>
-      <c r="CC8" s="14"/>
-      <c r="CD8" s="14"/>
-      <c r="CE8" s="14"/>
-      <c r="CF8" s="14"/>
-      <c r="CG8" s="14"/>
-      <c r="CH8" s="14"/>
-      <c r="CI8" s="16"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="33"/>
+      <c r="BB8" s="33"/>
+      <c r="BC8" s="33"/>
+      <c r="BD8" s="33"/>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="33"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="33"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="33"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="33"/>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="33"/>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="33"/>
+      <c r="BY8" s="33"/>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="33"/>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="33"/>
+      <c r="CE8" s="33"/>
+      <c r="CF8" s="33"/>
+      <c r="CG8" s="33"/>
+      <c r="CH8" s="33"/>
+      <c r="CI8" s="35"/>
     </row>
     <row r="9" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+      <c r="B9" s="24">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="11" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="13" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14"/>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="14"/>
-      <c r="BR9" s="14"/>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="14"/>
-      <c r="BW9" s="14"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14"/>
-      <c r="CA9" s="14"/>
-      <c r="CB9" s="14"/>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14"/>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="14"/>
-      <c r="CG9" s="14"/>
-      <c r="CH9" s="14"/>
-      <c r="CI9" s="16"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33"/>
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33"/>
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33"/>
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33"/>
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33"/>
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33"/>
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33"/>
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33"/>
+      <c r="CI9" s="35"/>
     </row>
     <row r="10" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="B10" s="24">
         <v>6</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="26"/>
-      <c r="BD10" s="26"/>
-      <c r="BE10" s="26"/>
-      <c r="BF10" s="26"/>
-      <c r="BG10" s="26"/>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10" s="26"/>
-      <c r="BL10" s="26"/>
-      <c r="BM10" s="26"/>
-      <c r="BN10" s="26"/>
-      <c r="BO10" s="26"/>
-      <c r="BP10" s="26"/>
-      <c r="BQ10" s="26"/>
-      <c r="BR10" s="26"/>
-      <c r="BS10" s="26"/>
-      <c r="BT10" s="26"/>
-      <c r="BU10" s="26"/>
-      <c r="BV10" s="26"/>
-      <c r="BW10" s="26"/>
-      <c r="BX10" s="26"/>
-      <c r="BY10" s="26"/>
-      <c r="BZ10" s="26"/>
-      <c r="CA10" s="26"/>
-      <c r="CB10" s="26"/>
-      <c r="CC10" s="26"/>
-      <c r="CD10" s="26"/>
-      <c r="CE10" s="26"/>
-      <c r="CF10" s="26"/>
-      <c r="CG10" s="26"/>
-      <c r="CH10" s="26"/>
-      <c r="CI10" s="27"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="37"/>
+      <c r="BI10" s="37"/>
+      <c r="BJ10" s="37"/>
+      <c r="BK10" s="37"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="37"/>
+      <c r="BN10" s="37"/>
+      <c r="BO10" s="37"/>
+      <c r="BP10" s="37"/>
+      <c r="BQ10" s="37"/>
+      <c r="BR10" s="37"/>
+      <c r="BS10" s="37"/>
+      <c r="BT10" s="37"/>
+      <c r="BU10" s="37"/>
+      <c r="BV10" s="37"/>
+      <c r="BW10" s="37"/>
+      <c r="BX10" s="37"/>
+      <c r="BY10" s="37"/>
+      <c r="BZ10" s="37"/>
+      <c r="CA10" s="37"/>
+      <c r="CB10" s="37"/>
+      <c r="CC10" s="37"/>
+      <c r="CD10" s="37"/>
+      <c r="CE10" s="37"/>
+      <c r="CF10" s="37"/>
+      <c r="CG10" s="37"/>
+      <c r="CH10" s="37"/>
+      <c r="CI10" s="38"/>
     </row>
     <row r="11" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+      <c r="B11" s="24">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="14"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
-      <c r="BK11" s="14"/>
-      <c r="BL11" s="14"/>
-      <c r="BM11" s="14"/>
-      <c r="BN11" s="14"/>
-      <c r="BO11" s="14"/>
-      <c r="BP11" s="14"/>
-      <c r="BQ11" s="14"/>
-      <c r="BR11" s="14"/>
-      <c r="BS11" s="14"/>
-      <c r="BT11" s="14"/>
-      <c r="BU11" s="14"/>
-      <c r="BV11" s="14"/>
-      <c r="BW11" s="14"/>
-      <c r="BX11" s="14"/>
-      <c r="BY11" s="14"/>
-      <c r="BZ11" s="14"/>
-      <c r="CA11" s="14"/>
-      <c r="CB11" s="14"/>
-      <c r="CC11" s="14"/>
-      <c r="CD11" s="14"/>
-      <c r="CE11" s="14"/>
-      <c r="CF11" s="14"/>
-      <c r="CG11" s="14"/>
-      <c r="CH11" s="14"/>
-      <c r="CI11" s="16"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="33"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="33"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="33"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="33"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="33"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="33"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="33"/>
+      <c r="BZ11" s="33"/>
+      <c r="CA11" s="33"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="33"/>
+      <c r="CD11" s="33"/>
+      <c r="CE11" s="33"/>
+      <c r="CF11" s="33"/>
+      <c r="CG11" s="33"/>
+      <c r="CH11" s="33"/>
+      <c r="CI11" s="35"/>
     </row>
     <row r="12" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+      <c r="B12" s="24">
         <v>8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -4171,11 +4165,11 @@
       <c r="CI12" s="9"/>
     </row>
     <row r="13" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+      <c r="B13" s="24">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4261,1348 +4255,1419 @@
       <c r="CI13" s="9"/>
     </row>
     <row r="14" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="B14" s="24">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
-      <c r="BK14" s="14"/>
-      <c r="BL14" s="14"/>
-      <c r="BM14" s="14"/>
-      <c r="BN14" s="14"/>
-      <c r="BO14" s="14"/>
-      <c r="BP14" s="14"/>
-      <c r="BQ14" s="14"/>
-      <c r="BR14" s="14"/>
-      <c r="BS14" s="14"/>
-      <c r="BT14" s="14"/>
-      <c r="BU14" s="14"/>
-      <c r="BV14" s="14"/>
-      <c r="BW14" s="14"/>
-      <c r="BX14" s="14"/>
-      <c r="BY14" s="14"/>
-      <c r="BZ14" s="14"/>
-      <c r="CA14" s="14"/>
-      <c r="CB14" s="14"/>
-      <c r="CC14" s="14"/>
-      <c r="CD14" s="14"/>
-      <c r="CE14" s="14"/>
-      <c r="CF14" s="14"/>
-      <c r="CG14" s="14"/>
-      <c r="CH14" s="14"/>
-      <c r="CI14" s="16"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="33"/>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="33"/>
+      <c r="BA14" s="33"/>
+      <c r="BB14" s="33"/>
+      <c r="BC14" s="33"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="33"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="33"/>
+      <c r="BM14" s="33"/>
+      <c r="BN14" s="33"/>
+      <c r="BO14" s="33"/>
+      <c r="BP14" s="33"/>
+      <c r="BQ14" s="33"/>
+      <c r="BR14" s="33"/>
+      <c r="BS14" s="33"/>
+      <c r="BT14" s="33"/>
+      <c r="BU14" s="33"/>
+      <c r="BV14" s="33"/>
+      <c r="BW14" s="33"/>
+      <c r="BX14" s="33"/>
+      <c r="BY14" s="33"/>
+      <c r="BZ14" s="33"/>
+      <c r="CA14" s="33"/>
+      <c r="CB14" s="33"/>
+      <c r="CC14" s="33"/>
+      <c r="CD14" s="33"/>
+      <c r="CE14" s="33"/>
+      <c r="CF14" s="33"/>
+      <c r="CG14" s="33"/>
+      <c r="CH14" s="33"/>
+      <c r="CI14" s="35"/>
     </row>
     <row r="15" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+      <c r="B15" s="24">
         <v>11</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="12"/>
-      <c r="BC15" s="12"/>
-      <c r="BD15" s="12"/>
-      <c r="BE15" s="12"/>
-      <c r="BF15" s="12"/>
-      <c r="BG15" s="12"/>
-      <c r="BH15" s="12"/>
-      <c r="BI15" s="12"/>
-      <c r="BJ15" s="12"/>
-      <c r="BK15" s="12"/>
-      <c r="BL15" s="12"/>
-      <c r="BM15" s="12"/>
-      <c r="BN15" s="12"/>
-      <c r="BO15" s="12"/>
-      <c r="BP15" s="12"/>
-      <c r="BQ15" s="12"/>
-      <c r="BR15" s="12"/>
-      <c r="BS15" s="12"/>
-      <c r="BT15" s="12"/>
-      <c r="BU15" s="12"/>
-      <c r="BV15" s="12"/>
-      <c r="BW15" s="12"/>
-      <c r="BX15" s="12"/>
-      <c r="BY15" s="12"/>
-      <c r="BZ15" s="12"/>
-      <c r="CA15" s="12"/>
-      <c r="CB15" s="12"/>
-      <c r="CC15" s="12"/>
-      <c r="CD15" s="12"/>
-      <c r="CE15" s="12"/>
-      <c r="CF15" s="12"/>
-      <c r="CG15" s="12"/>
-      <c r="CH15" s="12"/>
-      <c r="CI15" s="12"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="31"/>
     </row>
     <row r="16" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+      <c r="B16" s="24">
         <v>12</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="12"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="12"/>
-      <c r="BP16" s="12"/>
-      <c r="BQ16" s="12"/>
-      <c r="BR16" s="12"/>
-      <c r="BS16" s="12"/>
-      <c r="BT16" s="12"/>
-      <c r="BU16" s="12"/>
-      <c r="BV16" s="12"/>
-      <c r="BW16" s="12"/>
-      <c r="BX16" s="12"/>
-      <c r="BY16" s="12"/>
-      <c r="BZ16" s="12"/>
-      <c r="CA16" s="12"/>
-      <c r="CB16" s="12"/>
-      <c r="CC16" s="12"/>
-      <c r="CD16" s="12"/>
-      <c r="CE16" s="12"/>
-      <c r="CF16" s="12"/>
-      <c r="CG16" s="12"/>
-      <c r="CH16" s="12"/>
-      <c r="CI16" s="12"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="31"/>
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="31"/>
+      <c r="BC16" s="31"/>
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="31"/>
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="31"/>
+      <c r="BI16" s="31"/>
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="31"/>
+      <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="31"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="31"/>
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="31"/>
+      <c r="CG16" s="31"/>
+      <c r="CH16" s="31"/>
+      <c r="CI16" s="31"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="10">
+      <c r="B17" s="24">
         <v>13</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-      <c r="BM17" s="12"/>
-      <c r="BN17" s="12"/>
-      <c r="BO17" s="12"/>
-      <c r="BP17" s="12"/>
-      <c r="BQ17" s="12"/>
-      <c r="BR17" s="12"/>
-      <c r="BS17" s="12"/>
-      <c r="BT17" s="12"/>
-      <c r="BU17" s="12"/>
-      <c r="BV17" s="12"/>
-      <c r="BW17" s="12"/>
-      <c r="BX17" s="12"/>
-      <c r="BY17" s="12"/>
-      <c r="BZ17" s="12"/>
-      <c r="CA17" s="12"/>
-      <c r="CB17" s="12"/>
-      <c r="CC17" s="12"/>
-      <c r="CD17" s="12"/>
-      <c r="CE17" s="12"/>
-      <c r="CF17" s="12"/>
-      <c r="CG17" s="12"/>
-      <c r="CH17" s="12"/>
-      <c r="CI17" s="12"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="31"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="31"/>
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="31"/>
+      <c r="BI17" s="31"/>
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="31"/>
+      <c r="BL17" s="31"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="31"/>
+      <c r="BO17" s="31"/>
+      <c r="BP17" s="31"/>
+      <c r="BQ17" s="31"/>
+      <c r="BR17" s="31"/>
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="31"/>
+      <c r="BU17" s="31"/>
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="31"/>
+      <c r="BX17" s="31"/>
+      <c r="BY17" s="31"/>
+      <c r="BZ17" s="31"/>
+      <c r="CA17" s="31"/>
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="31"/>
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="31"/>
+      <c r="CG17" s="31"/>
+      <c r="CH17" s="31"/>
+      <c r="CI17" s="31"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+      <c r="B18" s="24">
         <v>14</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="12"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="12"/>
-      <c r="AV18" s="12"/>
-      <c r="AW18" s="12"/>
-      <c r="AX18" s="12"/>
-      <c r="AY18" s="12"/>
-      <c r="AZ18" s="12"/>
-      <c r="BA18" s="12"/>
-      <c r="BB18" s="12"/>
-      <c r="BC18" s="12"/>
-      <c r="BD18" s="12"/>
-      <c r="BE18" s="12"/>
-      <c r="BF18" s="12"/>
-      <c r="BG18" s="12"/>
-      <c r="BH18" s="12"/>
-      <c r="BI18" s="12"/>
-      <c r="BJ18" s="12"/>
-      <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
-      <c r="BM18" s="12"/>
-      <c r="BN18" s="12"/>
-      <c r="BO18" s="12"/>
-      <c r="BP18" s="12"/>
-      <c r="BQ18" s="12"/>
-      <c r="BR18" s="12"/>
-      <c r="BS18" s="12"/>
-      <c r="BT18" s="12"/>
-      <c r="BU18" s="12"/>
-      <c r="BV18" s="12"/>
-      <c r="BW18" s="12"/>
-      <c r="BX18" s="12"/>
-      <c r="BY18" s="12"/>
-      <c r="BZ18" s="12"/>
-      <c r="CA18" s="12"/>
-      <c r="CB18" s="12"/>
-      <c r="CC18" s="12"/>
-      <c r="CD18" s="12"/>
-      <c r="CE18" s="12"/>
-      <c r="CF18" s="12"/>
-      <c r="CG18" s="12"/>
-      <c r="CH18" s="12"/>
-      <c r="CI18" s="12"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="31"/>
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="31"/>
+      <c r="CD18" s="31"/>
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="31"/>
+      <c r="CG18" s="31"/>
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="31"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+      <c r="B19" s="24">
         <v>15</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="12"/>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="12"/>
-      <c r="AV19" s="12"/>
-      <c r="AW19" s="12"/>
-      <c r="AX19" s="12"/>
-      <c r="AY19" s="12"/>
-      <c r="AZ19" s="12"/>
-      <c r="BA19" s="12"/>
-      <c r="BB19" s="12"/>
-      <c r="BC19" s="12"/>
-      <c r="BD19" s="12"/>
-      <c r="BE19" s="12"/>
-      <c r="BF19" s="12"/>
-      <c r="BG19" s="12"/>
-      <c r="BH19" s="12"/>
-      <c r="BI19" s="12"/>
-      <c r="BJ19" s="12"/>
-      <c r="BK19" s="12"/>
-      <c r="BL19" s="12"/>
-      <c r="BM19" s="12"/>
-      <c r="BN19" s="12"/>
-      <c r="BO19" s="12"/>
-      <c r="BP19" s="12"/>
-      <c r="BQ19" s="12"/>
-      <c r="BR19" s="12"/>
-      <c r="BS19" s="12"/>
-      <c r="BT19" s="12"/>
-      <c r="BU19" s="12"/>
-      <c r="BV19" s="12"/>
-      <c r="BW19" s="12"/>
-      <c r="BX19" s="12"/>
-      <c r="BY19" s="12"/>
-      <c r="BZ19" s="12"/>
-      <c r="CA19" s="12"/>
-      <c r="CB19" s="12"/>
-      <c r="CC19" s="12"/>
-      <c r="CD19" s="12"/>
-      <c r="CE19" s="12"/>
-      <c r="CF19" s="12"/>
-      <c r="CG19" s="12"/>
-      <c r="CH19" s="12"/>
-      <c r="CI19" s="12"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="31"/>
+      <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="31"/>
+      <c r="BU19" s="31"/>
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="31"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="31"/>
+      <c r="CA19" s="31"/>
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="31"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="31"/>
+      <c r="CG19" s="31"/>
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="31"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+      <c r="B20" s="24">
         <v>16</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="12"/>
-      <c r="BB20" s="12"/>
-      <c r="BC20" s="12"/>
-      <c r="BD20" s="12"/>
-      <c r="BE20" s="12"/>
-      <c r="BF20" s="12"/>
-      <c r="BG20" s="12"/>
-      <c r="BH20" s="12"/>
-      <c r="BI20" s="12"/>
-      <c r="BJ20" s="12"/>
-      <c r="BK20" s="12"/>
-      <c r="BL20" s="12"/>
-      <c r="BM20" s="12"/>
-      <c r="BN20" s="12"/>
-      <c r="BO20" s="12"/>
-      <c r="BP20" s="12"/>
-      <c r="BQ20" s="12"/>
-      <c r="BR20" s="12"/>
-      <c r="BS20" s="12"/>
-      <c r="BT20" s="12"/>
-      <c r="BU20" s="12"/>
-      <c r="BV20" s="12"/>
-      <c r="BW20" s="12"/>
-      <c r="BX20" s="12"/>
-      <c r="BY20" s="12"/>
-      <c r="BZ20" s="12"/>
-      <c r="CA20" s="12"/>
-      <c r="CB20" s="12"/>
-      <c r="CC20" s="12"/>
-      <c r="CD20" s="12"/>
-      <c r="CE20" s="12"/>
-      <c r="CF20" s="12"/>
-      <c r="CG20" s="12"/>
-      <c r="CH20" s="12"/>
-      <c r="CI20" s="12"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="31"/>
+      <c r="BL20" s="31"/>
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="31"/>
+      <c r="BO20" s="31"/>
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="31"/>
+      <c r="BR20" s="31"/>
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="31"/>
+      <c r="BU20" s="31"/>
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="31"/>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="31"/>
+      <c r="BZ20" s="31"/>
+      <c r="CA20" s="31"/>
+      <c r="CB20" s="31"/>
+      <c r="CC20" s="31"/>
+      <c r="CD20" s="31"/>
+      <c r="CE20" s="31"/>
+      <c r="CF20" s="31"/>
+      <c r="CG20" s="31"/>
+      <c r="CH20" s="31"/>
+      <c r="CI20" s="31"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+      <c r="B21" s="24">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
-      <c r="BB21" s="12"/>
-      <c r="BC21" s="12"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="12"/>
-      <c r="BG21" s="12"/>
-      <c r="BH21" s="12"/>
-      <c r="BI21" s="12"/>
-      <c r="BJ21" s="12"/>
-      <c r="BK21" s="12"/>
-      <c r="BL21" s="12"/>
-      <c r="BM21" s="12"/>
-      <c r="BN21" s="12"/>
-      <c r="BO21" s="12"/>
-      <c r="BP21" s="12"/>
-      <c r="BQ21" s="12"/>
-      <c r="BR21" s="12"/>
-      <c r="BS21" s="12"/>
-      <c r="BT21" s="12"/>
-      <c r="BU21" s="12"/>
-      <c r="BV21" s="12"/>
-      <c r="BW21" s="12"/>
-      <c r="BX21" s="12"/>
-      <c r="BY21" s="12"/>
-      <c r="BZ21" s="12"/>
-      <c r="CA21" s="12"/>
-      <c r="CB21" s="12"/>
-      <c r="CC21" s="12"/>
-      <c r="CD21" s="12"/>
-      <c r="CE21" s="12"/>
-      <c r="CF21" s="12"/>
-      <c r="CG21" s="12"/>
-      <c r="CH21" s="12"/>
-      <c r="CI21" s="12"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="31"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="31"/>
+      <c r="BU21" s="31"/>
+      <c r="BV21" s="31"/>
+      <c r="BW21" s="31"/>
+      <c r="BX21" s="31"/>
+      <c r="BY21" s="31"/>
+      <c r="BZ21" s="31"/>
+      <c r="CA21" s="31"/>
+      <c r="CB21" s="31"/>
+      <c r="CC21" s="31"/>
+      <c r="CD21" s="31"/>
+      <c r="CE21" s="31"/>
+      <c r="CF21" s="31"/>
+      <c r="CG21" s="31"/>
+      <c r="CH21" s="31"/>
+      <c r="CI21" s="31"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="10">
+      <c r="B22" s="24">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="23"/>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="24"/>
-      <c r="AW22" s="24"/>
-      <c r="AX22" s="24"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="24"/>
-      <c r="BF22" s="24"/>
-      <c r="BG22" s="24"/>
-      <c r="BH22" s="24"/>
-      <c r="BI22" s="24"/>
-      <c r="BJ22" s="24"/>
-      <c r="BK22" s="24"/>
-      <c r="BL22" s="24"/>
-      <c r="BM22" s="24"/>
-      <c r="BN22" s="24"/>
-      <c r="BO22" s="24"/>
-      <c r="BP22" s="24"/>
-      <c r="BQ22" s="24"/>
-      <c r="BR22" s="24"/>
-      <c r="BS22" s="24"/>
-      <c r="BT22" s="24"/>
-      <c r="BU22" s="24"/>
-      <c r="BV22" s="24"/>
-      <c r="BW22" s="24"/>
-      <c r="BX22" s="24"/>
-      <c r="BY22" s="24"/>
-      <c r="BZ22" s="24"/>
-      <c r="CA22" s="24"/>
-      <c r="CB22" s="24"/>
-      <c r="CC22" s="24"/>
-      <c r="CD22" s="24"/>
-      <c r="CE22" s="24"/>
-      <c r="CF22" s="24"/>
-      <c r="CG22" s="24"/>
-      <c r="CH22" s="24"/>
-      <c r="CI22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="49"/>
+      <c r="BA22" s="49"/>
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="49"/>
+      <c r="BD22" s="49"/>
+      <c r="BE22" s="49"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="49"/>
+      <c r="BK22" s="49"/>
+      <c r="BL22" s="49"/>
+      <c r="BM22" s="49"/>
+      <c r="BN22" s="49"/>
+      <c r="BO22" s="49"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="49"/>
+      <c r="BR22" s="49"/>
+      <c r="BS22" s="49"/>
+      <c r="BT22" s="49"/>
+      <c r="BU22" s="49"/>
+      <c r="BV22" s="49"/>
+      <c r="BW22" s="49"/>
+      <c r="BX22" s="49"/>
+      <c r="BY22" s="49"/>
+      <c r="BZ22" s="49"/>
+      <c r="CA22" s="49"/>
+      <c r="CB22" s="49"/>
+      <c r="CC22" s="49"/>
+      <c r="CD22" s="49"/>
+      <c r="CE22" s="49"/>
+      <c r="CF22" s="49"/>
+      <c r="CG22" s="49"/>
+      <c r="CH22" s="49"/>
+      <c r="CI22" s="49"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="18"/>
-      <c r="AT23" s="18"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="18"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="18"/>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="18"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="18"/>
-      <c r="BI23" s="18"/>
-      <c r="BJ23" s="18"/>
-      <c r="BK23" s="18"/>
-      <c r="BL23" s="18"/>
-      <c r="BM23" s="18"/>
-      <c r="BN23" s="18"/>
-      <c r="BO23" s="18"/>
-      <c r="BP23" s="18"/>
-      <c r="BQ23" s="18"/>
-      <c r="BR23" s="18"/>
-      <c r="BS23" s="18"/>
-      <c r="BT23" s="18"/>
-      <c r="BU23" s="18"/>
-      <c r="BV23" s="18"/>
-      <c r="BW23" s="18"/>
-      <c r="BX23" s="18"/>
-      <c r="BY23" s="18"/>
-      <c r="BZ23" s="18"/>
-      <c r="CA23" s="18"/>
-      <c r="CB23" s="18"/>
-      <c r="CC23" s="18"/>
-      <c r="CD23" s="18"/>
-      <c r="CE23" s="18"/>
-      <c r="CF23" s="18"/>
-      <c r="CG23" s="18"/>
-      <c r="CH23" s="18"/>
-      <c r="CI23" s="18"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="43"/>
+      <c r="BO23" s="43"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BR23" s="43"/>
+      <c r="BS23" s="43"/>
+      <c r="BT23" s="43"/>
+      <c r="BU23" s="43"/>
+      <c r="BV23" s="43"/>
+      <c r="BW23" s="43"/>
+      <c r="BX23" s="43"/>
+      <c r="BY23" s="43"/>
+      <c r="BZ23" s="43"/>
+      <c r="CA23" s="43"/>
+      <c r="CB23" s="43"/>
+      <c r="CC23" s="43"/>
+      <c r="CD23" s="43"/>
+      <c r="CE23" s="43"/>
+      <c r="CF23" s="43"/>
+      <c r="CG23" s="43"/>
+      <c r="CH23" s="43"/>
+      <c r="CI23" s="43"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
-      <c r="BB24" s="20"/>
-      <c r="BC24" s="20"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="20"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="20"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="20"/>
-      <c r="BK24" s="20"/>
-      <c r="BL24" s="20"/>
-      <c r="BM24" s="20"/>
-      <c r="BN24" s="20"/>
-      <c r="BO24" s="20"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="20"/>
-      <c r="BS24" s="20"/>
-      <c r="BT24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
-      <c r="BW24" s="20"/>
-      <c r="BX24" s="20"/>
-      <c r="BY24" s="20"/>
-      <c r="BZ24" s="20"/>
-      <c r="CA24" s="20"/>
-      <c r="CB24" s="20"/>
-      <c r="CC24" s="20"/>
-      <c r="CD24" s="20"/>
-      <c r="CE24" s="20"/>
-      <c r="CF24" s="20"/>
-      <c r="CG24" s="20"/>
-      <c r="CH24" s="20"/>
-      <c r="CI24" s="20"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="45"/>
+      <c r="BE24" s="45"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="45"/>
+      <c r="BI24" s="45"/>
+      <c r="BJ24" s="45"/>
+      <c r="BK24" s="45"/>
+      <c r="BL24" s="45"/>
+      <c r="BM24" s="45"/>
+      <c r="BN24" s="45"/>
+      <c r="BO24" s="45"/>
+      <c r="BP24" s="45"/>
+      <c r="BQ24" s="45"/>
+      <c r="BR24" s="45"/>
+      <c r="BS24" s="45"/>
+      <c r="BT24" s="45"/>
+      <c r="BU24" s="45"/>
+      <c r="BV24" s="45"/>
+      <c r="BW24" s="45"/>
+      <c r="BX24" s="45"/>
+      <c r="BY24" s="45"/>
+      <c r="BZ24" s="45"/>
+      <c r="CA24" s="45"/>
+      <c r="CB24" s="45"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="45"/>
+      <c r="CE24" s="45"/>
+      <c r="CF24" s="45"/>
+      <c r="CG24" s="45"/>
+      <c r="CH24" s="45"/>
+      <c r="CI24" s="45"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="20"/>
-      <c r="BA25" s="20"/>
-      <c r="BB25" s="20"/>
-      <c r="BC25" s="20"/>
-      <c r="BD25" s="20"/>
-      <c r="BE25" s="20"/>
-      <c r="BF25" s="20"/>
-      <c r="BG25" s="20"/>
-      <c r="BH25" s="20"/>
-      <c r="BI25" s="20"/>
-      <c r="BJ25" s="20"/>
-      <c r="BK25" s="20"/>
-      <c r="BL25" s="20"/>
-      <c r="BM25" s="20"/>
-      <c r="BN25" s="20"/>
-      <c r="BO25" s="20"/>
-      <c r="BP25" s="20"/>
-      <c r="BQ25" s="20"/>
-      <c r="BR25" s="20"/>
-      <c r="BS25" s="20"/>
-      <c r="BT25" s="20"/>
-      <c r="BU25" s="20"/>
-      <c r="BV25" s="20"/>
-      <c r="BW25" s="20"/>
-      <c r="BX25" s="20"/>
-      <c r="BY25" s="20"/>
-      <c r="BZ25" s="20"/>
-      <c r="CA25" s="20"/>
-      <c r="CB25" s="20"/>
-      <c r="CC25" s="20"/>
-      <c r="CD25" s="20"/>
-      <c r="CE25" s="20"/>
-      <c r="CF25" s="20"/>
-      <c r="CG25" s="20"/>
-      <c r="CH25" s="20"/>
-      <c r="CI25" s="20"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="45"/>
+      <c r="BL25" s="45"/>
+      <c r="BM25" s="45"/>
+      <c r="BN25" s="45"/>
+      <c r="BO25" s="45"/>
+      <c r="BP25" s="45"/>
+      <c r="BQ25" s="45"/>
+      <c r="BR25" s="45"/>
+      <c r="BS25" s="45"/>
+      <c r="BT25" s="45"/>
+      <c r="BU25" s="45"/>
+      <c r="BV25" s="45"/>
+      <c r="BW25" s="45"/>
+      <c r="BX25" s="45"/>
+      <c r="BY25" s="45"/>
+      <c r="BZ25" s="45"/>
+      <c r="CA25" s="45"/>
+      <c r="CB25" s="45"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="45"/>
+      <c r="CE25" s="45"/>
+      <c r="CF25" s="45"/>
+      <c r="CG25" s="45"/>
+      <c r="CH25" s="45"/>
+      <c r="CI25" s="45"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
-      <c r="BD26" s="20"/>
-      <c r="BE26" s="20"/>
-      <c r="BF26" s="20"/>
-      <c r="BG26" s="20"/>
-      <c r="BH26" s="20"/>
-      <c r="BI26" s="20"/>
-      <c r="BJ26" s="20"/>
-      <c r="BK26" s="20"/>
-      <c r="BL26" s="20"/>
-      <c r="BM26" s="20"/>
-      <c r="BN26" s="20"/>
-      <c r="BO26" s="20"/>
-      <c r="BP26" s="20"/>
-      <c r="BQ26" s="20"/>
-      <c r="BR26" s="20"/>
-      <c r="BS26" s="20"/>
-      <c r="BT26" s="20"/>
-      <c r="BU26" s="20"/>
-      <c r="BV26" s="20"/>
-      <c r="BW26" s="20"/>
-      <c r="BX26" s="20"/>
-      <c r="BY26" s="20"/>
-      <c r="BZ26" s="20"/>
-      <c r="CA26" s="20"/>
-      <c r="CB26" s="20"/>
-      <c r="CC26" s="20"/>
-      <c r="CD26" s="20"/>
-      <c r="CE26" s="20"/>
-      <c r="CF26" s="20"/>
-      <c r="CG26" s="20"/>
-      <c r="CH26" s="20"/>
-      <c r="CI26" s="20"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="45"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="45"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="45"/>
+      <c r="BF26" s="45"/>
+      <c r="BG26" s="45"/>
+      <c r="BH26" s="45"/>
+      <c r="BI26" s="45"/>
+      <c r="BJ26" s="45"/>
+      <c r="BK26" s="45"/>
+      <c r="BL26" s="45"/>
+      <c r="BM26" s="45"/>
+      <c r="BN26" s="45"/>
+      <c r="BO26" s="45"/>
+      <c r="BP26" s="45"/>
+      <c r="BQ26" s="45"/>
+      <c r="BR26" s="45"/>
+      <c r="BS26" s="45"/>
+      <c r="BT26" s="45"/>
+      <c r="BU26" s="45"/>
+      <c r="BV26" s="45"/>
+      <c r="BW26" s="45"/>
+      <c r="BX26" s="45"/>
+      <c r="BY26" s="45"/>
+      <c r="BZ26" s="45"/>
+      <c r="CA26" s="45"/>
+      <c r="CB26" s="45"/>
+      <c r="CC26" s="45"/>
+      <c r="CD26" s="45"/>
+      <c r="CE26" s="45"/>
+      <c r="CF26" s="45"/>
+      <c r="CG26" s="45"/>
+      <c r="CH26" s="45"/>
+      <c r="CI26" s="45"/>
     </row>
     <row r="27" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
-      <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
-      <c r="AW27" s="20"/>
-      <c r="AX27" s="20"/>
-      <c r="AY27" s="20"/>
-      <c r="AZ27" s="20"/>
-      <c r="BA27" s="20"/>
-      <c r="BB27" s="20"/>
-      <c r="BC27" s="20"/>
-      <c r="BD27" s="20"/>
-      <c r="BE27" s="20"/>
-      <c r="BF27" s="20"/>
-      <c r="BG27" s="20"/>
-      <c r="BH27" s="20"/>
-      <c r="BI27" s="20"/>
-      <c r="BJ27" s="20"/>
-      <c r="BK27" s="20"/>
-      <c r="BL27" s="20"/>
-      <c r="BM27" s="20"/>
-      <c r="BN27" s="20"/>
-      <c r="BO27" s="20"/>
-      <c r="BP27" s="20"/>
-      <c r="BQ27" s="20"/>
-      <c r="BR27" s="20"/>
-      <c r="BS27" s="20"/>
-      <c r="BT27" s="20"/>
-      <c r="BU27" s="20"/>
-      <c r="BV27" s="20"/>
-      <c r="BW27" s="20"/>
-      <c r="BX27" s="20"/>
-      <c r="BY27" s="20"/>
-      <c r="BZ27" s="20"/>
-      <c r="CA27" s="20"/>
-      <c r="CB27" s="20"/>
-      <c r="CC27" s="20"/>
-      <c r="CD27" s="20"/>
-      <c r="CE27" s="20"/>
-      <c r="CF27" s="20"/>
-      <c r="CG27" s="20"/>
-      <c r="CH27" s="20"/>
-      <c r="CI27" s="20"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="45"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="45"/>
+      <c r="BD27" s="45"/>
+      <c r="BE27" s="45"/>
+      <c r="BF27" s="45"/>
+      <c r="BG27" s="45"/>
+      <c r="BH27" s="45"/>
+      <c r="BI27" s="45"/>
+      <c r="BJ27" s="45"/>
+      <c r="BK27" s="45"/>
+      <c r="BL27" s="45"/>
+      <c r="BM27" s="45"/>
+      <c r="BN27" s="45"/>
+      <c r="BO27" s="45"/>
+      <c r="BP27" s="45"/>
+      <c r="BQ27" s="45"/>
+      <c r="BR27" s="45"/>
+      <c r="BS27" s="45"/>
+      <c r="BT27" s="45"/>
+      <c r="BU27" s="45"/>
+      <c r="BV27" s="45"/>
+      <c r="BW27" s="45"/>
+      <c r="BX27" s="45"/>
+      <c r="BY27" s="45"/>
+      <c r="BZ27" s="45"/>
+      <c r="CA27" s="45"/>
+      <c r="CB27" s="45"/>
+      <c r="CC27" s="45"/>
+      <c r="CD27" s="45"/>
+      <c r="CE27" s="45"/>
+      <c r="CF27" s="45"/>
+      <c r="CG27" s="45"/>
+      <c r="CH27" s="45"/>
+      <c r="CI27" s="45"/>
     </row>
     <row r="28" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="22"/>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="22"/>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="22"/>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="22"/>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="22"/>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="22"/>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="22"/>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="22"/>
-      <c r="CI28" s="22"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="47"/>
+      <c r="BB28" s="47"/>
+      <c r="BC28" s="47"/>
+      <c r="BD28" s="47"/>
+      <c r="BE28" s="47"/>
+      <c r="BF28" s="47"/>
+      <c r="BG28" s="47"/>
+      <c r="BH28" s="47"/>
+      <c r="BI28" s="47"/>
+      <c r="BJ28" s="47"/>
+      <c r="BK28" s="47"/>
+      <c r="BL28" s="47"/>
+      <c r="BM28" s="47"/>
+      <c r="BN28" s="47"/>
+      <c r="BO28" s="47"/>
+      <c r="BP28" s="47"/>
+      <c r="BQ28" s="47"/>
+      <c r="BR28" s="47"/>
+      <c r="BS28" s="47"/>
+      <c r="BT28" s="47"/>
+      <c r="BU28" s="47"/>
+      <c r="BV28" s="47"/>
+      <c r="BW28" s="47"/>
+      <c r="BX28" s="47"/>
+      <c r="BY28" s="47"/>
+      <c r="BZ28" s="47"/>
+      <c r="CA28" s="47"/>
+      <c r="CB28" s="47"/>
+      <c r="CC28" s="47"/>
+      <c r="CD28" s="47"/>
+      <c r="CE28" s="47"/>
+      <c r="CF28" s="47"/>
+      <c r="CG28" s="47"/>
+      <c r="CH28" s="47"/>
+      <c r="CI28" s="47"/>
     </row>
     <row r="29" spans="2:87" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AR18"/>
+    <mergeCell ref="AS18:CI18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="AS19:CI19"/>
+    <mergeCell ref="Y19:AR19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AR16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AR17"/>
+    <mergeCell ref="AS17:CI17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="AS15:CI15"/>
+    <mergeCell ref="Y15:AR15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AR14"/>
+    <mergeCell ref="AS14:CI14"/>
+    <mergeCell ref="B23:CI28"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="AS20:CI20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AR21"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AR20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AR22"/>
+    <mergeCell ref="AS22:CI22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="AS10:CI10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AR11"/>
+    <mergeCell ref="AS11:CI11"/>
+    <mergeCell ref="Y10:AR10"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AR9"/>
+    <mergeCell ref="AS9:CI9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:X6"/>
+    <mergeCell ref="Y6:AR6"/>
+    <mergeCell ref="AS6:CI6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
@@ -5617,77 +5682,6 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:X6"/>
-    <mergeCell ref="Y6:AR6"/>
-    <mergeCell ref="AS6:CI6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AR9"/>
-    <mergeCell ref="AS9:CI9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="AS10:CI10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AR11"/>
-    <mergeCell ref="AS11:CI11"/>
-    <mergeCell ref="Y10:AR10"/>
-    <mergeCell ref="B23:CI28"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="AS20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="AS21:CI21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AR20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="AS22:CI22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="Y15:AR15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AR14"/>
-    <mergeCell ref="AS14:CI14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AR17"/>
-    <mergeCell ref="AS17:CI17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AR18"/>
-    <mergeCell ref="AS18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="AS19:CI19"/>
-    <mergeCell ref="Y19:AR19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797A7B7-FA8E-4DC5-8A51-909DBAFB8763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BD904-29C9-499A-93D2-805906F60E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>システム名</t>
   </si>
@@ -115,38 +115,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開始ボタン有　ユーザー名入力欄有</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アリ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>問題ページ</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーページ(入力系）</t>
-    <rPh sb="7" eb="10">
-      <t>ニュウリョクケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -162,35 +133,6 @@
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>点数表示</t>
-    <rPh sb="0" eb="2">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザー名入力欄の入力エラー　画面遷移</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -217,10 +159,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>error</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラジオボタンで選択　下に提出ボタン有 javascrpit等フロント側でエラー表示</t>
     <rPh sb="7" eb="9">
       <t>センタク</t>
@@ -233,6 +171,50 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始ボタン有　ユーザー名入力欄有　エラー時フロントでエラー表示</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最高得点、今回の得点、タイムを表示</t>
+    <rPh sb="0" eb="4">
+      <t>サイコウトクテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -676,6 +658,84 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -717,84 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1146,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI29"/>
+  <dimension ref="A1:AMI28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:AR6"/>
+      <selection activeCell="AS7" sqref="AS7:CI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1164,102 +1146,102 @@
   <sheetData>
     <row r="1" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="22" t="s">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="10" t="s">
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2198,102 +2180,102 @@
     </row>
     <row r="2" spans="1:1022" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="14" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="15" t="s">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="15"/>
-      <c r="BN2" s="15"/>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="17" t="s">
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="41"/>
+      <c r="BO2" s="41"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
+      <c r="BR2" s="42"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="42"/>
+      <c r="BU2" s="42"/>
+      <c r="BV2" s="42"/>
+      <c r="BW2" s="42"/>
+      <c r="BX2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="17"/>
-      <c r="BZ2" s="17"/>
-      <c r="CA2" s="17"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="18"/>
-      <c r="CI2" s="18"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3319,767 +3301,761 @@
       <c r="CI3" s="5"/>
     </row>
     <row r="4" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="29" t="s">
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29"/>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="29"/>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="29"/>
-      <c r="BK4" s="29"/>
-      <c r="BL4" s="29"/>
-      <c r="BM4" s="29"/>
-      <c r="BN4" s="29"/>
-      <c r="BO4" s="29"/>
-      <c r="BP4" s="29"/>
-      <c r="BQ4" s="29"/>
-      <c r="BR4" s="29"/>
-      <c r="BS4" s="29"/>
-      <c r="BT4" s="29"/>
-      <c r="BU4" s="29"/>
-      <c r="BV4" s="29"/>
-      <c r="BW4" s="29"/>
-      <c r="BX4" s="29"/>
-      <c r="BY4" s="29"/>
-      <c r="BZ4" s="29"/>
-      <c r="CA4" s="29"/>
-      <c r="CB4" s="29"/>
-      <c r="CC4" s="29"/>
-      <c r="CD4" s="29"/>
-      <c r="CE4" s="29"/>
-      <c r="CF4" s="29"/>
-      <c r="CG4" s="29"/>
-      <c r="CH4" s="29"/>
-      <c r="CI4" s="29"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35"/>
     </row>
     <row r="5" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="24">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="26" t="s">
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="32"/>
+    </row>
+    <row r="6" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="26"/>
-      <c r="BB5" s="26"/>
-      <c r="BC5" s="26"/>
-      <c r="BD5" s="26"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="26"/>
-      <c r="BH5" s="26"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="26"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5" s="26"/>
-      <c r="BP5" s="26"/>
-      <c r="BQ5" s="26"/>
-      <c r="BR5" s="26"/>
-      <c r="BS5" s="26"/>
-      <c r="BT5" s="26"/>
-      <c r="BU5" s="26"/>
-      <c r="BV5" s="26"/>
-      <c r="BW5" s="26"/>
-      <c r="BX5" s="26"/>
-      <c r="BY5" s="26"/>
-      <c r="BZ5" s="26"/>
-      <c r="CA5" s="26"/>
-      <c r="CB5" s="26"/>
-      <c r="CC5" s="26"/>
-      <c r="CD5" s="26"/>
-      <c r="CE5" s="26"/>
-      <c r="CF5" s="26"/>
-      <c r="CG5" s="26"/>
-      <c r="CH5" s="26"/>
-      <c r="CI5" s="26"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="12"/>
+      <c r="CI6" s="12"/>
     </row>
-    <row r="6" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="24">
-        <v>2</v>
+    <row r="7" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
+        <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25" t="s">
-        <v>28</v>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="26"/>
-      <c r="BB6" s="26"/>
-      <c r="BC6" s="26"/>
-      <c r="BD6" s="26"/>
-      <c r="BE6" s="26"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="26"/>
-      <c r="BH6" s="26"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="26"/>
-      <c r="BK6" s="26"/>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="26"/>
-      <c r="BO6" s="26"/>
-      <c r="BP6" s="26"/>
-      <c r="BQ6" s="26"/>
-      <c r="BR6" s="26"/>
-      <c r="BS6" s="26"/>
-      <c r="BT6" s="26"/>
-      <c r="BU6" s="26"/>
-      <c r="BV6" s="26"/>
-      <c r="BW6" s="26"/>
-      <c r="BX6" s="26"/>
-      <c r="BY6" s="26"/>
-      <c r="BZ6" s="26"/>
-      <c r="CA6" s="26"/>
-      <c r="CB6" s="26"/>
-      <c r="CC6" s="26"/>
-      <c r="CD6" s="26"/>
-      <c r="CE6" s="26"/>
-      <c r="CF6" s="26"/>
-      <c r="CG6" s="26"/>
-      <c r="CH6" s="26"/>
-      <c r="CI6" s="26"/>
-    </row>
-    <row r="7" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24">
-        <v>3</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="31"/>
-      <c r="BE7" s="31"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="31"/>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="31"/>
-      <c r="BQ7" s="31"/>
-      <c r="BR7" s="31"/>
-      <c r="BS7" s="31"/>
-      <c r="BT7" s="31"/>
-      <c r="BU7" s="31"/>
-      <c r="BV7" s="31"/>
-      <c r="BW7" s="31"/>
-      <c r="BX7" s="31"/>
-      <c r="BY7" s="31"/>
-      <c r="BZ7" s="31"/>
-      <c r="CA7" s="31"/>
-      <c r="CB7" s="31"/>
-      <c r="CC7" s="31"/>
-      <c r="CD7" s="31"/>
-      <c r="CE7" s="31"/>
-      <c r="CF7" s="31"/>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="31"/>
-      <c r="CI7" s="31"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="14"/>
+      <c r="CB7" s="14"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="14"/>
+      <c r="CI7" s="16"/>
     </row>
     <row r="8" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="24">
-        <v>4</v>
+      <c r="B8" s="10">
+        <v>5</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="33"/>
-      <c r="BB8" s="33"/>
-      <c r="BC8" s="33"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="33"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="33"/>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33"/>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="33"/>
-      <c r="BU8" s="33"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="33"/>
-      <c r="BX8" s="33"/>
-      <c r="BY8" s="33"/>
-      <c r="BZ8" s="33"/>
-      <c r="CA8" s="33"/>
-      <c r="CB8" s="33"/>
-      <c r="CC8" s="33"/>
-      <c r="CD8" s="33"/>
-      <c r="CE8" s="33"/>
-      <c r="CF8" s="33"/>
-      <c r="CG8" s="33"/>
-      <c r="CH8" s="33"/>
-      <c r="CI8" s="35"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="16"/>
     </row>
     <row r="9" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="24">
-        <v>5</v>
+      <c r="B9" s="10">
+        <v>6</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
       <c r="AR9" s="30"/>
-      <c r="AS9" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33"/>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33"/>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33"/>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33"/>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33"/>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33"/>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="33"/>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
-      <c r="CH9" s="33"/>
-      <c r="CI9" s="35"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26"/>
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26"/>
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="26"/>
+      <c r="BW9" s="26"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="26"/>
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="26"/>
+      <c r="CC9" s="26"/>
+      <c r="CD9" s="26"/>
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="26"/>
+      <c r="CG9" s="26"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="27"/>
     </row>
     <row r="10" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="24">
-        <v>6</v>
+      <c r="B10" s="10">
+        <v>7</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="37"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="37"/>
-      <c r="BK10" s="37"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="37"/>
-      <c r="BN10" s="37"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37"/>
-      <c r="BQ10" s="37"/>
-      <c r="BR10" s="37"/>
-      <c r="BS10" s="37"/>
-      <c r="BT10" s="37"/>
-      <c r="BU10" s="37"/>
-      <c r="BV10" s="37"/>
-      <c r="BW10" s="37"/>
-      <c r="BX10" s="37"/>
-      <c r="BY10" s="37"/>
-      <c r="BZ10" s="37"/>
-      <c r="CA10" s="37"/>
-      <c r="CB10" s="37"/>
-      <c r="CC10" s="37"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="37"/>
-      <c r="CF10" s="37"/>
-      <c r="CG10" s="37"/>
-      <c r="CH10" s="37"/>
-      <c r="CI10" s="38"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="14"/>
+      <c r="CE10" s="14"/>
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="16"/>
     </row>
     <row r="11" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="24">
-        <v>7</v>
+      <c r="B11" s="10">
+        <v>8</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="33"/>
-      <c r="CA11" s="33"/>
-      <c r="CB11" s="33"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="33"/>
-      <c r="CE11" s="33"/>
-      <c r="CF11" s="33"/>
-      <c r="CG11" s="33"/>
-      <c r="CH11" s="33"/>
-      <c r="CI11" s="35"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="7"/>
+      <c r="BU11" s="7"/>
+      <c r="BV11" s="7"/>
+      <c r="BW11" s="7"/>
+      <c r="BX11" s="7"/>
+      <c r="BY11" s="7"/>
+      <c r="BZ11" s="7"/>
+      <c r="CA11" s="7"/>
+      <c r="CB11" s="7"/>
+      <c r="CC11" s="7"/>
+      <c r="CD11" s="7"/>
+      <c r="CE11" s="7"/>
+      <c r="CF11" s="7"/>
+      <c r="CG11" s="7"/>
+      <c r="CH11" s="7"/>
+      <c r="CI11" s="9"/>
     </row>
     <row r="12" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="24">
-        <v>8</v>
+      <c r="B12" s="10">
+        <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4165,1509 +4141,1348 @@
       <c r="CI12" s="9"/>
     </row>
     <row r="13" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="24">
-        <v>9</v>
+      <c r="B13" s="10">
+        <v>10</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="7"/>
-      <c r="BM13" s="7"/>
-      <c r="BN13" s="7"/>
-      <c r="BO13" s="7"/>
-      <c r="BP13" s="7"/>
-      <c r="BQ13" s="7"/>
-      <c r="BR13" s="7"/>
-      <c r="BS13" s="7"/>
-      <c r="BT13" s="7"/>
-      <c r="BU13" s="7"/>
-      <c r="BV13" s="7"/>
-      <c r="BW13" s="7"/>
-      <c r="BX13" s="7"/>
-      <c r="BY13" s="7"/>
-      <c r="BZ13" s="7"/>
-      <c r="CA13" s="7"/>
-      <c r="CB13" s="7"/>
-      <c r="CC13" s="7"/>
-      <c r="CD13" s="7"/>
-      <c r="CE13" s="7"/>
-      <c r="CF13" s="7"/>
-      <c r="CG13" s="7"/>
-      <c r="CH13" s="7"/>
-      <c r="CI13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BP13" s="14"/>
+      <c r="BQ13" s="14"/>
+      <c r="BR13" s="14"/>
+      <c r="BS13" s="14"/>
+      <c r="BT13" s="14"/>
+      <c r="BU13" s="14"/>
+      <c r="BV13" s="14"/>
+      <c r="BW13" s="14"/>
+      <c r="BX13" s="14"/>
+      <c r="BY13" s="14"/>
+      <c r="BZ13" s="14"/>
+      <c r="CA13" s="14"/>
+      <c r="CB13" s="14"/>
+      <c r="CC13" s="14"/>
+      <c r="CD13" s="14"/>
+      <c r="CE13" s="14"/>
+      <c r="CF13" s="14"/>
+      <c r="CG13" s="14"/>
+      <c r="CH13" s="14"/>
+      <c r="CI13" s="16"/>
     </row>
     <row r="14" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="24">
-        <v>10</v>
+      <c r="B14" s="10">
+        <v>11</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="33"/>
-      <c r="BK14" s="33"/>
-      <c r="BL14" s="33"/>
-      <c r="BM14" s="33"/>
-      <c r="BN14" s="33"/>
-      <c r="BO14" s="33"/>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="33"/>
-      <c r="BR14" s="33"/>
-      <c r="BS14" s="33"/>
-      <c r="BT14" s="33"/>
-      <c r="BU14" s="33"/>
-      <c r="BV14" s="33"/>
-      <c r="BW14" s="33"/>
-      <c r="BX14" s="33"/>
-      <c r="BY14" s="33"/>
-      <c r="BZ14" s="33"/>
-      <c r="CA14" s="33"/>
-      <c r="CB14" s="33"/>
-      <c r="CC14" s="33"/>
-      <c r="CD14" s="33"/>
-      <c r="CE14" s="33"/>
-      <c r="CF14" s="33"/>
-      <c r="CG14" s="33"/>
-      <c r="CH14" s="33"/>
-      <c r="CI14" s="35"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+      <c r="BR14" s="12"/>
+      <c r="BS14" s="12"/>
+      <c r="BT14" s="12"/>
+      <c r="BU14" s="12"/>
+      <c r="BV14" s="12"/>
+      <c r="BW14" s="12"/>
+      <c r="BX14" s="12"/>
+      <c r="BY14" s="12"/>
+      <c r="BZ14" s="12"/>
+      <c r="CA14" s="12"/>
+      <c r="CB14" s="12"/>
+      <c r="CC14" s="12"/>
+      <c r="CD14" s="12"/>
+      <c r="CE14" s="12"/>
+      <c r="CF14" s="12"/>
+      <c r="CG14" s="12"/>
+      <c r="CH14" s="12"/>
+      <c r="CI14" s="12"/>
     </row>
     <row r="15" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="24">
-        <v>11</v>
+      <c r="B15" s="10">
+        <v>12</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="31"/>
-      <c r="BN15" s="31"/>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="31"/>
-      <c r="BQ15" s="31"/>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="31"/>
-      <c r="BT15" s="31"/>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="31"/>
-      <c r="BW15" s="31"/>
-      <c r="BX15" s="31"/>
-      <c r="BY15" s="31"/>
-      <c r="BZ15" s="31"/>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="31"/>
-      <c r="CC15" s="31"/>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="31"/>
-      <c r="CF15" s="31"/>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="31"/>
-      <c r="CI15" s="31"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12"/>
+      <c r="BP15" s="12"/>
+      <c r="BQ15" s="12"/>
+      <c r="BR15" s="12"/>
+      <c r="BS15" s="12"/>
+      <c r="BT15" s="12"/>
+      <c r="BU15" s="12"/>
+      <c r="BV15" s="12"/>
+      <c r="BW15" s="12"/>
+      <c r="BX15" s="12"/>
+      <c r="BY15" s="12"/>
+      <c r="BZ15" s="12"/>
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="12"/>
+      <c r="CC15" s="12"/>
+      <c r="CD15" s="12"/>
+      <c r="CE15" s="12"/>
+      <c r="CF15" s="12"/>
+      <c r="CG15" s="12"/>
+      <c r="CH15" s="12"/>
+      <c r="CI15" s="12"/>
     </row>
     <row r="16" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="24">
-        <v>12</v>
+      <c r="B16" s="10">
+        <v>13</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="31"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="31"/>
-      <c r="BH16" s="31"/>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="31"/>
-      <c r="BK16" s="31"/>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="31"/>
-      <c r="BN16" s="31"/>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="31"/>
-      <c r="BQ16" s="31"/>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="31"/>
-      <c r="BT16" s="31"/>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="31"/>
-      <c r="BZ16" s="31"/>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="31"/>
-      <c r="CC16" s="31"/>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="31"/>
-      <c r="CF16" s="31"/>
-      <c r="CG16" s="31"/>
-      <c r="CH16" s="31"/>
-      <c r="CI16" s="31"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
+      <c r="BY16" s="12"/>
+      <c r="BZ16" s="12"/>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="12"/>
+      <c r="CI16" s="12"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="24">
-        <v>13</v>
+      <c r="B17" s="10">
+        <v>14</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="31"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="31"/>
-      <c r="BK17" s="31"/>
-      <c r="BL17" s="31"/>
-      <c r="BM17" s="31"/>
-      <c r="BN17" s="31"/>
-      <c r="BO17" s="31"/>
-      <c r="BP17" s="31"/>
-      <c r="BQ17" s="31"/>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="31"/>
-      <c r="BT17" s="31"/>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="31"/>
-      <c r="BW17" s="31"/>
-      <c r="BX17" s="31"/>
-      <c r="BY17" s="31"/>
-      <c r="BZ17" s="31"/>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="31"/>
-      <c r="CC17" s="31"/>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="31"/>
-      <c r="CF17" s="31"/>
-      <c r="CG17" s="31"/>
-      <c r="CH17" s="31"/>
-      <c r="CI17" s="31"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
+      <c r="CE17" s="12"/>
+      <c r="CF17" s="12"/>
+      <c r="CG17" s="12"/>
+      <c r="CH17" s="12"/>
+      <c r="CI17" s="12"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="24">
-        <v>14</v>
+      <c r="B18" s="10">
+        <v>15</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="31"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="31"/>
-      <c r="BW18" s="31"/>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="31"/>
-      <c r="BZ18" s="31"/>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="31"/>
-      <c r="CC18" s="31"/>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="31"/>
-      <c r="CF18" s="31"/>
-      <c r="CG18" s="31"/>
-      <c r="CH18" s="31"/>
-      <c r="CI18" s="31"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
+      <c r="BW18" s="12"/>
+      <c r="BX18" s="12"/>
+      <c r="BY18" s="12"/>
+      <c r="BZ18" s="12"/>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="12"/>
+      <c r="CE18" s="12"/>
+      <c r="CF18" s="12"/>
+      <c r="CG18" s="12"/>
+      <c r="CH18" s="12"/>
+      <c r="CI18" s="12"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="24">
-        <v>15</v>
+      <c r="B19" s="10">
+        <v>16</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="31"/>
-      <c r="BQ19" s="31"/>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="31"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="31"/>
-      <c r="BW19" s="31"/>
-      <c r="BX19" s="31"/>
-      <c r="BY19" s="31"/>
-      <c r="BZ19" s="31"/>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="31"/>
-      <c r="CC19" s="31"/>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="31"/>
-      <c r="CF19" s="31"/>
-      <c r="CG19" s="31"/>
-      <c r="CH19" s="31"/>
-      <c r="CI19" s="31"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="12"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
+      <c r="CE19" s="12"/>
+      <c r="CF19" s="12"/>
+      <c r="CG19" s="12"/>
+      <c r="CH19" s="12"/>
+      <c r="CI19" s="12"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="24">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="12"/>
+      <c r="BS20" s="12"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="12"/>
+      <c r="BX20" s="12"/>
+      <c r="BY20" s="12"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="12"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="12"/>
+    </row>
+    <row r="21" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="24"/>
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="24"/>
+      <c r="BC21" s="24"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="24"/>
+      <c r="BJ21" s="24"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="24"/>
+      <c r="BO21" s="24"/>
+      <c r="BP21" s="24"/>
+      <c r="BQ21" s="24"/>
+      <c r="BR21" s="24"/>
+      <c r="BS21" s="24"/>
+      <c r="BT21" s="24"/>
+      <c r="BU21" s="24"/>
+      <c r="BV21" s="24"/>
+      <c r="BW21" s="24"/>
+      <c r="BX21" s="24"/>
+      <c r="BY21" s="24"/>
+      <c r="BZ21" s="24"/>
+      <c r="CA21" s="24"/>
+      <c r="CB21" s="24"/>
+      <c r="CC21" s="24"/>
+      <c r="CD21" s="24"/>
+      <c r="CE21" s="24"/>
+      <c r="CF21" s="24"/>
+      <c r="CG21" s="24"/>
+      <c r="CH21" s="24"/>
+      <c r="CI21" s="24"/>
+    </row>
+    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
-      <c r="BK20" s="31"/>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="31"/>
-      <c r="BN20" s="31"/>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="31"/>
-      <c r="BQ20" s="31"/>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="31"/>
-      <c r="BT20" s="31"/>
-      <c r="BU20" s="31"/>
-      <c r="BV20" s="31"/>
-      <c r="BW20" s="31"/>
-      <c r="BX20" s="31"/>
-      <c r="BY20" s="31"/>
-      <c r="BZ20" s="31"/>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="31"/>
-      <c r="CC20" s="31"/>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="31"/>
-      <c r="CF20" s="31"/>
-      <c r="CG20" s="31"/>
-      <c r="CH20" s="31"/>
-      <c r="CI20" s="31"/>
-    </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="24">
-        <v>17</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="31"/>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="31"/>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="31"/>
-      <c r="BQ21" s="31"/>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="31"/>
-      <c r="BT21" s="31"/>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="31"/>
-      <c r="BW21" s="31"/>
-      <c r="BX21" s="31"/>
-      <c r="BY21" s="31"/>
-      <c r="BZ21" s="31"/>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="31"/>
-      <c r="CC21" s="31"/>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="31"/>
-      <c r="CF21" s="31"/>
-      <c r="CG21" s="31"/>
-      <c r="CH21" s="31"/>
-      <c r="CI21" s="31"/>
-    </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="24">
-        <v>18</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="49"/>
-      <c r="AY22" s="49"/>
-      <c r="AZ22" s="49"/>
-      <c r="BA22" s="49"/>
-      <c r="BB22" s="49"/>
-      <c r="BC22" s="49"/>
-      <c r="BD22" s="49"/>
-      <c r="BE22" s="49"/>
-      <c r="BF22" s="49"/>
-      <c r="BG22" s="49"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="49"/>
-      <c r="BJ22" s="49"/>
-      <c r="BK22" s="49"/>
-      <c r="BL22" s="49"/>
-      <c r="BM22" s="49"/>
-      <c r="BN22" s="49"/>
-      <c r="BO22" s="49"/>
-      <c r="BP22" s="49"/>
-      <c r="BQ22" s="49"/>
-      <c r="BR22" s="49"/>
-      <c r="BS22" s="49"/>
-      <c r="BT22" s="49"/>
-      <c r="BU22" s="49"/>
-      <c r="BV22" s="49"/>
-      <c r="BW22" s="49"/>
-      <c r="BX22" s="49"/>
-      <c r="BY22" s="49"/>
-      <c r="BZ22" s="49"/>
-      <c r="CA22" s="49"/>
-      <c r="CB22" s="49"/>
-      <c r="CC22" s="49"/>
-      <c r="CD22" s="49"/>
-      <c r="CE22" s="49"/>
-      <c r="CF22" s="49"/>
-      <c r="CG22" s="49"/>
-      <c r="CH22" s="49"/>
-      <c r="CI22" s="49"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="18"/>
+      <c r="BJ22" s="18"/>
+      <c r="BK22" s="18"/>
+      <c r="BL22" s="18"/>
+      <c r="BM22" s="18"/>
+      <c r="BN22" s="18"/>
+      <c r="BO22" s="18"/>
+      <c r="BP22" s="18"/>
+      <c r="BQ22" s="18"/>
+      <c r="BR22" s="18"/>
+      <c r="BS22" s="18"/>
+      <c r="BT22" s="18"/>
+      <c r="BU22" s="18"/>
+      <c r="BV22" s="18"/>
+      <c r="BW22" s="18"/>
+      <c r="BX22" s="18"/>
+      <c r="BY22" s="18"/>
+      <c r="BZ22" s="18"/>
+      <c r="CA22" s="18"/>
+      <c r="CB22" s="18"/>
+      <c r="CC22" s="18"/>
+      <c r="CD22" s="18"/>
+      <c r="CE22" s="18"/>
+      <c r="CF22" s="18"/>
+      <c r="CG22" s="18"/>
+      <c r="CH22" s="18"/>
+      <c r="CI22" s="18"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="43"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="43"/>
-      <c r="AT23" s="43"/>
-      <c r="AU23" s="43"/>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
-      <c r="BB23" s="43"/>
-      <c r="BC23" s="43"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="43"/>
-      <c r="BM23" s="43"/>
-      <c r="BN23" s="43"/>
-      <c r="BO23" s="43"/>
-      <c r="BP23" s="43"/>
-      <c r="BQ23" s="43"/>
-      <c r="BR23" s="43"/>
-      <c r="BS23" s="43"/>
-      <c r="BT23" s="43"/>
-      <c r="BU23" s="43"/>
-      <c r="BV23" s="43"/>
-      <c r="BW23" s="43"/>
-      <c r="BX23" s="43"/>
-      <c r="BY23" s="43"/>
-      <c r="BZ23" s="43"/>
-      <c r="CA23" s="43"/>
-      <c r="CB23" s="43"/>
-      <c r="CC23" s="43"/>
-      <c r="CD23" s="43"/>
-      <c r="CE23" s="43"/>
-      <c r="CF23" s="43"/>
-      <c r="CG23" s="43"/>
-      <c r="CH23" s="43"/>
-      <c r="CI23" s="43"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="20"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CF23" s="20"/>
+      <c r="CG23" s="20"/>
+      <c r="CH23" s="20"/>
+      <c r="CI23" s="20"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="45"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
-      <c r="BL24" s="45"/>
-      <c r="BM24" s="45"/>
-      <c r="BN24" s="45"/>
-      <c r="BO24" s="45"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="45"/>
-      <c r="BR24" s="45"/>
-      <c r="BS24" s="45"/>
-      <c r="BT24" s="45"/>
-      <c r="BU24" s="45"/>
-      <c r="BV24" s="45"/>
-      <c r="BW24" s="45"/>
-      <c r="BX24" s="45"/>
-      <c r="BY24" s="45"/>
-      <c r="BZ24" s="45"/>
-      <c r="CA24" s="45"/>
-      <c r="CB24" s="45"/>
-      <c r="CC24" s="45"/>
-      <c r="CD24" s="45"/>
-      <c r="CE24" s="45"/>
-      <c r="CF24" s="45"/>
-      <c r="CG24" s="45"/>
-      <c r="CH24" s="45"/>
-      <c r="CI24" s="45"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="20"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="20"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="BZ24" s="20"/>
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+      <c r="CC24" s="20"/>
+      <c r="CD24" s="20"/>
+      <c r="CE24" s="20"/>
+      <c r="CF24" s="20"/>
+      <c r="CG24" s="20"/>
+      <c r="CH24" s="20"/>
+      <c r="CI24" s="20"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="45"/>
-      <c r="BL25" s="45"/>
-      <c r="BM25" s="45"/>
-      <c r="BN25" s="45"/>
-      <c r="BO25" s="45"/>
-      <c r="BP25" s="45"/>
-      <c r="BQ25" s="45"/>
-      <c r="BR25" s="45"/>
-      <c r="BS25" s="45"/>
-      <c r="BT25" s="45"/>
-      <c r="BU25" s="45"/>
-      <c r="BV25" s="45"/>
-      <c r="BW25" s="45"/>
-      <c r="BX25" s="45"/>
-      <c r="BY25" s="45"/>
-      <c r="BZ25" s="45"/>
-      <c r="CA25" s="45"/>
-      <c r="CB25" s="45"/>
-      <c r="CC25" s="45"/>
-      <c r="CD25" s="45"/>
-      <c r="CE25" s="45"/>
-      <c r="CF25" s="45"/>
-      <c r="CG25" s="45"/>
-      <c r="CH25" s="45"/>
-      <c r="CI25" s="45"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="20"/>
+      <c r="BR25" s="20"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="20"/>
+      <c r="BU25" s="20"/>
+      <c r="BV25" s="20"/>
+      <c r="BW25" s="20"/>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
+      <c r="BZ25" s="20"/>
+      <c r="CA25" s="20"/>
+      <c r="CB25" s="20"/>
+      <c r="CC25" s="20"/>
+      <c r="CD25" s="20"/>
+      <c r="CE25" s="20"/>
+      <c r="CF25" s="20"/>
+      <c r="CG25" s="20"/>
+      <c r="CH25" s="20"/>
+      <c r="CI25" s="20"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="45"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="45"/>
-      <c r="BF26" s="45"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
-      <c r="BL26" s="45"/>
-      <c r="BM26" s="45"/>
-      <c r="BN26" s="45"/>
-      <c r="BO26" s="45"/>
-      <c r="BP26" s="45"/>
-      <c r="BQ26" s="45"/>
-      <c r="BR26" s="45"/>
-      <c r="BS26" s="45"/>
-      <c r="BT26" s="45"/>
-      <c r="BU26" s="45"/>
-      <c r="BV26" s="45"/>
-      <c r="BW26" s="45"/>
-      <c r="BX26" s="45"/>
-      <c r="BY26" s="45"/>
-      <c r="BZ26" s="45"/>
-      <c r="CA26" s="45"/>
-      <c r="CB26" s="45"/>
-      <c r="CC26" s="45"/>
-      <c r="CD26" s="45"/>
-      <c r="CE26" s="45"/>
-      <c r="CF26" s="45"/>
-      <c r="CG26" s="45"/>
-      <c r="CH26" s="45"/>
-      <c r="CI26" s="45"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="20"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="20"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="20"/>
+      <c r="CE26" s="20"/>
+      <c r="CF26" s="20"/>
+      <c r="CG26" s="20"/>
+      <c r="CH26" s="20"/>
+      <c r="CI26" s="20"/>
     </row>
-    <row r="27" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="45"/>
-      <c r="BF27" s="45"/>
-      <c r="BG27" s="45"/>
-      <c r="BH27" s="45"/>
-      <c r="BI27" s="45"/>
-      <c r="BJ27" s="45"/>
-      <c r="BK27" s="45"/>
-      <c r="BL27" s="45"/>
-      <c r="BM27" s="45"/>
-      <c r="BN27" s="45"/>
-      <c r="BO27" s="45"/>
-      <c r="BP27" s="45"/>
-      <c r="BQ27" s="45"/>
-      <c r="BR27" s="45"/>
-      <c r="BS27" s="45"/>
-      <c r="BT27" s="45"/>
-      <c r="BU27" s="45"/>
-      <c r="BV27" s="45"/>
-      <c r="BW27" s="45"/>
-      <c r="BX27" s="45"/>
-      <c r="BY27" s="45"/>
-      <c r="BZ27" s="45"/>
-      <c r="CA27" s="45"/>
-      <c r="CB27" s="45"/>
-      <c r="CC27" s="45"/>
-      <c r="CD27" s="45"/>
-      <c r="CE27" s="45"/>
-      <c r="CF27" s="45"/>
-      <c r="CG27" s="45"/>
-      <c r="CH27" s="45"/>
-      <c r="CI27" s="45"/>
+    <row r="27" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="22"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="22"/>
+      <c r="BF27" s="22"/>
+      <c r="BG27" s="22"/>
+      <c r="BH27" s="22"/>
+      <c r="BI27" s="22"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="22"/>
+      <c r="BM27" s="22"/>
+      <c r="BN27" s="22"/>
+      <c r="BO27" s="22"/>
+      <c r="BP27" s="22"/>
+      <c r="BQ27" s="22"/>
+      <c r="BR27" s="22"/>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="22"/>
+      <c r="BU27" s="22"/>
+      <c r="BV27" s="22"/>
+      <c r="BW27" s="22"/>
+      <c r="BX27" s="22"/>
+      <c r="BY27" s="22"/>
+      <c r="BZ27" s="22"/>
+      <c r="CA27" s="22"/>
+      <c r="CB27" s="22"/>
+      <c r="CC27" s="22"/>
+      <c r="CD27" s="22"/>
+      <c r="CE27" s="22"/>
+      <c r="CF27" s="22"/>
+      <c r="CG27" s="22"/>
+      <c r="CH27" s="22"/>
+      <c r="CI27" s="22"/>
     </row>
-    <row r="28" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="47"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
-      <c r="AS28" s="47"/>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="47"/>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
-      <c r="AX28" s="47"/>
-      <c r="AY28" s="47"/>
-      <c r="AZ28" s="47"/>
-      <c r="BA28" s="47"/>
-      <c r="BB28" s="47"/>
-      <c r="BC28" s="47"/>
-      <c r="BD28" s="47"/>
-      <c r="BE28" s="47"/>
-      <c r="BF28" s="47"/>
-      <c r="BG28" s="47"/>
-      <c r="BH28" s="47"/>
-      <c r="BI28" s="47"/>
-      <c r="BJ28" s="47"/>
-      <c r="BK28" s="47"/>
-      <c r="BL28" s="47"/>
-      <c r="BM28" s="47"/>
-      <c r="BN28" s="47"/>
-      <c r="BO28" s="47"/>
-      <c r="BP28" s="47"/>
-      <c r="BQ28" s="47"/>
-      <c r="BR28" s="47"/>
-      <c r="BS28" s="47"/>
-      <c r="BT28" s="47"/>
-      <c r="BU28" s="47"/>
-      <c r="BV28" s="47"/>
-      <c r="BW28" s="47"/>
-      <c r="BX28" s="47"/>
-      <c r="BY28" s="47"/>
-      <c r="BZ28" s="47"/>
-      <c r="CA28" s="47"/>
-      <c r="CB28" s="47"/>
-      <c r="CC28" s="47"/>
-      <c r="CD28" s="47"/>
-      <c r="CE28" s="47"/>
-      <c r="CF28" s="47"/>
-      <c r="CG28" s="47"/>
-      <c r="CH28" s="47"/>
-      <c r="CI28" s="47"/>
-    </row>
-    <row r="29" spans="2:87" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:87" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AR18"/>
-    <mergeCell ref="AS18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="AS19:CI19"/>
-    <mergeCell ref="Y19:AR19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AR17"/>
-    <mergeCell ref="AS17:CI17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="Y15:AR15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AR14"/>
-    <mergeCell ref="AS14:CI14"/>
-    <mergeCell ref="B23:CI28"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="AS20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="AS21:CI21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AR20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="AS22:CI22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="AS10:CI10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AR11"/>
-    <mergeCell ref="AS11:CI11"/>
-    <mergeCell ref="Y10:AR10"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AR9"/>
-    <mergeCell ref="AS9:CI9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:X6"/>
-    <mergeCell ref="Y6:AR6"/>
-    <mergeCell ref="AS6:CI6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
+  <mergeCells count="81">
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
@@ -5682,6 +5497,73 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="E6:X6"/>
+    <mergeCell ref="Y6:AR6"/>
+    <mergeCell ref="AS6:CI6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="AS9:CI9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AR10"/>
+    <mergeCell ref="AS10:CI10"/>
+    <mergeCell ref="Y9:AR9"/>
+    <mergeCell ref="B22:CI27"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="AS19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AR20"/>
+    <mergeCell ref="AS20:CI20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AR19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AR21"/>
+    <mergeCell ref="AS21:CI21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="AS14:CI14"/>
+    <mergeCell ref="Y14:AR14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AR13"/>
+    <mergeCell ref="AS13:CI13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AR15"/>
+    <mergeCell ref="AS15:CI15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AR16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AR17"/>
+    <mergeCell ref="AS17:CI17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="AS18:CI18"/>
+    <mergeCell ref="Y18:AR18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BD904-29C9-499A-93D2-805906F60E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF3DB6-BD87-49B8-BD03-CA10C19D045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>システム名</t>
   </si>
@@ -136,19 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>index以外のページにアクセスしたらindexに飛ぶ　spring security利用</t>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>認証機能</t>
     <rPh sb="0" eb="2">
       <t>ニンショウ</t>
@@ -216,6 +203,17 @@
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>苑</t>
+    <rPh sb="0" eb="1">
+      <t>ソノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他のページにアクセスできず、初回は必ずウェルカムページに飛ぶようにする</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -290,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -569,12 +567,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -583,46 +638,20 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -631,7 +660,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -679,7 +708,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,16 +720,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,12 +744,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,6 +752,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -777,6 +800,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1128,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI28"/>
+  <dimension ref="A1:AMI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7:CI7"/>
+      <selection activeCell="CM13" sqref="CM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1146,102 +1184,104 @@
   <sheetData>
     <row r="1" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="47" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="48" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="36" t="s">
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="46"/>
+      <c r="BP1" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ1" s="47"/>
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="47"/>
+      <c r="BV1" s="47"/>
+      <c r="BW1" s="47"/>
+      <c r="BX1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="37"/>
-      <c r="CC1" s="37"/>
-      <c r="CD1" s="37"/>
-      <c r="CE1" s="37"/>
-      <c r="CF1" s="37"/>
-      <c r="CG1" s="37"/>
-      <c r="CH1" s="37"/>
-      <c r="CI1" s="37"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="35"/>
+      <c r="CG1" s="35"/>
+      <c r="CH1" s="35"/>
+      <c r="CI1" s="35"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2180,102 +2220,104 @@
     </row>
     <row r="2" spans="1:1022" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="41" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="42"/>
-      <c r="BR2" s="42"/>
-      <c r="BS2" s="42"/>
-      <c r="BT2" s="42"/>
-      <c r="BU2" s="42"/>
-      <c r="BV2" s="42"/>
-      <c r="BW2" s="42"/>
-      <c r="BX2" s="43" t="s">
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="40">
+        <v>44510</v>
+      </c>
+      <c r="BQ2" s="40"/>
+      <c r="BR2" s="40"/>
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="40"/>
+      <c r="BV2" s="40"/>
+      <c r="BW2" s="40"/>
+      <c r="BX2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="44"/>
-      <c r="CC2" s="44"/>
-      <c r="CD2" s="44"/>
-      <c r="CE2" s="44"/>
-      <c r="CF2" s="44"/>
-      <c r="CG2" s="44"/>
-      <c r="CH2" s="44"/>
-      <c r="CI2" s="44"/>
+      <c r="BY2" s="41"/>
+      <c r="BZ2" s="41"/>
+      <c r="CA2" s="41"/>
+      <c r="CB2" s="42"/>
+      <c r="CC2" s="42"/>
+      <c r="CD2" s="42"/>
+      <c r="CE2" s="42"/>
+      <c r="CF2" s="42"/>
+      <c r="CG2" s="42"/>
+      <c r="CH2" s="42"/>
+      <c r="CI2" s="42"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3301,100 +3343,100 @@
       <c r="CI3" s="5"/>
     </row>
     <row r="4" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="35" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
     </row>
     <row r="5" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10">
@@ -3402,95 +3444,95 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="32" t="s">
-        <v>25</v>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="33" t="s">
+        <v>24</v>
       </c>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="32"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="33"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33"/>
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="33"/>
     </row>
     <row r="6" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
@@ -3543,7 +3585,7 @@
       <c r="AQ6" s="11"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
@@ -3639,7 +3681,7 @@
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT7" s="14"/>
       <c r="AU7" s="14"/>
@@ -3691,7 +3733,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -3735,7 +3777,7 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
       <c r="AS8" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AT8" s="14"/>
       <c r="AU8" s="14"/>
@@ -3806,69 +3848,69 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26"/>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26"/>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26"/>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26"/>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26"/>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26"/>
-      <c r="CI9" s="27"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24"/>
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24"/>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24"/>
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24"/>
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24"/>
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24"/>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
+      <c r="CH9" s="24"/>
+      <c r="CI9" s="25"/>
     </row>
     <row r="10" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
@@ -4866,89 +4908,89 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="24"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="24"/>
-      <c r="BK21" s="24"/>
-      <c r="BL21" s="24"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="24"/>
-      <c r="BO21" s="24"/>
-      <c r="BP21" s="24"/>
-      <c r="BQ21" s="24"/>
-      <c r="BR21" s="24"/>
-      <c r="BS21" s="24"/>
-      <c r="BT21" s="24"/>
-      <c r="BU21" s="24"/>
-      <c r="BV21" s="24"/>
-      <c r="BW21" s="24"/>
-      <c r="BX21" s="24"/>
-      <c r="BY21" s="24"/>
-      <c r="BZ21" s="24"/>
-      <c r="CA21" s="24"/>
-      <c r="CB21" s="24"/>
-      <c r="CC21" s="24"/>
-      <c r="CD21" s="24"/>
-      <c r="CE21" s="24"/>
-      <c r="CF21" s="24"/>
-      <c r="CG21" s="24"/>
-      <c r="CH21" s="24"/>
-      <c r="CI21" s="24"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+      <c r="BL21" s="22"/>
+      <c r="BM21" s="22"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="22"/>
+      <c r="BP21" s="22"/>
+      <c r="BQ21" s="22"/>
+      <c r="BR21" s="22"/>
+      <c r="BS21" s="22"/>
+      <c r="BT21" s="22"/>
+      <c r="BU21" s="22"/>
+      <c r="BV21" s="22"/>
+      <c r="BW21" s="22"/>
+      <c r="BX21" s="22"/>
+      <c r="BY21" s="22"/>
+      <c r="BZ21" s="22"/>
+      <c r="CA21" s="22"/>
+      <c r="CB21" s="22"/>
+      <c r="CC21" s="22"/>
+      <c r="CD21" s="22"/>
+      <c r="CE21" s="22"/>
+      <c r="CF21" s="22"/>
+      <c r="CG21" s="22"/>
+      <c r="CH21" s="22"/>
+      <c r="CI21" s="22"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="17" t="s">
@@ -5038,7 +5080,7 @@
       <c r="CF22" s="18"/>
       <c r="CG22" s="18"/>
       <c r="CH22" s="18"/>
-      <c r="CI22" s="18"/>
+      <c r="CI22" s="48"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="19"/>
@@ -5126,7 +5168,7 @@
       <c r="CF23" s="20"/>
       <c r="CG23" s="20"/>
       <c r="CH23" s="20"/>
-      <c r="CI23" s="20"/>
+      <c r="CI23" s="49"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="19"/>
@@ -5214,7 +5256,7 @@
       <c r="CF24" s="20"/>
       <c r="CG24" s="20"/>
       <c r="CH24" s="20"/>
-      <c r="CI24" s="20"/>
+      <c r="CI24" s="49"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="19"/>
@@ -5302,7 +5344,7 @@
       <c r="CF25" s="20"/>
       <c r="CG25" s="20"/>
       <c r="CH25" s="20"/>
-      <c r="CI25" s="20"/>
+      <c r="CI25" s="49"/>
     </row>
     <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="19"/>
@@ -5390,97 +5432,96 @@
       <c r="CF26" s="20"/>
       <c r="CG26" s="20"/>
       <c r="CH26" s="20"/>
-      <c r="CI26" s="20"/>
+      <c r="CI26" s="49"/>
     </row>
     <row r="27" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
-      <c r="AR27" s="22"/>
-      <c r="AS27" s="22"/>
-      <c r="AT27" s="22"/>
-      <c r="AU27" s="22"/>
-      <c r="AV27" s="22"/>
-      <c r="AW27" s="22"/>
-      <c r="AX27" s="22"/>
-      <c r="AY27" s="22"/>
-      <c r="AZ27" s="22"/>
-      <c r="BA27" s="22"/>
-      <c r="BB27" s="22"/>
-      <c r="BC27" s="22"/>
-      <c r="BD27" s="22"/>
-      <c r="BE27" s="22"/>
-      <c r="BF27" s="22"/>
-      <c r="BG27" s="22"/>
-      <c r="BH27" s="22"/>
-      <c r="BI27" s="22"/>
-      <c r="BJ27" s="22"/>
-      <c r="BK27" s="22"/>
-      <c r="BL27" s="22"/>
-      <c r="BM27" s="22"/>
-      <c r="BN27" s="22"/>
-      <c r="BO27" s="22"/>
-      <c r="BP27" s="22"/>
-      <c r="BQ27" s="22"/>
-      <c r="BR27" s="22"/>
-      <c r="BS27" s="22"/>
-      <c r="BT27" s="22"/>
-      <c r="BU27" s="22"/>
-      <c r="BV27" s="22"/>
-      <c r="BW27" s="22"/>
-      <c r="BX27" s="22"/>
-      <c r="BY27" s="22"/>
-      <c r="BZ27" s="22"/>
-      <c r="CA27" s="22"/>
-      <c r="CB27" s="22"/>
-      <c r="CC27" s="22"/>
-      <c r="CD27" s="22"/>
-      <c r="CE27" s="22"/>
-      <c r="CF27" s="22"/>
-      <c r="CG27" s="22"/>
-      <c r="CH27" s="22"/>
-      <c r="CI27" s="22"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="51"/>
+      <c r="BC27" s="51"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="51"/>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="51"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27" s="51"/>
+      <c r="BM27" s="51"/>
+      <c r="BN27" s="51"/>
+      <c r="BO27" s="51"/>
+      <c r="BP27" s="51"/>
+      <c r="BQ27" s="51"/>
+      <c r="BR27" s="51"/>
+      <c r="BS27" s="51"/>
+      <c r="BT27" s="51"/>
+      <c r="BU27" s="51"/>
+      <c r="BV27" s="51"/>
+      <c r="BW27" s="51"/>
+      <c r="BX27" s="51"/>
+      <c r="BY27" s="51"/>
+      <c r="BZ27" s="51"/>
+      <c r="CA27" s="51"/>
+      <c r="CB27" s="51"/>
+      <c r="CC27" s="51"/>
+      <c r="CD27" s="51"/>
+      <c r="CE27" s="51"/>
+      <c r="CF27" s="51"/>
+      <c r="CG27" s="51"/>
+      <c r="CH27" s="51"/>
+      <c r="CI27" s="52"/>
     </row>
-    <row r="28" spans="2:87" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="81">
     <mergeCell ref="BX1:CA1"/>
